--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89790DB6-DD62-4625-9185-58030C88AE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399BA9F-B3F0-4176-8CBA-0753BFF559ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="531">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2072,10 +2072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超前武器需要减少一层加权，可减为负数。具体可查看下方的解锁等级。纵向联弹由于不衰减，当有霰弹值时添加负层级作为平衡，负层级计算方式为-(霰弹值-1)/2。横向联弹有衰减，无需负层级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大容量机枪（弹容&gt;100）为1.5，喷火器类为1.5，散弹枪为1.5，轰炸类为1.5，次级穿刺为1.5，穿刺类为2。只掉落、无法金币或k点购买的武器为0.5，非购买途径明显早于购买途径的物品也为0.5。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2093,6 +2089,37 @@
   </si>
   <si>
     <t>喷火/次级穿刺子弹/高弹速穿刺狙击枪的穿刺系数为1.5，普通穿刺为2，非穿刺为1（其他拥有穿刺效果根据单体段数数量填入穿刺系数，段数较多时可填3或更高的穿刺系数）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超前武器需要减少一层加权，可减为负数。具体可查看下方的解锁等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向联弹填入霰弹值计算见右下方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺系数</t>
+  </si>
+  <si>
+    <t>填入霰弹值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(xml数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向联弹填入公式霰弹值计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向联弹则直接填split原始值即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2100,8 +2127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -2265,7 +2293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2353,6 +2381,8 @@
     <xf numFmtId="176" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3069,7 +3099,7 @@
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3088,6 +3118,7 @@
     <col min="13" max="13" width="7.58203125" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="19" max="19" width="9.08203125" customWidth="1"/>
     <col min="20" max="20" width="12.1640625" customWidth="1"/>
     <col min="21" max="21" width="12.5" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
@@ -4899,6 +4930,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
@@ -4930,7 +4965,7 @@
         <v>274</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.3">
@@ -4970,12 +5005,24 @@
       <c r="C24" t="s">
         <v>309</v>
       </c>
+      <c r="Q24" s="51" t="s">
+        <v>529</v>
+      </c>
       <c r="AL24" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
+      <c r="Q25" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>526</v>
+      </c>
       <c r="AL25" t="s">
         <v>90</v>
       </c>
@@ -4996,6 +5043,16 @@
       <c r="C26" t="s">
         <v>299</v>
       </c>
+      <c r="Q26" s="37">
+        <v>3</v>
+      </c>
+      <c r="R26" s="37">
+        <v>1</v>
+      </c>
+      <c r="S26" s="52">
+        <f>Q26+Q26*0.33+Q26*0.6/R26-1</f>
+        <v>4.79</v>
+      </c>
       <c r="AK26" s="2" t="s">
         <v>267</v>
       </c>
@@ -5017,6 +5074,9 @@
       <c r="C27" t="s">
         <v>300</v>
       </c>
+      <c r="Q27" t="s">
+        <v>528</v>
+      </c>
       <c r="AL27" s="28">
         <v>20</v>
       </c>
@@ -5035,6 +5095,9 @@
       <c r="C28" t="s">
         <v>180</v>
       </c>
+      <c r="Q28" t="s">
+        <v>530</v>
+      </c>
       <c r="AL28" s="28">
         <v>30</v>
       </c>
@@ -5087,7 +5150,7 @@
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>268</v>
@@ -5110,7 +5173,7 @@
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="AL32" s="2" t="s">
         <v>377</v>
@@ -19850,12 +19913,12 @@
         <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -19978,7 +20041,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399BA9F-B3F0-4176-8CBA-0753BFF559ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C58501-20D2-411E-9C99-54D45E3FDA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2072,10 +2072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大容量机枪（弹容&gt;100）为1.5，喷火器类为1.5，散弹枪为1.5，轰炸类为1.5，次级穿刺为1.5，穿刺类为2。只掉落、无法金币或k点购买的武器为0.5，非购买途径明显早于购买途径的物品也为0.5。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>短刀为0.5，常规刀为1，长武器为1.5，特效+0.5（强力特效则+1），强力战技+0.5（战技不强时可不加）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2084,10 +2080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大容量机枪（弹容&gt;100）的弹容量种族优势可额外换2-3层级，对应种族价格系数，可叠加武器价格层级。穿刺枪的种族优势为群攻，散弹的种族优势为吃拐率，不反映在面板上，所以无额外加权层级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喷火/次级穿刺子弹/高弹速穿刺狙击枪的穿刺系数为1.5，普通穿刺为2，非穿刺为1（其他拥有穿刺效果根据单体段数数量填入穿刺系数，段数较多时可填3或更高的穿刺系数）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2120,6 +2112,14 @@
   </si>
   <si>
     <t>横向联弹则直接填split原始值即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大容量机枪（弹容≥125）的弹容量种族优势可额外换2-3层级，对应种族价格系数，可叠加武器价格层级。穿刺枪的种族优势为群攻，散弹的种族优势为吃拐率，不反映在面板上，所以无额外加权层级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大容量机枪（弹容≥125）为1.5，喷火器类为1.5，散弹枪为1.5，轰炸类为1.5，次级穿刺为1.5，穿刺类为2。只掉落、无法金币或k点购买的武器为0.5，非购买途径明显早于购买途径的物品也为0.5。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3099,7 +3099,7 @@
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4932,7 +4932,7 @@
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.3">
@@ -4965,7 +4965,7 @@
         <v>274</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.3">
@@ -5006,7 +5006,7 @@
         <v>309</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>266</v>
@@ -5015,13 +5015,13 @@
     <row r="25" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="S25" s="39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AL25" t="s">
         <v>90</v>
@@ -5050,8 +5050,8 @@
         <v>1</v>
       </c>
       <c r="S26" s="52">
-        <f>Q26+Q26*0.33+Q26*0.6/R26-1</f>
-        <v>4.79</v>
+        <f>Q26*0.8+Q26*0.5/R26+0.1</f>
+        <v>4</v>
       </c>
       <c r="AK26" s="2" t="s">
         <v>267</v>
@@ -5075,7 +5075,7 @@
         <v>300</v>
       </c>
       <c r="Q27" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AL27" s="28">
         <v>20</v>
@@ -5096,7 +5096,7 @@
         <v>180</v>
       </c>
       <c r="Q28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AL28" s="28">
         <v>30</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>268</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AL32" s="2" t="s">
         <v>377</v>
@@ -19730,7 +19730,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19913,12 +19913,12 @@
         <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20041,7 +20041,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C58501-20D2-411E-9C99-54D45E3FDA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD5AE8-41E9-4957-8EFA-703DC6D4561D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="537">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锋利度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐锋利度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1320,10 +1316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面板转换的基本计算公式暂定为1攻=1.5防=3hp=3mp，1重量=3.3攻=5防=10hp=10mp，1攻=0.8空手加成=1伤害加成。以此为依据可进行面板转换。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>限制等级低于40级的属性伤害武器视为超前武器，需减少一层加权等级，可减到负数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2120,6 +2112,38 @@
   </si>
   <si>
     <t>大容量机枪（弹容≥125）为1.5，喷火器类为1.5，散弹枪为1.5，轰炸类为1.5，次级穿刺为1.5，穿刺类为2。只掉落、无法金币或k点购买的武器为0.5，非购买途径明显早于购买途径的物品也为0.5。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板转换的基本计算参考下方，公式暂定为1攻=1.5防=3hp=3mp，1重量=3.3攻=5防=10hp=10mp，1攻=0.8空手加成=1伤害加成。以此为依据可进行面板转换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算的总攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算的总攻击≈上方推荐锋利度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3099,7 +3123,7 @@
   <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3142,51 +3166,51 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
       <c r="I1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="V1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -3204,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -3213,94 +3237,94 @@
         <v>4</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="X2" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y2" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="W2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM2" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="X2" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI2" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="AN2" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
@@ -3569,10 +3593,10 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3708,7 +3732,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="12">
         <v>30</v>
@@ -3837,11 +3861,11 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="12">
         <v>28</v>
@@ -3970,11 +3994,11 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="12">
         <v>35</v>
@@ -4103,13 +4127,13 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>16</v>
@@ -4247,7 +4271,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>21</v>
@@ -4385,13 +4409,13 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="31">
         <v>13</v>
@@ -4523,13 +4547,13 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="12">
         <v>30</v>
@@ -4658,11 +4682,11 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="12">
         <v>32</v>
@@ -4791,11 +4815,11 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="12">
         <v>15</v>
@@ -4932,13 +4956,13 @@
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -4953,40 +4977,40 @@
     <row r="18" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.3">
@@ -4994,54 +5018,54 @@
     </row>
     <row r="23" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S25" s="39" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AL25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AO25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="37">
         <v>3</v>
@@ -5054,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL26" s="28">
         <v>10</v>
@@ -5072,10 +5096,10 @@
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AL27" s="28">
         <v>20</v>
@@ -5093,10 +5117,10 @@
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AL28" s="28">
         <v>30</v>
@@ -5114,7 +5138,7 @@
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL29" s="28">
         <v>40</v>
@@ -5132,7 +5156,7 @@
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL30" s="28">
         <v>50</v>
@@ -5150,10 +5174,10 @@
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL31" s="12">
         <v>35</v>
@@ -5173,10 +5197,10 @@
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AM32" s="16">
         <f>IF(AL31&gt;=35,17*AL31-330,7*AL31+15) * IF(AL31&gt;=25, 1 + (MIN(13,(AL31-18)/3.5) - 1) * (MIN(13,(AL31-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL31-18)/3.5)  - 1),1)</f>
@@ -5185,7 +5209,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5224,57 +5248,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" t="str">
         <f>"子弹威力 = "&amp;D3&amp;" ( _parent._parent.空手攻击力 "&amp;F3&amp;E3&amp;" ) "&amp;"*(1+_parent._parent.技能等级"&amp;G3&amp;")"&amp;J3</f>
@@ -5283,16 +5307,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" t="str">
         <f>"子弹威力 = "&amp;D4&amp;" ( _parent._parent.空手攻击力 "&amp;F4&amp;E4&amp;" ) "&amp;"*(1+_parent._parent.技能等级"&amp;G4&amp;")"&amp;J4</f>
@@ -5301,16 +5325,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" t="str">
         <f>"子弹威力 = "&amp;D5&amp;" ( _parent._parent.空手攻击力 "&amp;F5&amp;E5&amp;" ) "&amp;"*(1+_parent._parent.技能等级"&amp;G5&amp;")"&amp;J5</f>
@@ -5319,37 +5343,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" t="str">
         <f>"子弹威力 = "&amp;D12&amp;" ( _parent._parent.空手攻击力 "&amp;F12&amp;E12&amp;" ) "&amp;"*(1+_parent._parent.技能等级"&amp;G12&amp;")"&amp;J12</f>
@@ -5358,16 +5382,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" t="str">
         <f>"子弹威力 = "&amp;D13&amp;" ( _parent._parent.空手攻击力 "&amp;F13&amp;E13&amp;" ) "&amp;"*(1+_parent._parent.技能等级"&amp;G13&amp;")"&amp;J13</f>
@@ -5376,16 +5400,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" t="str">
         <f>"子弹威力 = "&amp;D14&amp;" ( _parent._parent.空手攻击力 "&amp;F14&amp;E14&amp;" ) "&amp;"*(1+_parent._parent.技能等级"&amp;G14&amp;")"&amp;J14</f>
@@ -5394,43 +5418,43 @@
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="J20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" t="str">
         <f>"子弹威力 = "&amp;D20&amp;" ( _parent._parent.空手攻击力 "&amp;F20&amp;E20&amp;" ) "&amp;"*( 1+_parent._parent.技能等级"&amp;G20&amp;" )"&amp;I20&amp;"( _parent._parent.刀属性数组[13]"&amp;H20&amp;" )"&amp;J3</f>
@@ -5442,18 +5466,18 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" t="str">
         <f>"子弹威力 = "&amp;D21&amp;" ( _parent._parent.空手攻击力 "&amp;F21&amp;E21&amp;" ) "&amp;"*( 1+_parent._parent.技能等级"&amp;G21&amp;" )"&amp;I21&amp;"( _parent._parent.刀属性数组[13]"&amp;H21&amp;" )"&amp;J4</f>
@@ -5462,20 +5486,20 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" t="str">
         <f>"子弹威力 = "&amp;D22&amp;" ( _parent._parent.空手攻击力 "&amp;F22&amp;E22&amp;" ) "&amp;"*( 1+_parent._parent.技能等级"&amp;G22&amp;" )"&amp;I22&amp;"( _parent._parent.刀属性数组[13]"&amp;H22&amp;" )"&amp;J5</f>
@@ -5484,19 +5508,19 @@
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5537,86 +5561,86 @@
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
+      <c r="U6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC6" t="s">
         <v>107</v>
       </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="AD6" t="s">
         <v>93</v>
       </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" t="s">
-        <v>108</v>
-      </c>
-      <c r="S6" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>94</v>
-      </c>
       <c r="AF6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.3">
@@ -5957,7 +5981,7 @@
         <v>432.50847457627117</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -6342,7 +6366,7 @@
         <v>151779.66101694916</v>
       </c>
       <c r="AG15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
@@ -6437,7 +6461,7 @@
         <v>843644.06779661018</v>
       </c>
       <c r="AH16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.3">
@@ -9602,7 +9626,7 @@
         <v>74822.03389830509</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H56">
         <v>50</v>
@@ -14024,7 +14048,7 @@
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G114">
         <v>393220.33898305101</v>
@@ -14058,65 +14082,65 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="O5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" t="s">
+        <v>146</v>
+      </c>
+      <c r="T5" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" t="s">
         <v>118</v>
       </c>
-      <c r="J5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" t="s">
-        <v>142</v>
-      </c>
-      <c r="R5" t="s">
-        <v>111</v>
-      </c>
-      <c r="S5" t="s">
-        <v>147</v>
-      </c>
-      <c r="T5" t="s">
-        <v>113</v>
-      </c>
-      <c r="U5" t="s">
-        <v>119</v>
-      </c>
       <c r="W5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -15322,60 +15346,60 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
       <c r="J3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3" t="s">
         <v>382</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N3" t="s">
+        <v>387</v>
+      </c>
+      <c r="O3" t="s">
+        <v>385</v>
+      </c>
+      <c r="P3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q3" t="s">
         <v>383</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
+        <v>391</v>
+      </c>
+      <c r="S3" t="s">
+        <v>392</v>
+      </c>
+      <c r="T3" t="s">
         <v>384</v>
       </c>
-      <c r="M3" t="s">
-        <v>388</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="U3" t="s">
         <v>389</v>
       </c>
-      <c r="O3" t="s">
-        <v>387</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="V3" t="s">
         <v>390</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>385</v>
-      </c>
-      <c r="R3" t="s">
-        <v>393</v>
-      </c>
-      <c r="S3" t="s">
-        <v>394</v>
-      </c>
-      <c r="T3" t="s">
-        <v>386</v>
-      </c>
-      <c r="U3" t="s">
-        <v>391</v>
-      </c>
-      <c r="V3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -15591,7 +15615,7 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -15647,10 +15671,10 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -16188,13 +16212,13 @@
         <v>55000</v>
       </c>
       <c r="H24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
@@ -16206,16 +16230,16 @@
         <v>60000</v>
       </c>
       <c r="I25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K25" t="s">
+        <v>494</v>
+      </c>
+      <c r="M25" t="s">
+        <v>495</v>
+      </c>
+      <c r="O25" t="s">
         <v>496</v>
-      </c>
-      <c r="M25" t="s">
-        <v>497</v>
-      </c>
-      <c r="O25" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
@@ -16227,7 +16251,7 @@
         <v>65000</v>
       </c>
       <c r="J26" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K26" t="str">
         <f>I25&amp;K25&amp;J26</f>
@@ -16251,7 +16275,7 @@
         <v>70000</v>
       </c>
       <c r="J27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K27" t="str">
         <f>I25&amp;K25&amp;J27</f>
@@ -16275,7 +16299,7 @@
         <v>75000</v>
       </c>
       <c r="J28" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K28" t="str">
         <f>I25&amp;K25&amp;J28</f>
@@ -16299,7 +16323,7 @@
         <v>80000</v>
       </c>
       <c r="J29" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K29" t="str">
         <f>I25&amp;K25&amp;J29</f>
@@ -16323,7 +16347,7 @@
         <v>85000</v>
       </c>
       <c r="J30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K30" t="str">
         <f>I25&amp;K25&amp;J30</f>
@@ -16347,16 +16371,16 @@
         <v>90000</v>
       </c>
       <c r="I31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K31" t="s">
+        <v>494</v>
+      </c>
+      <c r="M31" t="s">
+        <v>495</v>
+      </c>
+      <c r="O31" t="s">
         <v>496</v>
-      </c>
-      <c r="M31" t="s">
-        <v>497</v>
-      </c>
-      <c r="O31" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
@@ -16368,7 +16392,7 @@
         <v>95000</v>
       </c>
       <c r="J32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K32" t="str">
         <f>I31&amp;K31&amp;J32</f>
@@ -16392,7 +16416,7 @@
         <v>100000</v>
       </c>
       <c r="J33" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K33" t="str">
         <f>I31&amp;K31&amp;J33</f>
@@ -16416,7 +16440,7 @@
         <v>105000</v>
       </c>
       <c r="J34" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K34" t="str">
         <f>I31&amp;K31&amp;J34</f>
@@ -16440,7 +16464,7 @@
         <v>110000</v>
       </c>
       <c r="J35" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K35" t="str">
         <f>I31&amp;K31&amp;J35</f>
@@ -16464,7 +16488,7 @@
         <v>115000</v>
       </c>
       <c r="J36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K36" t="str">
         <f>I31&amp;K31&amp;J36</f>
@@ -16488,16 +16512,16 @@
         <v>120000</v>
       </c>
       <c r="I37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K37" t="s">
+        <v>494</v>
+      </c>
+      <c r="M37" t="s">
+        <v>495</v>
+      </c>
+      <c r="O37" t="s">
         <v>496</v>
-      </c>
-      <c r="M37" t="s">
-        <v>497</v>
-      </c>
-      <c r="O37" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
@@ -16509,7 +16533,7 @@
         <v>125000</v>
       </c>
       <c r="J38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K38" t="str">
         <f>I37&amp;K37&amp;J38</f>
@@ -16533,7 +16557,7 @@
         <v>130000</v>
       </c>
       <c r="J39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K39" t="str">
         <f>I37&amp;K37&amp;J39</f>
@@ -16557,7 +16581,7 @@
         <v>135000</v>
       </c>
       <c r="J40" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K40" t="str">
         <f>I37&amp;K37&amp;J40</f>
@@ -16581,7 +16605,7 @@
         <v>140000</v>
       </c>
       <c r="J41" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K41" t="str">
         <f>I37&amp;K37&amp;J41</f>
@@ -16605,7 +16629,7 @@
         <v>145000</v>
       </c>
       <c r="J42" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K42" t="str">
         <f>I37&amp;K37&amp;J42</f>
@@ -16629,16 +16653,16 @@
         <v>150000</v>
       </c>
       <c r="I43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K43" t="s">
+        <v>494</v>
+      </c>
+      <c r="M43" t="s">
+        <v>495</v>
+      </c>
+      <c r="O43" t="s">
         <v>496</v>
-      </c>
-      <c r="M43" t="s">
-        <v>497</v>
-      </c>
-      <c r="O43" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
@@ -16650,7 +16674,7 @@
         <v>155000</v>
       </c>
       <c r="J44" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K44" t="str">
         <f>I43&amp;K43&amp;J44</f>
@@ -16674,7 +16698,7 @@
         <v>160000</v>
       </c>
       <c r="J45" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K45" t="str">
         <f>I43&amp;K43&amp;J45</f>
@@ -16698,7 +16722,7 @@
         <v>165000</v>
       </c>
       <c r="J46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K46" t="str">
         <f>I43&amp;K43&amp;J46</f>
@@ -16722,7 +16746,7 @@
         <v>170000</v>
       </c>
       <c r="J47" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K47" t="str">
         <f>I43&amp;K43&amp;J47</f>
@@ -16746,7 +16770,7 @@
         <v>175000</v>
       </c>
       <c r="J48" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K48" t="str">
         <f>I43&amp;K43&amp;J48</f>
@@ -16770,16 +16794,16 @@
         <v>180000</v>
       </c>
       <c r="I49" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K49" t="s">
+        <v>494</v>
+      </c>
+      <c r="M49" t="s">
+        <v>495</v>
+      </c>
+      <c r="O49" t="s">
         <v>496</v>
-      </c>
-      <c r="M49" t="s">
-        <v>497</v>
-      </c>
-      <c r="O49" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
@@ -16791,7 +16815,7 @@
         <v>185000</v>
       </c>
       <c r="J50" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K50" t="str">
         <f>I49&amp;K49&amp;J50</f>
@@ -16815,7 +16839,7 @@
         <v>190000</v>
       </c>
       <c r="J51" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K51" t="str">
         <f>I49&amp;K49&amp;J51</f>
@@ -16839,7 +16863,7 @@
         <v>195000</v>
       </c>
       <c r="J52" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K52" t="str">
         <f>I49&amp;K49&amp;J52</f>
@@ -16863,7 +16887,7 @@
         <v>200000</v>
       </c>
       <c r="J53" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K53" t="str">
         <f>I49&amp;K49&amp;J53</f>
@@ -16887,7 +16911,7 @@
         <v>205000</v>
       </c>
       <c r="J54" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K54" t="str">
         <f>I49&amp;K49&amp;J54</f>
@@ -16911,16 +16935,16 @@
         <v>210000</v>
       </c>
       <c r="I55" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K55" t="s">
+        <v>494</v>
+      </c>
+      <c r="M55" t="s">
+        <v>495</v>
+      </c>
+      <c r="O55" t="s">
         <v>496</v>
-      </c>
-      <c r="M55" t="s">
-        <v>497</v>
-      </c>
-      <c r="O55" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.3">
@@ -16932,7 +16956,7 @@
         <v>215000</v>
       </c>
       <c r="J56" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K56" t="str">
         <f>I55&amp;K55&amp;J56</f>
@@ -16956,7 +16980,7 @@
         <v>220000</v>
       </c>
       <c r="J57" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K57" t="str">
         <f>I55&amp;K55&amp;J57</f>
@@ -16980,7 +17004,7 @@
         <v>225000</v>
       </c>
       <c r="J58" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K58" t="str">
         <f>I55&amp;K55&amp;J58</f>
@@ -17004,7 +17028,7 @@
         <v>250000</v>
       </c>
       <c r="J59" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K59" t="str">
         <f>I55&amp;K55&amp;J59</f>
@@ -17028,7 +17052,7 @@
         <v>275000</v>
       </c>
       <c r="J60" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K60" t="str">
         <f>I55&amp;K55&amp;J60</f>
@@ -17518,12 +17542,12 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C1" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
@@ -17531,28 +17555,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
@@ -17560,10 +17584,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>1</v>
@@ -17587,13 +17611,13 @@
         <v>4</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>7</v>
@@ -17605,10 +17629,10 @@
         <v>11</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>9</v>
@@ -17625,7 +17649,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -17764,7 +17788,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -17830,11 +17854,11 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
@@ -17894,7 +17918,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
@@ -17958,7 +17982,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
@@ -17973,11 +17997,11 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -17991,7 +18015,7 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
@@ -18006,7 +18030,7 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -18072,7 +18096,7 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -18138,7 +18162,7 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
@@ -18202,7 +18226,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -18212,7 +18236,7 @@
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
@@ -18347,16 +18371,16 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
@@ -18364,50 +18388,50 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -18425,7 +18449,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="A6" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18448,101 +18472,101 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>189</v>
       </c>
-      <c r="L1" t="s">
-        <v>190</v>
-      </c>
       <c r="M1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="R2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -18598,7 +18622,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3">
         <v>18</v>
@@ -18654,7 +18678,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="3">
         <v>21</v>
@@ -18709,11 +18733,11 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -18768,11 +18792,11 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="3">
         <v>28</v>
@@ -18827,11 +18851,11 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="3">
         <v>31</v>
@@ -18886,11 +18910,11 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="3">
         <v>33</v>
@@ -18945,11 +18969,11 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="12">
         <v>10</v>
@@ -19004,7 +19028,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -19020,14 +19044,14 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -19043,7 +19067,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -19079,10 +19103,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="12">
         <v>10</v>
@@ -19150,10 +19174,10 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
         <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -19207,7 +19231,7 @@
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" s="12">
         <v>35</v>
@@ -19282,10 +19306,10 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -19309,16 +19333,16 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
@@ -19326,45 +19350,45 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -19382,143 +19406,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FB5CA-E031-44AD-AD67-22BEED664136}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <f>(D3*10*1.25^H3+F3*3)/1.6^(G3-1)</f>
+        <f>(D3*10*1.25^G3+E3*3)/1.6^(F3-1)</f>
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+        <v>51</v>
+      </c>
+      <c r="D4" s="37">
+        <v>35</v>
+      </c>
+      <c r="E4" s="37">
+        <v>20</v>
+      </c>
+      <c r="F4" s="37">
+        <v>1</v>
+      </c>
+      <c r="G4" s="37">
         <v>0</v>
       </c>
-      <c r="J4">
-        <f>(D4*10*1.25^H4+F4*3)/1.6^(G4-1)</f>
-        <v>309</v>
+      <c r="J4" s="40">
+        <f>(D4*10*1.25^G4+E4*3)/1.6^(F4-1)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>536</v>
+      </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" t="s">
+        <v>533</v>
+      </c>
+      <c r="F17" t="s">
+        <v>531</v>
+      </c>
+      <c r="G17" t="s">
+        <v>532</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>535</v>
+      </c>
+      <c r="E18" s="37">
+        <v>20</v>
+      </c>
+      <c r="F18" s="37">
+        <v>10</v>
+      </c>
+      <c r="G18" s="37">
+        <v>10</v>
+      </c>
+      <c r="H18" s="37">
+        <v>5</v>
+      </c>
+      <c r="J18" s="52">
+        <f>E18+F18/3+G18/3+H18/1.5</f>
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>322</v>
+      </c>
+      <c r="J21" t="s">
         <v>321</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>323</v>
       </c>
-      <c r="J15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16">
+      <c r="E22" s="37">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="F22" s="37">
         <v>30</v>
       </c>
-      <c r="J16">
-        <f>G16*F16/16</f>
+      <c r="J22" s="40">
+        <f>F22*E22/16</f>
         <v>37.5</v>
       </c>
     </row>
@@ -19534,7 +19625,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19550,7 +19641,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -19573,7 +19664,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2"/>
       <c r="K2" s="2" t="s">
@@ -19624,7 +19715,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>3000</v>
@@ -19648,7 +19739,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -19665,7 +19756,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>31</v>
@@ -19691,7 +19782,7 @@
     </row>
     <row r="13" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>8000</v>
@@ -19712,10 +19803,10 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -19740,12 +19831,12 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -19757,24 +19848,24 @@
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -19806,7 +19897,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -19838,7 +19929,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -19870,7 +19961,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -19902,36 +19993,36 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -20012,7 +20103,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -20041,32 +20132,32 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -20108,33 +20199,33 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>201</v>
-      </c>
       <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -20143,48 +20234,48 @@
         <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="H2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>220</v>
-      </c>
       <c r="N2" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>204</v>
-      </c>
       <c r="Q2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -20223,7 +20314,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="12">
         <v>35</v>
@@ -20261,7 +20352,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
@@ -20274,14 +20365,14 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="3"/>
@@ -20292,7 +20383,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
@@ -20305,34 +20396,34 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="N8" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
@@ -20353,11 +20444,11 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -20376,7 +20467,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -20389,10 +20480,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>14</v>
@@ -20401,32 +20492,32 @@
         <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
@@ -20458,7 +20549,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="21">
         <v>0</v>
@@ -20483,10 +20574,10 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="22">
         <v>1</v>
@@ -20515,7 +20606,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E16" s="22">
         <v>1</v>
@@ -20540,7 +20631,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="22">
         <v>1</v>
@@ -20566,7 +20657,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="22">
         <v>1</v>
@@ -20591,16 +20682,16 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
@@ -20608,52 +20699,52 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="H22" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="I22" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="J22" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="L22" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="N22" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q22" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E23" s="21">
         <v>1</v>
@@ -20698,7 +20789,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E24" s="22">
         <v>0</v>
@@ -20741,7 +20832,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E25" s="22">
         <v>0</v>
@@ -20780,7 +20871,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26" s="22">
         <v>0</v>
@@ -20818,10 +20909,10 @@
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -20829,14 +20920,14 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="N27" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -20847,21 +20938,21 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
@@ -20869,10 +20960,10 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -20905,39 +20996,39 @@
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D2" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>239</v>
-      </c>
       <c r="G2" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D3" s="34">
         <v>1.5</v>
@@ -20974,7 +21065,7 @@
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D4" s="34">
         <v>4</v>
@@ -21011,7 +21102,7 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D5" s="34">
         <v>4</v>
@@ -21048,7 +21139,7 @@
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
@@ -21085,53 +21176,53 @@
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I12" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="M12" s="35" t="s">
         <v>334</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J13" s="45">
         <v>20</v>
@@ -21150,19 +21241,19 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D14" s="33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J14" s="45">
         <v>0</v>
@@ -21181,13 +21272,13 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E15" s="40">
         <v>1</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J15" s="45">
         <v>0</v>
@@ -21202,13 +21293,13 @@
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E16" s="40">
         <v>2</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J16" s="45">
         <v>0</v>
@@ -21223,13 +21314,13 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E17" s="40">
         <v>3</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J17" s="45">
         <v>0</v>
@@ -21244,16 +21335,16 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E18" s="40">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J18" s="45">
         <v>0</v>
@@ -21268,16 +21359,16 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E19" s="40">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J19" s="45">
         <v>0</v>
@@ -21292,16 +21383,16 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E20" s="40">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J20" s="45">
         <v>0</v>
@@ -21316,16 +21407,16 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E21" s="40">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J21" s="45">
         <v>0</v>
@@ -21340,13 +21431,13 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E22" s="40">
         <v>8</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J22" s="45">
         <v>0</v>
@@ -21361,7 +21452,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E23" s="40">
         <v>9</v>
@@ -21369,18 +21460,18 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I25" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>14</v>
@@ -21389,27 +21480,27 @@
         <v>36</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J26" s="45">
         <v>20</v>
@@ -21437,10 +21528,10 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="H27" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J27" s="45">
         <v>0</v>
@@ -21468,7 +21559,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I28" s="46" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J28" s="45">
         <v>0</v>
@@ -21492,7 +21583,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I29" s="46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J29" s="45">
         <v>0</v>
@@ -21516,7 +21607,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I30" s="46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J30" s="45">
         <v>0</v>
@@ -21540,7 +21631,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I31" s="46" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J31" s="45">
         <v>0</v>
@@ -21564,7 +21655,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I32" s="46" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J32" s="45">
         <v>0</v>
@@ -21624,74 +21715,74 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C2" s="33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="35" t="s">
         <v>470</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="35" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
@@ -21766,7 +21857,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
@@ -21841,7 +21932,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C5" s="34">
         <v>3</v>
@@ -21916,7 +22007,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C6" s="34">
         <v>4</v>
@@ -21991,7 +22082,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C7" s="34">
         <v>5</v>
@@ -22066,7 +22157,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
@@ -22141,57 +22232,57 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="15"/>
       <c r="D12" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -22199,244 +22290,244 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C21" s="40">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K21" s="40">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C22" s="40">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K22" s="40">
         <v>1.5</v>
       </c>
       <c r="L22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C23" s="40">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K23" s="40">
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C24" s="40">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C25" s="40">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C26" s="40">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C27" s="40">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K27" s="40">
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C28" s="40">
         <v>8</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H28" s="40">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K28" s="40">
         <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C29" s="40">
         <v>9</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H29" s="40">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K29" s="40">
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H30" s="40">
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K30" s="40">
         <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="42" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H31" s="40">
         <v>4</v>
@@ -22444,36 +22535,36 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D32" s="44"/>
       <c r="G32" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H32" s="40">
         <v>5</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.3">
       <c r="K33" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G34" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.3">
@@ -22508,49 +22599,49 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
       <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>92</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -22781,7 +22872,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -22930,7 +23021,7 @@
         <v>34576.271186440674</v>
       </c>
       <c r="R27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -23333,7 +23424,7 @@
         <v>157848.30508474578</v>
       </c>
       <c r="I49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
@@ -23520,7 +23611,7 @@
         <v>278227.11864406784</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
@@ -23529,7 +23620,7 @@
         <v>278227.11864406784</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD5AE8-41E9-4957-8EFA-703DC6D4561D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD79F34-ACEB-4BF1-96E6-2C6D5AFF0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -3122,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -19408,8 +19408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FB5CA-E031-44AD-AD67-22BEED664136}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19479,7 +19479,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="37">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F4" s="37">
         <v>1</v>
@@ -19489,7 +19489,7 @@
       </c>
       <c r="J4" s="40">
         <f>(D4*10*1.25^G4+E4*3)/1.6^(F4-1)</f>
-        <v>410</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -19568,20 +19568,20 @@
         <v>535</v>
       </c>
       <c r="E18" s="37">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="F18" s="37">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G18" s="37">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H18" s="37">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="J18" s="52">
         <f>E18+F18/3+G18/3+H18/1.5</f>
-        <v>29.999999999999996</v>
+        <v>356.66666666666663</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD79F34-ACEB-4BF1-96E6-2C6D5AFF0017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D83135-972E-438B-BB3E-8D3EFE4F244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -1316,10 +1316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>限制等级低于40级的属性伤害武器视为超前武器，需减少一层加权等级，可减到负数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周期dps系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2060,10 +2056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器类型解锁等级:10级:特效刀/次级穿刺枪/普通霰弹枪;20级:慢射速穿刺枪;30级:属性刀/高射速穿刺枪/慢射速属性枪;35级:穿刺霰弹枪;40级:普通属性枪/慢射速穿刺属性枪;45级:高射速穿刺属性枪。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>短刀为0.5，常规刀为1，长武器为1.5，特效+0.5（强力特效则+1），强力战技+0.5（战技不强时可不加）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2144,6 +2136,14 @@
   </si>
   <si>
     <t>无需修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器类型解锁等级:10级:特效刀/次级穿刺枪/普通霰弹枪;20级:慢射速穿刺枪;30级:高射速穿刺枪/穿刺霰弹枪;35级:属性刀/慢射速属性枪/高射速穿刺霰弹枪;40级:普通属性枪/慢射速穿刺属性枪;45级:高射速穿刺属性枪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制等级低于35级的全属性伤害冷兵器视为超前武器（如果是冲伤则为30级），需减少一层加权等级，可减到负数。如果是混伤，属性伤害占总伤比例低于50%的解锁等级为20级，低于30%则为10级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3122,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3196,7 +3196,7 @@
         <v>164</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V1" t="s">
         <v>306</v>
@@ -3279,28 +3279,28 @@
         <v>304</v>
       </c>
       <c r="Z2" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AB2" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG2" s="14" t="s">
         <v>372</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>373</v>
       </c>
       <c r="AH2" s="14" t="s">
         <v>286</v>
@@ -3324,7 +3324,7 @@
         <v>285</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
@@ -4956,7 +4956,7 @@
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.3">
@@ -4989,7 +4989,7 @@
         <v>273</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.3">
@@ -5010,7 +5010,7 @@
         <v>275</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.3">
@@ -5030,7 +5030,7 @@
         <v>308</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>265</v>
@@ -5039,13 +5039,13 @@
     <row r="25" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S25" s="39" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AL25" t="s">
         <v>89</v>
@@ -5054,7 +5054,7 @@
         <v>167</v>
       </c>
       <c r="AN25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO25" t="s">
         <v>268</v>
@@ -5099,7 +5099,7 @@
         <v>299</v>
       </c>
       <c r="Q27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AL27" s="28">
         <v>20</v>
@@ -5120,7 +5120,7 @@
         <v>179</v>
       </c>
       <c r="Q28" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AL28" s="28">
         <v>30</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>267</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM32" s="16">
         <f>IF(AL31&gt;=35,17*AL31-330,7*AL31+15) * IF(AL31&gt;=25, 1 + (MIN(13,(AL31-18)/3.5) - 1) * (MIN(13,(AL31-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL31-18)/3.5)  - 1),1)</f>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -15349,7 +15349,7 @@
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
@@ -15363,43 +15363,43 @@
         <v>124</v>
       </c>
       <c r="J3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K3" t="s">
         <v>380</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>381</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N3" t="s">
+        <v>386</v>
+      </c>
+      <c r="O3" t="s">
+        <v>384</v>
+      </c>
+      <c r="P3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q3" t="s">
         <v>382</v>
       </c>
-      <c r="M3" t="s">
-        <v>386</v>
-      </c>
-      <c r="N3" t="s">
-        <v>387</v>
-      </c>
-      <c r="O3" t="s">
-        <v>385</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>390</v>
+      </c>
+      <c r="S3" t="s">
+        <v>391</v>
+      </c>
+      <c r="T3" t="s">
+        <v>383</v>
+      </c>
+      <c r="U3" t="s">
         <v>388</v>
       </c>
-      <c r="Q3" t="s">
-        <v>383</v>
-      </c>
-      <c r="R3" t="s">
-        <v>391</v>
-      </c>
-      <c r="S3" t="s">
-        <v>392</v>
-      </c>
-      <c r="T3" t="s">
-        <v>384</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>389</v>
-      </c>
-      <c r="V3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -16212,13 +16212,13 @@
         <v>55000</v>
       </c>
       <c r="H24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
@@ -16230,16 +16230,16 @@
         <v>60000</v>
       </c>
       <c r="I25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K25" t="s">
+        <v>493</v>
+      </c>
+      <c r="M25" t="s">
         <v>494</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>495</v>
-      </c>
-      <c r="O25" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
@@ -16251,7 +16251,7 @@
         <v>65000</v>
       </c>
       <c r="J26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K26" t="str">
         <f>I25&amp;K25&amp;J26</f>
@@ -16275,7 +16275,7 @@
         <v>70000</v>
       </c>
       <c r="J27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K27" t="str">
         <f>I25&amp;K25&amp;J27</f>
@@ -16299,7 +16299,7 @@
         <v>75000</v>
       </c>
       <c r="J28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K28" t="str">
         <f>I25&amp;K25&amp;J28</f>
@@ -16323,7 +16323,7 @@
         <v>80000</v>
       </c>
       <c r="J29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K29" t="str">
         <f>I25&amp;K25&amp;J29</f>
@@ -16347,7 +16347,7 @@
         <v>85000</v>
       </c>
       <c r="J30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K30" t="str">
         <f>I25&amp;K25&amp;J30</f>
@@ -16371,16 +16371,16 @@
         <v>90000</v>
       </c>
       <c r="I31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K31" t="s">
+        <v>493</v>
+      </c>
+      <c r="M31" t="s">
         <v>494</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>495</v>
-      </c>
-      <c r="O31" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
@@ -16392,7 +16392,7 @@
         <v>95000</v>
       </c>
       <c r="J32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K32" t="str">
         <f>I31&amp;K31&amp;J32</f>
@@ -16416,7 +16416,7 @@
         <v>100000</v>
       </c>
       <c r="J33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K33" t="str">
         <f>I31&amp;K31&amp;J33</f>
@@ -16440,7 +16440,7 @@
         <v>105000</v>
       </c>
       <c r="J34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K34" t="str">
         <f>I31&amp;K31&amp;J34</f>
@@ -16464,7 +16464,7 @@
         <v>110000</v>
       </c>
       <c r="J35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K35" t="str">
         <f>I31&amp;K31&amp;J35</f>
@@ -16488,7 +16488,7 @@
         <v>115000</v>
       </c>
       <c r="J36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K36" t="str">
         <f>I31&amp;K31&amp;J36</f>
@@ -16512,16 +16512,16 @@
         <v>120000</v>
       </c>
       <c r="I37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K37" t="s">
+        <v>493</v>
+      </c>
+      <c r="M37" t="s">
         <v>494</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>495</v>
-      </c>
-      <c r="O37" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
@@ -16533,7 +16533,7 @@
         <v>125000</v>
       </c>
       <c r="J38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K38" t="str">
         <f>I37&amp;K37&amp;J38</f>
@@ -16557,7 +16557,7 @@
         <v>130000</v>
       </c>
       <c r="J39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K39" t="str">
         <f>I37&amp;K37&amp;J39</f>
@@ -16581,7 +16581,7 @@
         <v>135000</v>
       </c>
       <c r="J40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K40" t="str">
         <f>I37&amp;K37&amp;J40</f>
@@ -16605,7 +16605,7 @@
         <v>140000</v>
       </c>
       <c r="J41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K41" t="str">
         <f>I37&amp;K37&amp;J41</f>
@@ -16629,7 +16629,7 @@
         <v>145000</v>
       </c>
       <c r="J42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K42" t="str">
         <f>I37&amp;K37&amp;J42</f>
@@ -16653,16 +16653,16 @@
         <v>150000</v>
       </c>
       <c r="I43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K43" t="s">
+        <v>493</v>
+      </c>
+      <c r="M43" t="s">
         <v>494</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>495</v>
-      </c>
-      <c r="O43" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
@@ -16674,7 +16674,7 @@
         <v>155000</v>
       </c>
       <c r="J44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K44" t="str">
         <f>I43&amp;K43&amp;J44</f>
@@ -16698,7 +16698,7 @@
         <v>160000</v>
       </c>
       <c r="J45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K45" t="str">
         <f>I43&amp;K43&amp;J45</f>
@@ -16722,7 +16722,7 @@
         <v>165000</v>
       </c>
       <c r="J46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K46" t="str">
         <f>I43&amp;K43&amp;J46</f>
@@ -16746,7 +16746,7 @@
         <v>170000</v>
       </c>
       <c r="J47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K47" t="str">
         <f>I43&amp;K43&amp;J47</f>
@@ -16770,7 +16770,7 @@
         <v>175000</v>
       </c>
       <c r="J48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K48" t="str">
         <f>I43&amp;K43&amp;J48</f>
@@ -16794,16 +16794,16 @@
         <v>180000</v>
       </c>
       <c r="I49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K49" t="s">
+        <v>493</v>
+      </c>
+      <c r="M49" t="s">
         <v>494</v>
       </c>
-      <c r="M49" t="s">
+      <c r="O49" t="s">
         <v>495</v>
-      </c>
-      <c r="O49" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
@@ -16815,7 +16815,7 @@
         <v>185000</v>
       </c>
       <c r="J50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K50" t="str">
         <f>I49&amp;K49&amp;J50</f>
@@ -16839,7 +16839,7 @@
         <v>190000</v>
       </c>
       <c r="J51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K51" t="str">
         <f>I49&amp;K49&amp;J51</f>
@@ -16863,7 +16863,7 @@
         <v>195000</v>
       </c>
       <c r="J52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K52" t="str">
         <f>I49&amp;K49&amp;J52</f>
@@ -16887,7 +16887,7 @@
         <v>200000</v>
       </c>
       <c r="J53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K53" t="str">
         <f>I49&amp;K49&amp;J53</f>
@@ -16911,7 +16911,7 @@
         <v>205000</v>
       </c>
       <c r="J54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K54" t="str">
         <f>I49&amp;K49&amp;J54</f>
@@ -16935,16 +16935,16 @@
         <v>210000</v>
       </c>
       <c r="I55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K55" t="s">
+        <v>493</v>
+      </c>
+      <c r="M55" t="s">
         <v>494</v>
       </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
         <v>495</v>
-      </c>
-      <c r="O55" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.3">
@@ -16956,7 +16956,7 @@
         <v>215000</v>
       </c>
       <c r="J56" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K56" t="str">
         <f>I55&amp;K55&amp;J56</f>
@@ -16980,7 +16980,7 @@
         <v>220000</v>
       </c>
       <c r="J57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K57" t="str">
         <f>I55&amp;K55&amp;J57</f>
@@ -17004,7 +17004,7 @@
         <v>225000</v>
       </c>
       <c r="J58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K58" t="str">
         <f>I55&amp;K55&amp;J58</f>
@@ -17028,7 +17028,7 @@
         <v>250000</v>
       </c>
       <c r="J59" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K59" t="str">
         <f>I55&amp;K55&amp;J59</f>
@@ -17052,7 +17052,7 @@
         <v>275000</v>
       </c>
       <c r="J60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K60" t="str">
         <f>I55&amp;K55&amp;J60</f>
@@ -18525,7 +18525,7 @@
         <v>167</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>168</v>
@@ -18555,10 +18555,10 @@
         <v>153</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -18737,7 +18737,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -19051,7 +19051,7 @@
         <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -19067,7 +19067,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>175</v>
@@ -19309,7 +19309,7 @@
         <v>234</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
@@ -19408,8 +19408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FB5CA-E031-44AD-AD67-22BEED664136}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19522,10 +19522,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -19535,7 +19535,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>324</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -19545,27 +19545,27 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" t="s">
+        <v>531</v>
+      </c>
+      <c r="F17" t="s">
+        <v>529</v>
+      </c>
+      <c r="G17" t="s">
         <v>530</v>
-      </c>
-      <c r="E17" t="s">
-        <v>533</v>
-      </c>
-      <c r="F17" t="s">
-        <v>531</v>
-      </c>
-      <c r="G17" t="s">
-        <v>532</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E18" s="37">
         <v>250</v>
@@ -19756,7 +19756,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>31</v>
@@ -19806,7 +19806,7 @@
         <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -20004,12 +20004,12 @@
         <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20132,7 +20132,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
@@ -20467,7 +20467,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>223</v>
@@ -20920,7 +20920,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="N27" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
@@ -20996,7 +20996,7 @@
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D2" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>237</v>
@@ -21005,30 +21005,30 @@
         <v>238</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>93</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D3" s="34">
         <v>1.5</v>
@@ -21065,7 +21065,7 @@
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="34">
         <v>4</v>
@@ -21102,7 +21102,7 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" s="34">
         <v>4</v>
@@ -21139,7 +21139,7 @@
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
@@ -21179,50 +21179,50 @@
         <v>234</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I12" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>222</v>
       </c>
       <c r="K12" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="L12" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="L12" s="33" t="s">
-        <v>346</v>
-      </c>
       <c r="M12" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H13" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J13" s="45">
         <v>20</v>
@@ -21241,19 +21241,19 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D14" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>403</v>
-      </c>
       <c r="F14" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J14" s="45">
         <v>0</v>
@@ -21272,13 +21272,13 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E15" s="40">
         <v>1</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J15" s="45">
         <v>0</v>
@@ -21293,13 +21293,13 @@
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" s="40">
         <v>2</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J16" s="45">
         <v>0</v>
@@ -21314,13 +21314,13 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E17" s="40">
         <v>3</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J17" s="45">
         <v>0</v>
@@ -21335,16 +21335,16 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E18" s="40">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J18" s="45">
         <v>0</v>
@@ -21359,16 +21359,16 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E19" s="40">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J19" s="45">
         <v>0</v>
@@ -21383,16 +21383,16 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20" s="40">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J20" s="45">
         <v>0</v>
@@ -21407,16 +21407,16 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E21" s="40">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J21" s="45">
         <v>0</v>
@@ -21431,13 +21431,13 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E22" s="40">
         <v>8</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J22" s="45">
         <v>0</v>
@@ -21452,7 +21452,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E23" s="40">
         <v>9</v>
@@ -21460,13 +21460,13 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>414</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.3">
@@ -21489,10 +21489,10 @@
         <v>222</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
@@ -21500,7 +21500,7 @@
         <v>86</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J26" s="45">
         <v>20</v>
@@ -21528,10 +21528,10 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="H27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I27" s="46" t="s">
         <v>356</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>357</v>
       </c>
       <c r="J27" s="45">
         <v>0</v>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I28" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J28" s="45">
         <v>0</v>
@@ -21583,7 +21583,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I29" s="46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J29" s="45">
         <v>0</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I30" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J30" s="45">
         <v>0</v>
@@ -21631,7 +21631,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I31" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J31" s="45">
         <v>0</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I32" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J32" s="45">
         <v>0</v>
@@ -21715,74 +21715,74 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C2" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F2" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>450</v>
-      </c>
       <c r="K2" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N2" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="S2" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="R2" s="35" t="s">
+      <c r="T2" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="S2" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="35" t="s">
         <v>460</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>461</v>
       </c>
       <c r="V2" s="35" t="s">
         <v>81</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
@@ -21857,7 +21857,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
@@ -21932,7 +21932,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="34">
         <v>3</v>
@@ -22007,7 +22007,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C6" s="34">
         <v>4</v>
@@ -22082,7 +22082,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C7" s="34">
         <v>5</v>
@@ -22157,7 +22157,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
@@ -22232,13 +22232,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -22248,7 +22248,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -22257,32 +22257,32 @@
       </c>
       <c r="B12" s="15"/>
       <c r="D12" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -22290,244 +22290,244 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>403</v>
-      </c>
       <c r="D20" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C21" s="40">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K21" s="40">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C22" s="40">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K22" s="40">
         <v>1.5</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C23" s="40">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K23" s="40">
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C24" s="40">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C25" s="40">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C26" s="40">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C27" s="40">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G27" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="H27" s="35" t="s">
-        <v>403</v>
-      </c>
       <c r="J27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K27" s="40">
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C28" s="40">
         <v>8</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H28" s="40">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K28" s="40">
         <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C29" s="40">
         <v>9</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H29" s="40">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K29" s="40">
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>412</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="C30" s="44" t="s">
-        <v>414</v>
-      </c>
       <c r="G30" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H30" s="40">
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K30" s="40">
         <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H31" s="40">
         <v>4</v>
@@ -22535,36 +22535,36 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>466</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>467</v>
       </c>
       <c r="D32" s="44"/>
       <c r="G32" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H32" s="40">
         <v>5</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.3">
       <c r="K33" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G34" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.3">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D83135-972E-438B-BB3E-8D3EFE4F244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1136C91F-92B1-40DA-8354-EF8343BDFA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -3122,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -19624,8 +19624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702FAECF-80DC-495D-9C67-D5E0928DCAA6}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19797,7 +19797,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="48">
-        <f>IF(E13 &gt; 800 +F13 * 200 + IF(F13 &gt;=30,1200 * (F13 - 29) * (F13 - 29),0), 800 +F13 * 200+ IF(F13 &gt;=30,1200  * (F13 - 29) * (F13 - 29),0) + (E13 - 800 -F13 * 200-IF(F13 &gt;=30,1200 * (F13 - 29) * (F13 - 29),0))/10,E13 )/G13</f>
+        <f>IF(E13 &gt; 800 +F13 * 200 + IF(F13 &gt;=30,350 * (F13 - 27) * (F13 - 27),0), 800 +F13 * 200+ IF(F13 &gt;=30,350  * (F13 - 27) * (F13 - 27),0) + (E13 - 800 -F13 * 200-IF(F13 &gt;=30,350 * (F13 - 27) * (F13 - 27),0))/10,E13 )/G13</f>
         <v>8000</v>
       </c>
     </row>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1136C91F-92B1-40DA-8354-EF8343BDFA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A33D54C-1487-445D-8712-C35E8108AFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -3122,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -19624,7 +19624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702FAECF-80DC-495D-9C67-D5E0928DCAA6}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A33D54C-1487-445D-8712-C35E8108AFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE557EBE-0F01-4C07-954C-510CAF970215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -1809,10 +1809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意，以上数值以物理伤害为标准值，如果有法伤、真伤招式，应进一步控制攻击倍率。目前不再据此对面板进行调整。怪物魔抗属性目前没有硬性限制，根据情况配置即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2144,6 +2140,10 @@
   </si>
   <si>
     <t>限制等级低于35级的全属性伤害冷兵器视为超前武器（如果是冲伤则为30级），需减少一层加权等级，可减到负数。如果是混伤，属性伤害占总伤比例低于50%的解锁等级为20级，低于30%则为10级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击倍率以物理伤害为准，法伤、真伤招式最好降低倍率。计算填入此处的攻击倍率（大致平均值）时，要将实际的法伤招式的倍率*2，真伤招式的倍率*3来折算计算。怪物魔抗属性目前没有硬性限制，根据情况配置即可。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3122,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4956,7 +4956,7 @@
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.3">
@@ -4989,7 +4989,7 @@
         <v>273</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.3">
@@ -5030,7 +5030,7 @@
         <v>308</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>265</v>
@@ -5039,13 +5039,13 @@
     <row r="25" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R25" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="S25" s="39" t="s">
         <v>519</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>520</v>
       </c>
       <c r="AL25" t="s">
         <v>89</v>
@@ -5099,7 +5099,7 @@
         <v>299</v>
       </c>
       <c r="Q27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL27" s="28">
         <v>20</v>
@@ -5120,7 +5120,7 @@
         <v>179</v>
       </c>
       <c r="Q28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AL28" s="28">
         <v>30</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AK31" s="2" t="s">
         <v>267</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AL32" s="2" t="s">
         <v>374</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -16212,13 +16212,13 @@
         <v>55000</v>
       </c>
       <c r="H24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
@@ -16230,16 +16230,16 @@
         <v>60000</v>
       </c>
       <c r="I25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K25" t="s">
+        <v>492</v>
+      </c>
+      <c r="M25" t="s">
         <v>493</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>494</v>
-      </c>
-      <c r="O25" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
@@ -16251,7 +16251,7 @@
         <v>65000</v>
       </c>
       <c r="J26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K26" t="str">
         <f>I25&amp;K25&amp;J26</f>
@@ -16275,7 +16275,7 @@
         <v>70000</v>
       </c>
       <c r="J27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K27" t="str">
         <f>I25&amp;K25&amp;J27</f>
@@ -16299,7 +16299,7 @@
         <v>75000</v>
       </c>
       <c r="J28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K28" t="str">
         <f>I25&amp;K25&amp;J28</f>
@@ -16323,7 +16323,7 @@
         <v>80000</v>
       </c>
       <c r="J29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K29" t="str">
         <f>I25&amp;K25&amp;J29</f>
@@ -16347,7 +16347,7 @@
         <v>85000</v>
       </c>
       <c r="J30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K30" t="str">
         <f>I25&amp;K25&amp;J30</f>
@@ -16371,16 +16371,16 @@
         <v>90000</v>
       </c>
       <c r="I31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K31" t="s">
+        <v>492</v>
+      </c>
+      <c r="M31" t="s">
         <v>493</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>494</v>
-      </c>
-      <c r="O31" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
@@ -16392,7 +16392,7 @@
         <v>95000</v>
       </c>
       <c r="J32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K32" t="str">
         <f>I31&amp;K31&amp;J32</f>
@@ -16416,7 +16416,7 @@
         <v>100000</v>
       </c>
       <c r="J33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K33" t="str">
         <f>I31&amp;K31&amp;J33</f>
@@ -16440,7 +16440,7 @@
         <v>105000</v>
       </c>
       <c r="J34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K34" t="str">
         <f>I31&amp;K31&amp;J34</f>
@@ -16464,7 +16464,7 @@
         <v>110000</v>
       </c>
       <c r="J35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K35" t="str">
         <f>I31&amp;K31&amp;J35</f>
@@ -16488,7 +16488,7 @@
         <v>115000</v>
       </c>
       <c r="J36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K36" t="str">
         <f>I31&amp;K31&amp;J36</f>
@@ -16512,16 +16512,16 @@
         <v>120000</v>
       </c>
       <c r="I37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K37" t="s">
+        <v>492</v>
+      </c>
+      <c r="M37" t="s">
         <v>493</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>494</v>
-      </c>
-      <c r="O37" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
@@ -16533,7 +16533,7 @@
         <v>125000</v>
       </c>
       <c r="J38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K38" t="str">
         <f>I37&amp;K37&amp;J38</f>
@@ -16557,7 +16557,7 @@
         <v>130000</v>
       </c>
       <c r="J39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K39" t="str">
         <f>I37&amp;K37&amp;J39</f>
@@ -16581,7 +16581,7 @@
         <v>135000</v>
       </c>
       <c r="J40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K40" t="str">
         <f>I37&amp;K37&amp;J40</f>
@@ -16605,7 +16605,7 @@
         <v>140000</v>
       </c>
       <c r="J41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K41" t="str">
         <f>I37&amp;K37&amp;J41</f>
@@ -16629,7 +16629,7 @@
         <v>145000</v>
       </c>
       <c r="J42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K42" t="str">
         <f>I37&amp;K37&amp;J42</f>
@@ -16653,16 +16653,16 @@
         <v>150000</v>
       </c>
       <c r="I43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K43" t="s">
+        <v>492</v>
+      </c>
+      <c r="M43" t="s">
         <v>493</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>494</v>
-      </c>
-      <c r="O43" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
@@ -16674,7 +16674,7 @@
         <v>155000</v>
       </c>
       <c r="J44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K44" t="str">
         <f>I43&amp;K43&amp;J44</f>
@@ -16698,7 +16698,7 @@
         <v>160000</v>
       </c>
       <c r="J45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K45" t="str">
         <f>I43&amp;K43&amp;J45</f>
@@ -16722,7 +16722,7 @@
         <v>165000</v>
       </c>
       <c r="J46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K46" t="str">
         <f>I43&amp;K43&amp;J46</f>
@@ -16746,7 +16746,7 @@
         <v>170000</v>
       </c>
       <c r="J47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K47" t="str">
         <f>I43&amp;K43&amp;J47</f>
@@ -16770,7 +16770,7 @@
         <v>175000</v>
       </c>
       <c r="J48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K48" t="str">
         <f>I43&amp;K43&amp;J48</f>
@@ -16794,16 +16794,16 @@
         <v>180000</v>
       </c>
       <c r="I49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K49" t="s">
+        <v>492</v>
+      </c>
+      <c r="M49" t="s">
         <v>493</v>
       </c>
-      <c r="M49" t="s">
+      <c r="O49" t="s">
         <v>494</v>
-      </c>
-      <c r="O49" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
@@ -16815,7 +16815,7 @@
         <v>185000</v>
       </c>
       <c r="J50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K50" t="str">
         <f>I49&amp;K49&amp;J50</f>
@@ -16839,7 +16839,7 @@
         <v>190000</v>
       </c>
       <c r="J51" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K51" t="str">
         <f>I49&amp;K49&amp;J51</f>
@@ -16863,7 +16863,7 @@
         <v>195000</v>
       </c>
       <c r="J52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K52" t="str">
         <f>I49&amp;K49&amp;J52</f>
@@ -16887,7 +16887,7 @@
         <v>200000</v>
       </c>
       <c r="J53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K53" t="str">
         <f>I49&amp;K49&amp;J53</f>
@@ -16911,7 +16911,7 @@
         <v>205000</v>
       </c>
       <c r="J54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K54" t="str">
         <f>I49&amp;K49&amp;J54</f>
@@ -16935,16 +16935,16 @@
         <v>210000</v>
       </c>
       <c r="I55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K55" t="s">
+        <v>492</v>
+      </c>
+      <c r="M55" t="s">
         <v>493</v>
       </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
         <v>494</v>
-      </c>
-      <c r="O55" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.3">
@@ -16956,7 +16956,7 @@
         <v>215000</v>
       </c>
       <c r="J56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K56" t="str">
         <f>I55&amp;K55&amp;J56</f>
@@ -16980,7 +16980,7 @@
         <v>220000</v>
       </c>
       <c r="J57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K57" t="str">
         <f>I55&amp;K55&amp;J57</f>
@@ -17004,7 +17004,7 @@
         <v>225000</v>
       </c>
       <c r="J58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K58" t="str">
         <f>I55&amp;K55&amp;J58</f>
@@ -17028,7 +17028,7 @@
         <v>250000</v>
       </c>
       <c r="J59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K59" t="str">
         <f>I55&amp;K55&amp;J59</f>
@@ -17052,7 +17052,7 @@
         <v>275000</v>
       </c>
       <c r="J60" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K60" t="str">
         <f>I55&amp;K55&amp;J60</f>
@@ -19051,7 +19051,7 @@
         <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -19067,7 +19067,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>175</v>
@@ -19522,10 +19522,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -19535,7 +19535,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -19545,27 +19545,27 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>527</v>
+      </c>
+      <c r="E17" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" t="s">
         <v>528</v>
       </c>
-      <c r="E17" t="s">
-        <v>531</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>529</v>
-      </c>
-      <c r="G17" t="s">
-        <v>530</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E18" s="37">
         <v>250</v>
@@ -20004,12 +20004,12 @@
         <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20132,7 +20132,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
@@ -21687,8 +21687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D334537-191E-473E-8F5E-E80A13E62C45}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21715,7 +21715,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -21726,7 +21726,7 @@
         <v>423</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>447</v>
@@ -21744,45 +21744,45 @@
         <v>449</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>445</v>
       </c>
       <c r="N2" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="S2" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="R2" s="35" t="s">
+      <c r="T2" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="S2" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="35" t="s">
         <v>459</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>460</v>
       </c>
       <c r="V2" s="35" t="s">
         <v>81</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
@@ -21857,7 +21857,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
@@ -21932,7 +21932,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" s="34">
         <v>3</v>
@@ -22007,7 +22007,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C6" s="34">
         <v>4</v>
@@ -22082,7 +22082,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7" s="34">
         <v>5</v>
@@ -22157,7 +22157,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
@@ -22232,13 +22232,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -22248,7 +22248,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -22257,32 +22257,32 @@
       </c>
       <c r="B12" s="15"/>
       <c r="D12" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>461</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -22347,7 +22347,7 @@
         <v>1.5</v>
       </c>
       <c r="L22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -22381,10 +22381,10 @@
         <v>428</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -22401,7 +22401,7 @@
         <v>429</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L25" t="s">
         <v>439</v>
@@ -22418,13 +22418,13 @@
         <v>416</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J26" t="s">
         <v>430</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L26" t="s">
         <v>440</v>
@@ -22464,7 +22464,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H28" s="40">
         <v>1</v>
@@ -22487,7 +22487,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H29" s="40">
         <v>2</v>
@@ -22499,7 +22499,7 @@
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -22510,7 +22510,7 @@
         <v>413</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H30" s="40">
         <v>3</v>
@@ -22527,7 +22527,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H31" s="40">
         <v>4</v>
@@ -22535,20 +22535,20 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>465</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>466</v>
       </c>
       <c r="D32" s="44"/>
       <c r="G32" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H32" s="40">
         <v>5</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>441</v>
@@ -22561,10 +22561,10 @@
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G34" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.3">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE557EBE-0F01-4C07-954C-510CAF970215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BD23D7-C997-4DE9-B554-989A1156B849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="538">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2144,6 +2144,10 @@
   </si>
   <si>
     <t>攻击倍率以物理伤害为准，法伤、真伤招式最好降低倍率。计算填入此处的攻击倍率（大致平均值）时，要将实际的法伤招式的倍率*2，真伤招式的倍率*3来折算计算。怪物魔抗属性目前没有硬性限制，根据情况配置即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21688,7 +21692,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -22518,8 +22522,8 @@
       <c r="J30" t="s">
         <v>434</v>
       </c>
-      <c r="K30" s="40">
-        <v>20</v>
+      <c r="K30" s="44" t="s">
+        <v>537</v>
       </c>
       <c r="L30" t="s">
         <v>442</v>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BD23D7-C997-4DE9-B554-989A1156B849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59886A-4C40-4142-B6F5-0CA87AFE4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -3126,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="S3">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>2032.7457162809235</v>
+        <v>2025.708644772579</v>
       </c>
       <c r="V3">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -3455,12 +3455,12 @@
         <v>2020.6549657534247</v>
       </c>
       <c r="AN3">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>2458.4635416666665</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>2543.2381465517242</v>
       </c>
       <c r="AO3">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.0006322012759106</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.99716815739795128</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="S4">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>5012.9154416429456</v>
+        <v>5000.5997200472148</v>
       </c>
       <c r="V4">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -3587,12 +3587,12 @@
         <v>5052.9629629629626</v>
       </c>
       <c r="AN4">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>5684.583333333333</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>5830.3418803418799</v>
       </c>
       <c r="AO4">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.0053859295854997</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>1.0029158992510199</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="S5">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>4091.3816335602987</v>
+        <v>4086.4074043371693</v>
       </c>
       <c r="V5">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -3722,12 +3722,12 @@
         <v>3922.5454608011109</v>
       </c>
       <c r="AN5">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>4274.683064668483</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>4328.7929768794766</v>
       </c>
       <c r="AO5">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.005213748461754</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>1.0039916274153877</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="S6" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>8110.1198780917202</v>
+        <v>8093.757784481234</v>
       </c>
       <c r="V6">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -3855,12 +3855,12 @@
         <v>8159.4099504208452</v>
       </c>
       <c r="AN6">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>9628.1037414965976</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>9824.5956545883655</v>
       </c>
       <c r="AO6">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.0023203157453116</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>1.0002981435603826</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="S7" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>7546.0677228024406</v>
+        <v>7465.0324315059643</v>
       </c>
       <c r="V7">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -3988,12 +3988,12 @@
         <v>7413.1825694212112</v>
       </c>
       <c r="AN7">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>7729.9852433281003</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>8696.2333987441125</v>
       </c>
       <c r="AO7">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.0149148012318412</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>1.0040158907555403</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="S8" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>11427.579493597848</v>
+        <v>11263.353178290545</v>
       </c>
       <c r="V8">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -4121,12 +4121,12 @@
         <v>11675.702239229026</v>
       </c>
       <c r="AN8">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>21016.264030612248</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>23351.404478458055</v>
       </c>
       <c r="AO8">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.95719774334340391</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.94344180679552681</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="S10">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>2231.1009556651052</v>
+        <v>2225.6978612163011</v>
       </c>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
@@ -4265,12 +4265,12 @@
         <v>2228.5791108986614</v>
       </c>
       <c r="AN10">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>3330.1339285714284</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>3398.0958454810498</v>
       </c>
       <c r="AO10">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.98000151087919229</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.97762822485203782</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="S11">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>3933.7139299260343</v>
+        <v>3972.0249169014655</v>
       </c>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
@@ -4403,12 +4403,12 @@
         <v>3919.659090909091</v>
       </c>
       <c r="AN11">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>7186.041666666667</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>8623.25</v>
       </c>
       <c r="AO11">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.94705351804608218</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.95627700395309678</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="S12">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>2041.3034612513084</v>
+        <v>2007.3625073720866</v>
       </c>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
@@ -4541,12 +4541,12 @@
         <v>1970.6660583941605</v>
       </c>
       <c r="AN12">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>3067.96875</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>3506.25</v>
       </c>
       <c r="AO12">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.9792796825655945</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.96299710274747996</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="S13" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>5924.5007565598362</v>
+        <v>5910.2106841534269</v>
       </c>
       <c r="V13">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -4676,12 +4676,12 @@
         <v>5883.7054181137082</v>
       </c>
       <c r="AN13">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>8791.9369533527697</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>8971.3642381150712</v>
       </c>
       <c r="AO13">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.98060319100911442</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.97823794688521748</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="S14" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>5842.8543900366094</v>
+        <v>5830.968602560748</v>
       </c>
       <c r="V14">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -4809,12 +4809,12 @@
         <v>5738.9071038251386</v>
       </c>
       <c r="AN14">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>7001.466666666669</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>7144.3537414966004</v>
       </c>
       <c r="AO14">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>1.0014755511030524</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.99943830615938578</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="S15" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>2602.6718973408651</v>
+        <v>2581.3054442022953</v>
       </c>
       <c r="V15">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
@@ -4942,12 +4942,12 @@
         <v>2602.6506696428573</v>
       </c>
       <c r="AN15">
-        <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]])</f>
-        <v>6072.8515625</v>
+        <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
+        <v>7287.421875</v>
       </c>
       <c r="AO15">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.37+1.68/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.90961192504222721</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <v>0.90214452948208912</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
@@ -21691,7 +21691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D334537-191E-473E-8F5E-E80A13E62C45}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59886A-4C40-4142-B6F5-0CA87AFE4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C022C4-5AD7-46F7-9E2B-D1BAA5F6885E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="539">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2148,6 +2148,10 @@
   </si>
   <si>
     <t>20~25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单发类射击间隔：长枪固定填800，短枪固定填400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3459,7 +3463,7 @@
         <v>2543.2381465517242</v>
       </c>
       <c r="AO3">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.99716815739795128</v>
       </c>
     </row>
@@ -3591,7 +3595,7 @@
         <v>5830.3418803418799</v>
       </c>
       <c r="AO4">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0029158992510199</v>
       </c>
     </row>
@@ -3726,7 +3730,7 @@
         <v>4328.7929768794766</v>
       </c>
       <c r="AO5">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0039916274153877</v>
       </c>
     </row>
@@ -3859,7 +3863,7 @@
         <v>9824.5956545883655</v>
       </c>
       <c r="AO6">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0002981435603826</v>
       </c>
     </row>
@@ -3992,7 +3996,7 @@
         <v>8696.2333987441125</v>
       </c>
       <c r="AO7">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0040158907555403</v>
       </c>
     </row>
@@ -4125,7 +4129,7 @@
         <v>23351.404478458055</v>
       </c>
       <c r="AO8">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.94344180679552681</v>
       </c>
     </row>
@@ -4269,7 +4273,7 @@
         <v>3398.0958454810498</v>
       </c>
       <c r="AO10">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.97762822485203782</v>
       </c>
     </row>
@@ -4290,7 +4294,7 @@
         <v>750</v>
       </c>
       <c r="F11" s="27">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="G11" s="27">
         <v>6</v>
@@ -4322,17 +4326,17 @@
       <c r="P11" s="27"/>
       <c r="Q11">
         <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>3919.659090909091</v>
+        <v>3804.375</v>
       </c>
       <c r="S11">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>3972.0249169014655</v>
+        <v>3802.8763919297667</v>
       </c>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
-        <v>3776.03113711893</v>
+        <v>3763.5454610303132</v>
       </c>
       <c r="W11">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)</f>
@@ -4348,27 +4352,27 @@
       </c>
       <c r="Z11">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20)*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>2800</v>
+        <v>2717.6470588235293</v>
       </c>
       <c r="AA11">
         <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>2145.5382311354228</v>
+        <v>2134.8430439696476</v>
       </c>
       <c r="AB11">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>1119.659090909091</v>
+        <v>1086.7279411764705</v>
       </c>
       <c r="AC11">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
-        <v>1630.4929059835074</v>
+        <v>1628.7024170606655</v>
       </c>
       <c r="AD11">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>1.8181818181818181</v>
+        <v>1.7647058823529411</v>
       </c>
       <c r="AE11">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
-        <v>3.6363636363636362</v>
+        <v>3.5294117647058827</v>
       </c>
       <c r="AF11">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
@@ -4376,7 +4380,7 @@
       </c>
       <c r="AG11">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>3241.1440268611004</v>
+        <v>3232.1885901409573</v>
       </c>
       <c r="AH11" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
@@ -4400,15 +4404,15 @@
       </c>
       <c r="AM11">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>3919.659090909091</v>
+        <v>3804.375</v>
       </c>
       <c r="AN11">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
-        <v>8623.25</v>
+        <v>8084.296875</v>
       </c>
       <c r="AO11">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.95627700395309678</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
+        <v>0.91859136340905279</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
@@ -4545,7 +4549,7 @@
         <v>3506.25</v>
       </c>
       <c r="AO12">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.96299710274747996</v>
       </c>
     </row>
@@ -4680,7 +4684,7 @@
         <v>8971.3642381150712</v>
       </c>
       <c r="AO13">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.97823794688521748</v>
       </c>
     </row>
@@ -4813,7 +4817,7 @@
         <v>7144.3537414966004</v>
       </c>
       <c r="AO14">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.99943830615938578</v>
       </c>
     </row>
@@ -4829,7 +4833,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="12">
-        <v>935</v>
+        <v>900</v>
       </c>
       <c r="F15" s="12">
         <v>200</v>
@@ -4863,19 +4867,19 @@
       </c>
       <c r="Q15" s="17">
         <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>2602.6506696428573</v>
+        <v>2518.8616071428573</v>
       </c>
       <c r="S15" s="17">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>2581.3054442022953</v>
+        <v>2525.8674031406331</v>
       </c>
       <c r="V15">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
-        <v>2861.2992262827256</v>
+        <v>2864.7134057614348</v>
       </c>
       <c r="W15">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)</f>
-        <v>7287.421875</v>
+        <v>7052.8125</v>
       </c>
       <c r="X15">
         <f xml:space="preserve"> (表2_5[[#This Row],[限制等级]]-1) * 1200*表2_5[[#This Row],[冲击力系数]]/(1.6^(表2_5[[#This Row],[伤害类型系数]]-1)*1.5^(表2_5[[#This Row],[双枪系数]]-1))+表2_5[[#This Row],[弹夹价格]]*5*(1+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(2+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]])</f>
@@ -4887,19 +4891,19 @@
       </c>
       <c r="Z15">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20)*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>2046.4285714285713</v>
+        <v>1971.4285714285713</v>
       </c>
       <c r="AA15">
         <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>1700.3081506481715</v>
+        <v>1703.5136074738077</v>
       </c>
       <c r="AB15">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>556.22209821428567</v>
+        <v>547.43303571428567</v>
       </c>
       <c r="AC15">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
-        <v>1160.9910756345539</v>
+        <v>1161.1997982876269</v>
       </c>
       <c r="AD15">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
@@ -4915,11 +4919,11 @@
       </c>
       <c r="AG15">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>2418.5541527194559</v>
+        <v>2424.1138395025869</v>
       </c>
       <c r="AH15" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
-        <v>1214.5703125</v>
+        <v>1175.46875</v>
       </c>
       <c r="AI15">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
@@ -4935,26 +4939,28 @@
       </c>
       <c r="AL15">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
-        <v>1.0569077875685204</v>
+        <v>1.05976980259141</v>
       </c>
       <c r="AM15">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>2602.6506696428573</v>
+        <v>2518.8616071428573</v>
       </c>
       <c r="AN15">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
-        <v>7287.421875</v>
+        <v>7052.8125</v>
       </c>
       <c r="AO15">
-        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.5+1.53/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]*1.5))))</f>
-        <v>0.90214452948208912</v>
+        <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
+        <v>0.88171731177739332</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C022C4-5AD7-46F7-9E2B-D1BAA5F6885E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D952F950-BA6C-4EBE-9D6A-8DD38B673C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="541">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>榴弹类子弹抛物线难以瞄准，可以以3倍弹药价格填入作为强度补正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法伤害加权层数-1，真伤伤害加权层数-2。真伤为稀缺属性，请谨慎给予，非物理伤害尽量使用不同类型的魔法伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2152,6 +2148,18 @@
   </si>
   <si>
     <t>单发类射击间隔：长枪固定填800，短枪固定填400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡基础dps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济加成dps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴弹类子弹抛物线难以瞄准，可以以2倍弹药价格填入作为强度补正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2419,7 +2427,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -2630,6 +2638,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2686,9 +2700,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7349FA9-99DF-4B99-A6CD-F60E9AE426A8}" name="表2_5" displayName="表2_5" ref="B2:AO22" totalsRowShown="0" headerRowDxfId="30">
-  <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{9622EC47-0B3C-4F87-80A9-38E2551B5BEB}" name="示例类型" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7349FA9-99DF-4B99-A6CD-F60E9AE426A8}" name="表2_5" displayName="表2_5" ref="B2:AQ22" totalsRowShown="0" headerRowDxfId="32">
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{9622EC47-0B3C-4F87-80A9-38E2551B5BEB}" name="示例类型" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{8AE355BF-09CF-4C30-8D06-EF473D079208}" name="具体武器"/>
     <tableColumn id="3" xr3:uid="{89D3353E-1718-4388-AD7D-9F319AF13C8B}" name="限制等级"/>
     <tableColumn id="4" xr3:uid="{CF92ACFD-53F0-44F3-81DA-D8F395186FD9}" name="子弹威力"/>
@@ -2702,30 +2716,36 @@
     <tableColumn id="10" xr3:uid="{6DD80E2D-4D45-4B8C-9E77-14138FE2CCEE}" name="霰弹值"/>
     <tableColumn id="30" xr3:uid="{3EE38D9F-BD7A-4582-A0A5-BBC7F3143660}" name="冲击力"/>
     <tableColumn id="11" xr3:uid="{8355C49A-2E45-443B-A2D0-F3FC8AD4E431}" name="额外加权层数"/>
-    <tableColumn id="12" xr3:uid="{7592F6A0-142D-4511-BBAA-6506E3B7A0A9}" name="列1" dataDxfId="28">
+    <tableColumn id="12" xr3:uid="{7592F6A0-142D-4511-BBAA-6506E3B7A0A9}" name="列1" dataDxfId="30">
       <calculatedColumnFormula>1000*(表2_5[[#This Row],[弹夹价格]]*2)/(表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]]+900*表2_5[[#This Row],[双枪系数]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{15C9C8D1-9A08-400A-8E77-55F28B54C749}" name="平均dps"/>
-    <tableColumn id="26" xr3:uid="{1274C3C7-22C9-49B5-A875-F13E969A7BF0}" name="列4" dataDxfId="27">
+    <tableColumn id="26" xr3:uid="{1274C3C7-22C9-49B5-A875-F13E969A7BF0}" name="列4" dataDxfId="29">
       <calculatedColumnFormula>1000*((表2_5[[#This Row],[子弹威力]]*1.5+30)*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)-200*3)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{7F59743E-F0DB-4BA2-9BCC-B1CBDB7C38A0}" name="加权dps"/>
     <tableColumn id="20" xr3:uid="{16F55BA4-4DC2-4B1D-A013-655D2F1FFDE9}" name="列5"/>
-    <tableColumn id="17" xr3:uid="{3AA822EC-85AB-4A55-8245-64CD79274F66}" name="列3" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{4E0BF69B-7EA4-42AA-ACAB-4DD530D9863F}" name="平衡dps" dataDxfId="25">
+    <tableColumn id="17" xr3:uid="{3AA822EC-85AB-4A55-8245-64CD79274F66}" name="列3" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{4E0BF69B-7EA4-42AA-ACAB-4DD530D9863F}" name="平衡dps" dataDxfId="27">
       <calculatedColumnFormula>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[双枪系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{50FB25B6-902E-4298-B745-8ECFB9F5C05F}" name="周期伤害" dataDxfId="24">
+    <tableColumn id="32" xr3:uid="{50FB25B6-902E-4298-B745-8ECFB9F5C05F}" name="周期伤害" dataDxfId="26">
       <calculatedColumnFormula>表2_5[[#This Row],[限制等级]]*250*表2_5[[#This Row],[射击间隔]]*表2_5[[#This Row],[弹容量]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{1D45EC77-0BCE-4784-8749-FF6132165C8B}" name="平衡周期伤害" dataDxfId="23">
+    <tableColumn id="18" xr3:uid="{1D45EC77-0BCE-4784-8749-FF6132165C8B}" name="平衡周期伤害" dataDxfId="25">
       <calculatedColumnFormula xml:space="preserve"> 表2_5[[#This Row],[限制等级]] * 1000*表2_5[[#This Row],[冲击力系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[弹夹价格]]*3/表2_5[[#This Row],[伤害类型系数]]*(25+表2_5[[#This Row],[限制等级]])/25+表2_5[[#This Row],[重量]]*300*(25+表2_5[[#This Row],[限制等级]])/25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{EF66C15A-74D6-4470-BF24-C3FA05561BF9}" name="加权周期伤害" dataDxfId="22">
+    <tableColumn id="21" xr3:uid="{EF66C15A-74D6-4470-BF24-C3FA05561BF9}" name="加权周期伤害" dataDxfId="24">
       <calculatedColumnFormula>表2_5[[#This Row],[平衡周期伤害]]*1.25^表2_5[[#This Row],[额外加权层数]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{07F68A49-F531-49B9-BE7A-451B8108367A}" name="裸伤dps" dataDxfId="21">
+    <tableColumn id="16" xr3:uid="{07F68A49-F531-49B9-BE7A-451B8108367A}" name="裸伤dps" dataDxfId="23">
       <calculatedColumnFormula>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256)*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="42" xr3:uid="{78149331-6766-4B21-97F5-6543BE2E0064}" name="平衡基础dps" dataDxfId="22">
+      <calculatedColumnFormula>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="43" xr3:uid="{7C5DC5B5-FB5B-43A3-A51A-F9427B7AB40B}" name="经济加成dps" dataDxfId="21">
+      <calculatedColumnFormula xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" xr3:uid="{0DA80F6C-04BD-4561-86F2-E371C6BBA2BE}" name="平衡裸伤dps" dataDxfId="20">
       <calculatedColumnFormula>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</calculatedColumnFormula>
@@ -2750,7 +2770,7 @@
     </tableColumn>
     <tableColumn id="34" xr3:uid="{A660A361-96CB-4007-A464-05DAF5157343}" name="单段伤害"/>
     <tableColumn id="22" xr3:uid="{71A1BBF9-42EA-4DF3-BAAF-CEF0752727B7}" name="伤害加成" dataDxfId="13">
-      <calculatedColumnFormula>IF(AL31&gt;=35,15*AL31-300,5*AL31+25)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(AN31&gt;=35,15*AN31-300,5*AN31+25)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" xr3:uid="{5F2CA67A-5513-480C-AC64-9D919C58AC3C}" name="剧毒" dataDxfId="12">
       <calculatedColumnFormula>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</calculatedColumnFormula>
@@ -2768,12 +2788,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{55FA9E23-8BFC-46D4-BAD9-82BF30D0709B}" name="表5" displayName="表5" ref="AM25:AO30" totalsRowShown="0">
-  <autoFilter ref="AM25:AO30" xr:uid="{55FA9E23-8BFC-46D4-BAD9-82BF30D0709B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{55FA9E23-8BFC-46D4-BAD9-82BF30D0709B}" name="表5" displayName="表5" ref="AO25:AQ30" totalsRowShown="0">
+  <autoFilter ref="AO25:AQ30" xr:uid="{55FA9E23-8BFC-46D4-BAD9-82BF30D0709B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{175B7766-4B20-4B31-932D-D2FDAD403F44}" name="伤害加成" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{E828ECFB-EC93-47F0-9A6F-7E5C622BFDC8}" name="强化" dataDxfId="9">
-      <calculatedColumnFormula>表5[[#This Row],[伤害加成]]*IF(AL26&gt;=25, 1 + (MIN(13,(AL26-18)/3.5) - 1) * (MIN(13,(AL26-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL26-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</calculatedColumnFormula>
+      <calculatedColumnFormula>表5[[#This Row],[伤害加成]]*IF(AN26&gt;=25, 1 + (MIN(13,(AN26-18)/3.5) - 1) * (MIN(13,(AN26-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN26-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{03C39990-725D-458F-A7CF-4E78ABD6F172}" name="剧毒"/>
   </tableColumns>
@@ -3128,7 +3148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -3156,25 +3176,26 @@
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
     <col min="24" max="25" width="11.1640625" customWidth="1"/>
     <col min="26" max="26" width="7.33203125" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" customWidth="1"/>
+    <col min="27" max="28" width="11.1640625" customWidth="1"/>
     <col min="29" max="29" width="10.83203125" customWidth="1"/>
-    <col min="30" max="30" width="8.08203125" customWidth="1"/>
-    <col min="31" max="31" width="6.58203125" customWidth="1"/>
-    <col min="32" max="32" width="7.75" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" customWidth="1"/>
-    <col min="34" max="35" width="8.08203125" customWidth="1"/>
-    <col min="36" max="36" width="4.58203125" customWidth="1"/>
-    <col min="37" max="37" width="9.83203125" customWidth="1"/>
-    <col min="38" max="38" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="9.5" customWidth="1"/>
-    <col min="40" max="40" width="7.1640625" customWidth="1"/>
-    <col min="41" max="41" width="11.33203125" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" customWidth="1"/>
+    <col min="32" max="32" width="8.08203125" customWidth="1"/>
+    <col min="33" max="33" width="6.58203125" customWidth="1"/>
+    <col min="34" max="34" width="7.75" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" customWidth="1"/>
+    <col min="36" max="37" width="8.08203125" customWidth="1"/>
+    <col min="38" max="38" width="4.58203125" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" customWidth="1"/>
+    <col min="40" max="40" width="11.5" customWidth="1"/>
+    <col min="41" max="41" width="9.5" customWidth="1"/>
+    <col min="42" max="42" width="7.1640625" customWidth="1"/>
+    <col min="43" max="43" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -3189,33 +3210,33 @@
         <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M1" t="s">
         <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>307</v>
-      </c>
       <c r="B2" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>49</v>
@@ -3236,7 +3257,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -3245,97 +3266,103 @@
         <v>4</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="X2" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y2" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="W2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO2" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="X2" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="AO2" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP2" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3407,67 +3434,75 @@
         <v>1335.6164383561643</v>
       </c>
       <c r="AA3">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>1072.1268978886758</v>
+      </c>
+      <c r="AB3">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>273.97260273972603</v>
+      </c>
+      <c r="AC3">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1346.0995006284018</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>685.03852739726028</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>685.36192314844709</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>6.8493150684931505</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>6.8493150684931505</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>1842.9896488815355</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>295.015625</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>64</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.97500000000000009</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.98672392904600204</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>2020.6549657534247</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>2543.2381465517242</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.99716815739795128</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3539,72 +3574,80 @@
         <v>2666.6666666666665</v>
       </c>
       <c r="AA4">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>2912.1732048760132</v>
+      </c>
+      <c r="AB4">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>177.77777777777777</v>
+      </c>
+      <c r="AC4">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>3089.950982653791</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>2386.2962962962961</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>1839.383545547212</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>5.9259259259259256</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>11.851851851851851</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>0.98299538293448663</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>5140.6079276294104</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>446.34375</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>169</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.99473684210526325</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.98327102157776669</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>5052.9629629629626</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>5830.3418803418799</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0029158992510199</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3674,73 +3717,81 @@
         <v>2252.3461939520334</v>
       </c>
       <c r="AA5">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>2081.9840799978415</v>
+      </c>
+      <c r="AB5">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>834.20229405630869</v>
+      </c>
+      <c r="AC5">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2916.1863740541503</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1670.1992668490775</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>783.95984298965334</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>8.342022940563087</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>12.513034410844631</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>3782.4883935501043</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>326.15625</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>106</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>1.0990049751243782</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.91928088105956696</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>3922.5454608011109</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>4328.7929768794766</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0039916274153877</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="12">
         <v>30</v>
@@ -3807,73 +3858,81 @@
         <v>3954.8022598870057</v>
       </c>
       <c r="AA6">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>3649.6101907985617</v>
+      </c>
+      <c r="AB6">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>225.98870056497177</v>
+      </c>
+      <c r="AC6">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>3875.5988913635333</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>4204.6076905338405</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>4215.7465105912761</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>9.4161958568738235</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>9.4161958568738218</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>6533.639561076945</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>866.52933673469386</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>265.59183673469386</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>120</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.98235294117647065</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.97600421230165579</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>8159.4099504208452</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>9824.5956545883655</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0002981435603826</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="12">
         <v>28</v>
@@ -3940,73 +3999,81 @@
         <v>5842.622950819672</v>
       </c>
       <c r="AA7">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>3513.6969711868874</v>
+      </c>
+      <c r="AB7">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>983.60655737704917</v>
+      </c>
+      <c r="AC7">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>4497.3035285639362</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1570.5596186015389</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>2937.8700580696286</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1.4754098360655739</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>2.9508196721311477</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>7004.0280678948675</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>2532.2452040816329</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>237.87020408163269</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.91132075471698115</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.97506864015149008</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>7413.1825694212112</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>8696.2333987441125</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>1.0040158907555403</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="12">
         <v>35</v>
@@ -4073,75 +4140,83 @@
         <v>7666.666666666667</v>
       </c>
       <c r="AA8">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>4411.0403174750154</v>
+      </c>
+      <c r="AB8">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="AC8">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>6077.7069841416824</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>4009.0355725623576</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>5860.8705700451474</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>9983.7464921642149</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>2101.6264030612247</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>355.53265306122444</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>120</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>1.0747551830293407</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>11675.702239229026</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>23351.404478458055</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.94344180679552681</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>16</v>
@@ -4217,69 +4292,77 @@
         <v>860.42065009560224</v>
       </c>
       <c r="AA10">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>1207.4638084421704</v>
+      </c>
+      <c r="AB10">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>114.72275334608031</v>
+      </c>
+      <c r="AC10">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1322.1865617882506</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1368.1584608030594</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>954.44355653014827</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>9.5602294455066925</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>9.5602294455066925</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>2108.3018369545916</v>
       </c>
-      <c r="AH10" s="27">
+      <c r="AJ10" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>233.109375</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>106</v>
       </c>
-      <c r="AJ10" s="32">
+      <c r="AL10" s="32">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>1</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.99602289273285605</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>2228.5791108986614</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>3398.0958454810498</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.97762822485203782</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>21</v>
@@ -4355,72 +4438,80 @@
         <v>2717.6470588235293</v>
       </c>
       <c r="AA11">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>1781.9018674990593</v>
+      </c>
+      <c r="AB11">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>352.94117647058823</v>
+      </c>
+      <c r="AC11">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2134.8430439696476</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1086.7279411764705</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>1628.7024170606655</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1.7647058823529411</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>3.5294117647058827</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>3232.1885901409573</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AJ11" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>1097.90625</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>169</v>
       </c>
-      <c r="AJ11" s="32">
+      <c r="AL11" s="32">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>1.0579759745327066</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>3804.375</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>8084.296875</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.91859136340905279</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>46</v>
@@ -4493,75 +4584,83 @@
         <v>749.3917274939173</v>
       </c>
       <c r="AA12">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>1162.3469516135772</v>
+      </c>
+      <c r="AB12">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>145.98540145985402</v>
+      </c>
+      <c r="AC12">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1308.3323530734312</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1221.2743309002433</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>776.16250329215745</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1.9464720194647203</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>10.70559610705596</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>2069.0614476355054</v>
       </c>
-      <c r="AH12" s="27">
+      <c r="AJ12" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>184.078125</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>106</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AL12" s="32">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.95714285714285718</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>1.0350787401399311</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>1970.6660583941605</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>3506.25</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.96299710274747996</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" s="12">
         <v>30</v>
@@ -4628,73 +4727,81 @@
         <v>1816.4435946462715</v>
       </c>
       <c r="AA13">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>2489.0361493029354</v>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>2374.3133959568554</v>
       </c>
       <c r="AB13">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>114.72275334608031</v>
+      </c>
+      <c r="AC13">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <v>2489.0361493029359</v>
+      </c>
+      <c r="AD13">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>4067.2618234674364</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>3552.6541193806479</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>9.5602294455066925</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>9.5602294455066925</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>4169.3031384401083</v>
       </c>
-      <c r="AH13" s="27">
+      <c r="AJ13" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>615.43558673469386</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>265.59183673469386</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>120</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.98636363636363644</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.96580058968991578</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>5883.7054181137082</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>8971.3642381150712</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.97823794688521748</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="12">
         <v>32</v>
@@ -4761,73 +4868,81 @@
         <v>1693.9890710382513</v>
       </c>
       <c r="AA14">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>2567.7053483038144</v>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>2392.8419603256721</v>
       </c>
       <c r="AB14">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>174.86338797814207</v>
+      </c>
+      <c r="AC14">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <v>2567.7053483038139</v>
+      </c>
+      <c r="AD14">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>4044.9180327868862</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>3266.5403141101415</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>5.4644808743169397</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>10.928961748633879</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>4182.8150050415161</v>
       </c>
-      <c r="AH14" s="27">
+      <c r="AJ14" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>605.11000000000013</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>296.36000000000007</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>120</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>1</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>0.88314139075221576</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>5738.9071038251386</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>7144.3537414966004</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.99943830615938578</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="12">
         <v>15</v>
@@ -4894,188 +5009,196 @@
         <v>1971.4285714285713</v>
       </c>
       <c r="AA15">
-        <f>( ((表2_5[[#This Row],[限制等级]]*120))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>1703.5136074738077</v>
+        <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>1274.9421789023793</v>
       </c>
       <c r="AB15">
+        <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
+        <v>428.57142857142861</v>
+      </c>
+      <c r="AC15">
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <v>1703.513607473808</v>
+      </c>
+      <c r="AD15">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>547.43303571428567</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
         <v>1161.1997982876269</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>2.1428571428571428</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
         <v>2.1428571428571428</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
         <v>1</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
         <v>2424.1138395025869</v>
       </c>
-      <c r="AH15" s="27">
+      <c r="AJ15" s="27">
         <f>(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
         <v>1175.46875</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
         <v>120</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=30,120,30)</f>
         <v>30</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
         <v>1.05976980259141</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <f>1000*(表2_5[[#This Row],[子弹威力]]+20+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
         <v>2518.8616071428573</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
         <v>7052.8125</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
         <v>0.88171731177739332</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="str">
-        <f>IF(OR(AF6&lt;0.7,AF7&lt;0.7,AF8&lt;0.7,AF13&lt;0.7,AF14&lt;0.7,AF15&lt;0.7),"异常提示：你的武器相对于当前限制等级的吃拐率过高，会导致dps惩罚过重，请降低射速、段数或穿刺能力！","")</f>
+        <f>IF(OR(AH6&lt;0.7,AH7&lt;0.7,AH8&lt;0.7,AH13&lt;0.7,AH14&lt;0.7,AH15&lt;0.7),"异常提示：你的武器相对于当前限制等级的吃拐率过高，会导致dps惩罚过重，请降低射速、段数或穿刺能力！","")</f>
         <v/>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>522</v>
-      </c>
-      <c r="AL24" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R25" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="S25" s="39" t="s">
         <v>518</v>
       </c>
-      <c r="S25" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AN25" t="s">
         <v>89</v>
       </c>
-      <c r="AM25" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>373</v>
-      </c>
       <c r="AO25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="37">
         <v>3</v>
@@ -5087,139 +5210,139 @@
         <f>Q26*0.8+Q26*0.5/R26+0.1</f>
         <v>4</v>
       </c>
-      <c r="AK26" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AL26" s="28">
+      <c r="AM26" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN26" s="28">
         <v>10</v>
       </c>
-      <c r="AM26" s="28">
+      <c r="AO26" s="28">
         <v>85</v>
       </c>
-      <c r="AN26" s="28">
-        <f>表5[[#This Row],[伤害加成]]*IF(AL26&gt;=25, 1 + (MIN(13,(AL26-18)/3.5) - 1) * (MIN(13,(AL26-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL26-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
+      <c r="AP26" s="28">
+        <f>表5[[#This Row],[伤害加成]]*IF(AN26&gt;=25, 1 + (MIN(13,(AN26-18)/3.5) - 1) * (MIN(13,(AN26-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN26-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="28">
+      <c r="AQ26" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q27" t="s">
-        <v>521</v>
-      </c>
-      <c r="AL27" s="28">
+        <v>520</v>
+      </c>
+      <c r="AN27" s="28">
         <v>20</v>
       </c>
-      <c r="AM27" s="28">
+      <c r="AO27" s="28">
         <v>160</v>
       </c>
-      <c r="AN27" s="28">
-        <f>表5[[#This Row],[伤害加成]]*IF(AL27&gt;=25, 1 + (MIN(13,(AL27-18)/3.5) - 1) * (MIN(13,(AL27-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL27-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
+      <c r="AP27" s="28">
+        <f>表5[[#This Row],[伤害加成]]*IF(AN27&gt;=25, 1 + (MIN(13,(AN27-18)/3.5) - 1) * (MIN(13,(AN27-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN27-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="28">
+      <c r="AQ27" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q28" t="s">
-        <v>523</v>
-      </c>
-      <c r="AL28" s="28">
+        <v>522</v>
+      </c>
+      <c r="AN28" s="28">
         <v>30</v>
       </c>
-      <c r="AM28" s="28">
+      <c r="AO28" s="28">
         <v>200</v>
       </c>
-      <c r="AN28" s="28">
-        <f>表5[[#This Row],[伤害加成]]*IF(AL28&gt;=25, 1 + (MIN(13,(AL28-18)/3.5) - 1) * (MIN(13,(AL28-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL28-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
+      <c r="AP28" s="28">
+        <f>表5[[#This Row],[伤害加成]]*IF(AN28&gt;=25, 1 + (MIN(13,(AN28-18)/3.5) - 1) * (MIN(13,(AN28-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN28-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
         <v>36.081632653061206</v>
       </c>
-      <c r="AO28" s="28">
+      <c r="AQ28" s="28">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="AL29" s="28">
+      <c r="AN29" s="28">
         <v>40</v>
       </c>
-      <c r="AM29" s="28">
+      <c r="AO29" s="28">
         <v>350</v>
       </c>
-      <c r="AN29" s="28">
-        <f>表5[[#This Row],[伤害加成]]*IF(AL29&gt;=25, 1 + (MIN(13,(AL29-18)/3.5) - 1) * (MIN(13,(AL29-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL29-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
+      <c r="AP29" s="28">
+        <f>表5[[#This Row],[伤害加成]]*IF(AN29&gt;=25, 1 + (MIN(13,(AN29-18)/3.5) - 1) * (MIN(13,(AN29-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN29-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
         <v>190.28571428571422</v>
       </c>
-      <c r="AO29" s="28">
+      <c r="AQ29" s="28">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>300</v>
-      </c>
-      <c r="AL30" s="28">
+        <v>299</v>
+      </c>
+      <c r="AN30" s="28">
         <v>50</v>
       </c>
-      <c r="AM30" s="28">
+      <c r="AO30" s="28">
         <v>530</v>
       </c>
-      <c r="AN30" s="28">
-        <f>表5[[#This Row],[伤害加成]]*IF(AL30&gt;=25, 1 + (MIN(13,(AL30-18)/3.5) - 1) * (MIN(13,(AL30-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL30-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
+      <c r="AP30" s="28">
+        <f>表5[[#This Row],[伤害加成]]*IF(AN30&gt;=25, 1 + (MIN(13,(AN30-18)/3.5) - 1) * (MIN(13,(AN30-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN30-18)/3.5)  - 1),1)-表5[[#This Row],[伤害加成]]</f>
         <v>567.20816326530621</v>
       </c>
-      <c r="AO30" s="28">
+      <c r="AQ30" s="28">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>524</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL31" s="12">
+        <v>523</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN31" s="12">
         <v>35</v>
       </c>
-      <c r="AM31" s="16">
-        <f>IF(AL31&gt;=35,17*AL31-330,7*AL31+15)</f>
+      <c r="AO31" s="16">
+        <f>IF(AN31&gt;=35,17*AN31-330,7*AN31+15)</f>
         <v>265</v>
       </c>
-      <c r="AN31" s="16">
-        <f>IF(AL31&gt;=35,17*AL31-330,7*AL31+15) * IF(AL31&gt;=25, 1 + (MIN(13,(AL31-18)/3.5) - 1) * (MIN(13,(AL31-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL31-18)/3.5)  - 1),1)-AM31</f>
+      <c r="AP31" s="16">
+        <f>IF(AN31&gt;=35,17*AN31-330,7*AN31+15) * IF(AN31&gt;=25, 1 + (MIN(13,(AN31-18)/3.5) - 1) * (MIN(13,(AN31-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN31-18)/3.5)  - 1),1)-AO31</f>
         <v>90.532653061224437</v>
       </c>
-      <c r="AO31" s="16">
-        <f>IF(AL31&gt;=30,120,30)</f>
+      <c r="AQ31" s="16">
+        <f>IF(AN31&gt;=30,120,30)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>516</v>
-      </c>
-      <c r="AL32" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM32" s="16">
-        <f>IF(AL31&gt;=35,17*AL31-330,7*AL31+15) * IF(AL31&gt;=25, 1 + (MIN(13,(AL31-18)/3.5) - 1) * (MIN(13,(AL31-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AL31-18)/3.5)  - 1),1)</f>
+        <v>515</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO32" s="16">
+        <f>IF(AN31&gt;=35,17*AN31-330,7*AN31+15) * IF(AN31&gt;=25, 1 + (MIN(13,(AN31-18)/3.5) - 1) * (MIN(13,(AN31-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN31-18)/3.5)  - 1),1)</f>
         <v>355.53265306122444</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -5227,7 +5350,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="W10:W15 W3:W8 AL3:AL15 X3:X15 Z3:Z15 AB3:AB15 AI3:AI15 AE3:AE15 V3:V15 AC3:AC15 AF3:AF15 AA3:AA15" calculatedColumn="1"/>
+    <ignoredError sqref="W10:W15 W3:W8 AN3:AN15 X3:X15 Z3:Z15 AD3:AD15 AK3:AK15 AG3:AG15 V3:V15 AE3:AE15 AH3:AH15 AC3:AC15" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -14058,7 +14181,7 @@
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G114">
         <v>393220.33898305101</v>
@@ -14092,10 +14215,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -14103,7 +14226,7 @@
         <v>109</v>
       </c>
       <c r="S2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -14135,13 +14258,13 @@
         <v>114</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R5" t="s">
         <v>110</v>
       </c>
       <c r="S5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" t="s">
         <v>112</v>
@@ -15359,7 +15482,7 @@
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
@@ -15373,43 +15496,43 @@
         <v>124</v>
       </c>
       <c r="J3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" t="s">
         <v>379</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>380</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N3" t="s">
+        <v>385</v>
+      </c>
+      <c r="O3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P3" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q3" t="s">
         <v>381</v>
       </c>
-      <c r="M3" t="s">
-        <v>385</v>
-      </c>
-      <c r="N3" t="s">
-        <v>386</v>
-      </c>
-      <c r="O3" t="s">
-        <v>384</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>389</v>
+      </c>
+      <c r="S3" t="s">
+        <v>390</v>
+      </c>
+      <c r="T3" t="s">
+        <v>382</v>
+      </c>
+      <c r="U3" t="s">
         <v>387</v>
       </c>
-      <c r="Q3" t="s">
-        <v>382</v>
-      </c>
-      <c r="R3" t="s">
-        <v>390</v>
-      </c>
-      <c r="S3" t="s">
-        <v>391</v>
-      </c>
-      <c r="T3" t="s">
-        <v>383</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>388</v>
-      </c>
-      <c r="V3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -16222,13 +16345,13 @@
         <v>55000</v>
       </c>
       <c r="H24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
@@ -16240,16 +16363,16 @@
         <v>60000</v>
       </c>
       <c r="I25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K25" t="s">
+        <v>491</v>
+      </c>
+      <c r="M25" t="s">
         <v>492</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>493</v>
-      </c>
-      <c r="O25" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
@@ -16261,7 +16384,7 @@
         <v>65000</v>
       </c>
       <c r="J26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K26" t="str">
         <f>I25&amp;K25&amp;J26</f>
@@ -16285,7 +16408,7 @@
         <v>70000</v>
       </c>
       <c r="J27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K27" t="str">
         <f>I25&amp;K25&amp;J27</f>
@@ -16309,7 +16432,7 @@
         <v>75000</v>
       </c>
       <c r="J28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K28" t="str">
         <f>I25&amp;K25&amp;J28</f>
@@ -16333,7 +16456,7 @@
         <v>80000</v>
       </c>
       <c r="J29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K29" t="str">
         <f>I25&amp;K25&amp;J29</f>
@@ -16357,7 +16480,7 @@
         <v>85000</v>
       </c>
       <c r="J30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K30" t="str">
         <f>I25&amp;K25&amp;J30</f>
@@ -16381,16 +16504,16 @@
         <v>90000</v>
       </c>
       <c r="I31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K31" t="s">
+        <v>491</v>
+      </c>
+      <c r="M31" t="s">
         <v>492</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>493</v>
-      </c>
-      <c r="O31" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
@@ -16402,7 +16525,7 @@
         <v>95000</v>
       </c>
       <c r="J32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K32" t="str">
         <f>I31&amp;K31&amp;J32</f>
@@ -16426,7 +16549,7 @@
         <v>100000</v>
       </c>
       <c r="J33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K33" t="str">
         <f>I31&amp;K31&amp;J33</f>
@@ -16450,7 +16573,7 @@
         <v>105000</v>
       </c>
       <c r="J34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K34" t="str">
         <f>I31&amp;K31&amp;J34</f>
@@ -16474,7 +16597,7 @@
         <v>110000</v>
       </c>
       <c r="J35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K35" t="str">
         <f>I31&amp;K31&amp;J35</f>
@@ -16498,7 +16621,7 @@
         <v>115000</v>
       </c>
       <c r="J36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K36" t="str">
         <f>I31&amp;K31&amp;J36</f>
@@ -16522,16 +16645,16 @@
         <v>120000</v>
       </c>
       <c r="I37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K37" t="s">
+        <v>491</v>
+      </c>
+      <c r="M37" t="s">
         <v>492</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>493</v>
-      </c>
-      <c r="O37" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
@@ -16543,7 +16666,7 @@
         <v>125000</v>
       </c>
       <c r="J38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K38" t="str">
         <f>I37&amp;K37&amp;J38</f>
@@ -16567,7 +16690,7 @@
         <v>130000</v>
       </c>
       <c r="J39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K39" t="str">
         <f>I37&amp;K37&amp;J39</f>
@@ -16591,7 +16714,7 @@
         <v>135000</v>
       </c>
       <c r="J40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K40" t="str">
         <f>I37&amp;K37&amp;J40</f>
@@ -16615,7 +16738,7 @@
         <v>140000</v>
       </c>
       <c r="J41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K41" t="str">
         <f>I37&amp;K37&amp;J41</f>
@@ -16639,7 +16762,7 @@
         <v>145000</v>
       </c>
       <c r="J42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K42" t="str">
         <f>I37&amp;K37&amp;J42</f>
@@ -16663,16 +16786,16 @@
         <v>150000</v>
       </c>
       <c r="I43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K43" t="s">
+        <v>491</v>
+      </c>
+      <c r="M43" t="s">
         <v>492</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>493</v>
-      </c>
-      <c r="O43" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
@@ -16684,7 +16807,7 @@
         <v>155000</v>
       </c>
       <c r="J44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K44" t="str">
         <f>I43&amp;K43&amp;J44</f>
@@ -16708,7 +16831,7 @@
         <v>160000</v>
       </c>
       <c r="J45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K45" t="str">
         <f>I43&amp;K43&amp;J45</f>
@@ -16732,7 +16855,7 @@
         <v>165000</v>
       </c>
       <c r="J46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K46" t="str">
         <f>I43&amp;K43&amp;J46</f>
@@ -16756,7 +16879,7 @@
         <v>170000</v>
       </c>
       <c r="J47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K47" t="str">
         <f>I43&amp;K43&amp;J47</f>
@@ -16780,7 +16903,7 @@
         <v>175000</v>
       </c>
       <c r="J48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K48" t="str">
         <f>I43&amp;K43&amp;J48</f>
@@ -16804,16 +16927,16 @@
         <v>180000</v>
       </c>
       <c r="I49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K49" t="s">
+        <v>491</v>
+      </c>
+      <c r="M49" t="s">
         <v>492</v>
       </c>
-      <c r="M49" t="s">
+      <c r="O49" t="s">
         <v>493</v>
-      </c>
-      <c r="O49" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
@@ -16825,7 +16948,7 @@
         <v>185000</v>
       </c>
       <c r="J50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K50" t="str">
         <f>I49&amp;K49&amp;J50</f>
@@ -16849,7 +16972,7 @@
         <v>190000</v>
       </c>
       <c r="J51" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K51" t="str">
         <f>I49&amp;K49&amp;J51</f>
@@ -16873,7 +16996,7 @@
         <v>195000</v>
       </c>
       <c r="J52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K52" t="str">
         <f>I49&amp;K49&amp;J52</f>
@@ -16897,7 +17020,7 @@
         <v>200000</v>
       </c>
       <c r="J53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K53" t="str">
         <f>I49&amp;K49&amp;J53</f>
@@ -16921,7 +17044,7 @@
         <v>205000</v>
       </c>
       <c r="J54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K54" t="str">
         <f>I49&amp;K49&amp;J54</f>
@@ -16945,16 +17068,16 @@
         <v>210000</v>
       </c>
       <c r="I55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K55" t="s">
+        <v>491</v>
+      </c>
+      <c r="M55" t="s">
         <v>492</v>
       </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
         <v>493</v>
-      </c>
-      <c r="O55" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.3">
@@ -16966,7 +17089,7 @@
         <v>215000</v>
       </c>
       <c r="J56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K56" t="str">
         <f>I55&amp;K55&amp;J56</f>
@@ -16990,7 +17113,7 @@
         <v>220000</v>
       </c>
       <c r="J57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K57" t="str">
         <f>I55&amp;K55&amp;J57</f>
@@ -17014,7 +17137,7 @@
         <v>225000</v>
       </c>
       <c r="J58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K58" t="str">
         <f>I55&amp;K55&amp;J58</f>
@@ -17038,7 +17161,7 @@
         <v>250000</v>
       </c>
       <c r="J59" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K59" t="str">
         <f>I55&amp;K55&amp;J59</f>
@@ -17062,7 +17185,7 @@
         <v>275000</v>
       </c>
       <c r="J60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K60" t="str">
         <f>I55&amp;K55&amp;J60</f>
@@ -17552,12 +17675,12 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C1" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
@@ -17580,7 +17703,7 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O3" t="s">
         <v>55</v>
@@ -17621,13 +17744,13 @@
         <v>4</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>7</v>
@@ -17639,10 +17762,10 @@
         <v>11</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>9</v>
@@ -17659,7 +17782,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -17798,7 +17921,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -17864,7 +17987,7 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
@@ -17928,7 +18051,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
@@ -17992,7 +18115,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
@@ -18007,11 +18130,11 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -18025,7 +18148,7 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
@@ -18040,7 +18163,7 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -18106,7 +18229,7 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -18172,7 +18295,7 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
@@ -18236,7 +18359,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -18246,7 +18369,7 @@
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
@@ -18384,13 +18507,13 @@
         <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
@@ -18401,12 +18524,12 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
@@ -18416,17 +18539,17 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -18436,12 +18559,12 @@
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -18482,42 +18605,42 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>188</v>
       </c>
-      <c r="L1" t="s">
-        <v>189</v>
-      </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -18526,57 +18649,57 @@
         <v>111</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>173</v>
-      </c>
       <c r="R2" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>393</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -18632,7 +18755,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="3">
         <v>18</v>
@@ -18688,7 +18811,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="3">
         <v>21</v>
@@ -18743,11 +18866,11 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -18802,11 +18925,11 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="3">
         <v>28</v>
@@ -18861,11 +18984,11 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="3">
         <v>31</v>
@@ -18920,11 +19043,11 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="3">
         <v>33</v>
@@ -18979,11 +19102,11 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="12">
         <v>10</v>
@@ -19038,7 +19161,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -19054,14 +19177,14 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -19077,7 +19200,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -19113,10 +19236,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="12">
         <v>10</v>
@@ -19184,10 +19307,10 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -19241,7 +19364,7 @@
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" s="12">
         <v>35</v>
@@ -19316,10 +19439,10 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -19346,13 +19469,13 @@
         <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
@@ -19363,12 +19486,12 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
@@ -19378,27 +19501,27 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -19440,7 +19563,7 @@
         <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -19448,10 +19571,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -19504,27 +19627,27 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -19532,50 +19655,50 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" t="s">
         <v>527</v>
       </c>
-      <c r="E17" t="s">
-        <v>530</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>528</v>
-      </c>
-      <c r="G17" t="s">
-        <v>529</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E18" s="37">
         <v>250</v>
@@ -19596,21 +19719,21 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E22" s="37">
         <v>20</v>
@@ -19635,7 +19758,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19651,7 +19774,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -19689,7 +19812,7 @@
         <v>7500</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -19698,8 +19821,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="50">
-        <f>1.5*E3*1.25^H3*SQRT(G3/30)/(F3+0.5)</f>
-        <v>3181.9805153394641</v>
+        <f>IF(
+    2.1*E3*1.25^H3*SQRT(G3/30)/(F3+0.5)^0.95 &lt;= G3*400,
+    2.1*E3*1.25^H3*SQRT(G3/30)/(F3+0.5)^0.95,
+    G3*400 + 0.2*G3*400 * (1 - EXP(- (2.1*E3*1.25^H3*SQRT(G3/30)/(F3+0.5)^0.95 - G3*400) / (G3*400)))
+)</f>
+        <v>6277.306535510872</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -19707,7 +19834,7 @@
         <v>1800</v>
       </c>
       <c r="E4">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -19719,8 +19846,12 @@
         <v>0</v>
       </c>
       <c r="K4" s="50">
-        <f>1.5*E4*1.25^H4*SQRT(G4/30)/(F4+0.5)</f>
-        <v>1815.2460833714163</v>
+        <f t="shared" ref="K4:K5" si="0">IF(
+    2.1*E4*1.25^H4*SQRT(G4/30)/(F4+0.5)^0.95 &lt;= G4*400,
+    2.1*E4*1.25^H4*SQRT(G4/30)/(F4+0.5)^0.95,
+    G4*400 + 0.2*G4*400 * (1 - EXP(- (2.1*E4*1.25^H4*SQRT(G4/30)/(F4+0.5)^0.95 - G4*400) / (G4*400)))
+)</f>
+        <v>1860.4497861632703</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -19743,13 +19874,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="48">
-        <f>1.5*E5*1.25^H5*SQRT(G5/30)/(F5+0.5)</f>
-        <v>2640.6704633232384</v>
+        <f t="shared" si="0"/>
+        <v>4025.8758493764772</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>139</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -19766,7 +19897,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>31</v>
@@ -19813,10 +19944,10 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -19831,7 +19962,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19861,7 +19992,7 @@
         <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>81</v>
@@ -20003,28 +20134,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -20142,7 +20273,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
@@ -20162,12 +20293,12 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -20209,13 +20340,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
         <v>42</v>
@@ -20227,7 +20358,7 @@
         <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -20235,7 +20366,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -20244,48 +20375,48 @@
         <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="H2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="N2" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>203</v>
-      </c>
       <c r="Q2" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -20324,7 +20455,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="12">
         <v>35</v>
@@ -20362,7 +20493,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
@@ -20375,14 +20506,14 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="3"/>
@@ -20393,7 +20524,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
@@ -20406,34 +20537,34 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="N8" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
@@ -20454,11 +20585,11 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -20477,7 +20608,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -20490,10 +20621,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>14</v>
@@ -20502,32 +20633,32 @@
         <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
@@ -20559,7 +20690,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="21">
         <v>0</v>
@@ -20584,10 +20715,10 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="22">
         <v>1</v>
@@ -20616,7 +20747,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="22">
         <v>1</v>
@@ -20641,7 +20772,7 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="22">
         <v>1</v>
@@ -20667,7 +20798,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="22">
         <v>1</v>
@@ -20692,16 +20823,16 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
@@ -20709,52 +20840,52 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="H22" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="I22" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="J22" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="L22" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="N22" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q22" s="26" t="s">
         <v>242</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" s="21">
         <v>1</v>
@@ -20799,7 +20930,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E24" s="22">
         <v>0</v>
@@ -20842,7 +20973,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E25" s="22">
         <v>0</v>
@@ -20881,7 +21012,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E26" s="22">
         <v>0</v>
@@ -20919,10 +21050,10 @@
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -20930,14 +21061,14 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="N27" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -20948,7 +21079,7 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -20956,13 +21087,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
@@ -20973,7 +21104,7 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -21006,39 +21137,39 @@
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D2" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="G2" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>93</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" s="34">
         <v>1.5</v>
@@ -21075,7 +21206,7 @@
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D4" s="34">
         <v>4</v>
@@ -21112,7 +21243,7 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D5" s="34">
         <v>4</v>
@@ -21149,7 +21280,7 @@
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
@@ -21186,53 +21317,53 @@
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I12" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K12" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="L12" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="L12" s="33" t="s">
-        <v>345</v>
-      </c>
       <c r="M12" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H13" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J13" s="45">
         <v>20</v>
@@ -21251,19 +21382,19 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D14" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>402</v>
-      </c>
       <c r="F14" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J14" s="45">
         <v>0</v>
@@ -21282,13 +21413,13 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E15" s="40">
         <v>1</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J15" s="45">
         <v>0</v>
@@ -21303,13 +21434,13 @@
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E16" s="40">
         <v>2</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J16" s="45">
         <v>0</v>
@@ -21324,13 +21455,13 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E17" s="40">
         <v>3</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J17" s="45">
         <v>0</v>
@@ -21345,16 +21476,16 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E18" s="40">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J18" s="45">
         <v>0</v>
@@ -21369,16 +21500,16 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E19" s="40">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J19" s="45">
         <v>0</v>
@@ -21393,16 +21524,16 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20" s="40">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J20" s="45">
         <v>0</v>
@@ -21417,16 +21548,16 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E21" s="40">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J21" s="45">
         <v>0</v>
@@ -21441,13 +21572,13 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E22" s="40">
         <v>8</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J22" s="45">
         <v>0</v>
@@ -21462,7 +21593,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E23" s="40">
         <v>9</v>
@@ -21470,18 +21601,18 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>413</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I25" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>14</v>
@@ -21490,19 +21621,19 @@
         <v>36</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M25" s="38" t="s">
         <v>87</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
@@ -21510,7 +21641,7 @@
         <v>86</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J26" s="45">
         <v>20</v>
@@ -21538,10 +21669,10 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="H27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I27" s="46" t="s">
         <v>355</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>356</v>
       </c>
       <c r="J27" s="45">
         <v>0</v>
@@ -21569,7 +21700,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I28" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J28" s="45">
         <v>0</v>
@@ -21593,7 +21724,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I29" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J29" s="45">
         <v>0</v>
@@ -21617,7 +21748,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I30" s="46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J30" s="45">
         <v>0</v>
@@ -21641,7 +21772,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I31" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J31" s="45">
         <v>0</v>
@@ -21665,7 +21796,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I32" s="46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J32" s="45">
         <v>0</v>
@@ -21725,74 +21856,74 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C2" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F2" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>449</v>
-      </c>
       <c r="K2" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N2" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="S2" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="R2" s="35" t="s">
+      <c r="T2" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="S2" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="35" t="s">
         <v>458</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>459</v>
       </c>
       <c r="V2" s="35" t="s">
         <v>81</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
@@ -21867,7 +21998,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
@@ -21942,7 +22073,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C5" s="34">
         <v>3</v>
@@ -22017,7 +22148,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C6" s="34">
         <v>4</v>
@@ -22092,7 +22223,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C7" s="34">
         <v>5</v>
@@ -22167,7 +22298,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
@@ -22242,57 +22373,57 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="15"/>
       <c r="D12" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -22300,244 +22431,244 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>402</v>
-      </c>
       <c r="D20" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C21" s="40">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K21" s="40">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C22" s="40">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K22" s="40">
         <v>1.5</v>
       </c>
       <c r="L22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C23" s="40">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K23" s="40">
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C24" s="40">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C25" s="40">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" s="40">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C27" s="40">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G27" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="H27" s="35" t="s">
-        <v>402</v>
-      </c>
       <c r="J27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K27" s="40">
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C28" s="40">
         <v>8</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H28" s="40">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K28" s="40">
         <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C29" s="40">
         <v>9</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H29" s="40">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K29" s="40">
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="C30" s="44" t="s">
-        <v>413</v>
-      </c>
       <c r="G30" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H30" s="40">
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H31" s="40">
         <v>4</v>
@@ -22545,36 +22676,36 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>464</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>465</v>
       </c>
       <c r="D32" s="44"/>
       <c r="G32" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H32" s="40">
         <v>5</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.3">
       <c r="K33" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G34" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.3">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D952F950-BA6C-4EBE-9D6A-8DD38B673C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D9CDA-60B1-449E-ABE2-A24895ADB01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3151,7 +3151,7 @@
   <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3442,7 +3442,7 @@
         <v>273.97260273972603</v>
       </c>
       <c r="AC3">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1346.0995006284018</v>
       </c>
       <c r="AD3">
@@ -3582,7 +3582,7 @@
         <v>177.77777777777777</v>
       </c>
       <c r="AC4">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>3089.950982653791</v>
       </c>
       <c r="AD4">
@@ -3725,7 +3725,7 @@
         <v>834.20229405630869</v>
       </c>
       <c r="AC5">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2916.1863740541503</v>
       </c>
       <c r="AD5">
@@ -3866,7 +3866,7 @@
         <v>225.98870056497177</v>
       </c>
       <c r="AC6">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>3875.5988913635333</v>
       </c>
       <c r="AD6">
@@ -4007,7 +4007,7 @@
         <v>983.60655737704917</v>
       </c>
       <c r="AC7">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>4497.3035285639362</v>
       </c>
       <c r="AD7">
@@ -4148,7 +4148,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="AC8">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>6077.7069841416824</v>
       </c>
       <c r="AD8">
@@ -4300,7 +4300,7 @@
         <v>114.72275334608031</v>
       </c>
       <c r="AC10">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1322.1865617882506</v>
       </c>
       <c r="AD10">
@@ -4446,7 +4446,7 @@
         <v>352.94117647058823</v>
       </c>
       <c r="AC11">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2134.8430439696476</v>
       </c>
       <c r="AD11">
@@ -4592,7 +4592,7 @@
         <v>145.98540145985402</v>
       </c>
       <c r="AC12">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1308.3323530734312</v>
       </c>
       <c r="AD12">
@@ -4735,7 +4735,7 @@
         <v>114.72275334608031</v>
       </c>
       <c r="AC13">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2489.0361493029359</v>
       </c>
       <c r="AD13">
@@ -4876,7 +4876,7 @@
         <v>174.86338797814207</v>
       </c>
       <c r="AC14">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2567.7053483038139</v>
       </c>
       <c r="AD14">
@@ -5017,7 +5017,7 @@
         <v>428.57142857142861</v>
       </c>
       <c r="AC15">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 10 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (50 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1703.513607473808</v>
       </c>
       <c r="AD15">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D9CDA-60B1-449E-ABE2-A24895ADB01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA1257-7474-4B02-9D3D-1A0682F98D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3151,7 +3151,7 @@
   <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5207,8 +5207,8 @@
         <v>1</v>
       </c>
       <c r="S26" s="52">
-        <f>Q26*0.8+Q26*0.5/R26+0.1</f>
-        <v>4</v>
+        <f>Q26*1.1+Q26*0.5/R26-0.8</f>
+        <v>4.0000000000000009</v>
       </c>
       <c r="AM26" s="2" t="s">
         <v>265</v>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA1257-7474-4B02-9D3D-1A0682F98D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D1A3D2-7AC7-4A88-AB82-1CF1778052FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3442,7 +3442,7 @@
         <v>273.97260273972603</v>
       </c>
       <c r="AC3">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1346.0995006284018</v>
       </c>
       <c r="AD3">
@@ -3582,7 +3582,7 @@
         <v>177.77777777777777</v>
       </c>
       <c r="AC4">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>3089.950982653791</v>
       </c>
       <c r="AD4">
@@ -3725,7 +3725,7 @@
         <v>834.20229405630869</v>
       </c>
       <c r="AC5">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2916.1863740541503</v>
       </c>
       <c r="AD5">
@@ -3866,7 +3866,7 @@
         <v>225.98870056497177</v>
       </c>
       <c r="AC6">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>3875.5988913635333</v>
       </c>
       <c r="AD6">
@@ -4007,7 +4007,7 @@
         <v>983.60655737704917</v>
       </c>
       <c r="AC7">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>4497.3035285639362</v>
       </c>
       <c r="AD7">
@@ -4148,7 +4148,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="AC8">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>6077.7069841416824</v>
       </c>
       <c r="AD8">
@@ -4300,7 +4300,7 @@
         <v>114.72275334608031</v>
       </c>
       <c r="AC10">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1322.1865617882506</v>
       </c>
       <c r="AD10">
@@ -4446,7 +4446,7 @@
         <v>352.94117647058823</v>
       </c>
       <c r="AC11">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2134.8430439696476</v>
       </c>
       <c r="AD11">
@@ -4592,7 +4592,7 @@
         <v>145.98540145985402</v>
       </c>
       <c r="AC12">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1308.3323530734312</v>
       </c>
       <c r="AD12">
@@ -4735,7 +4735,7 @@
         <v>114.72275334608031</v>
       </c>
       <c r="AC13">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2489.0361493029359</v>
       </c>
       <c r="AD13">
@@ -4876,7 +4876,7 @@
         <v>174.86338797814207</v>
       </c>
       <c r="AC14">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>2567.7053483038139</v>
       </c>
       <c r="AD14">
@@ -5017,7 +5017,7 @@
         <v>428.57142857142861</v>
       </c>
       <c r="AC15">
-        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]],表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 12 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (6 * 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
+        <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
         <v>1703.513607473808</v>
       </c>
       <c r="AD15">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D1A3D2-7AC7-4A88-AB82-1CF1778052FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA80986-E591-471E-B238-A8EAC9B5A679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="544">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,14 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拥有购买以外获取方式的武器请勿添加由装备价格获取的正向加权层数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权层数：此处的加权层数与前页的数值计算的【由额外的装备价格而获取的加权层级】对应，不计算其他类型的加权层数。金币装备的加层层数通常为最大一层，k点装备的加层层数通常为最大两层，不可叠加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,10 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.低价合成计1层，高价加成+1层，K点加成+1层。2.高价加成参考装备价格页面的计算。3.全新玩法可获得版本红利期，期间可额外叠加1层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1038,10 +1026,6 @@
     <t>掉落素材3</t>
   </si>
   <si>
-    <t>材料价格、装备折算价格、掉落物价格可参考下方计算。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本计算公式暂定为1攻=1.5防=3hp=3mp，1重量=3.3攻=5防=10hp=10mp，1攻=0.8空手加成=1伤害加成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1252,10 +1236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强度远超等级限制的彩蛋装备：可以解锁超过2层的价格系数，但大于2层时【种族系数】额外+1，即最低为2，高种姓装备或强力特效装备的种族系数填2.5-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果已经完全理解公式的运作原理，并有特殊需求，为方便数值计算和价格微调，此处价格与其他页所关联的对应加权层数可同步填带有小数的值，如1.5、-0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2052,10 +2032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>种类系数：有主动战技/特效的可为1.5，效果极其强力时为2。无购买途径或非购买途径早于购买途径的为0.5，逻辑同上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喷火/次级穿刺子弹/高弹速穿刺狙击枪的穿刺系数为1.5，普通穿刺为2，非穿刺为1（其他拥有穿刺效果根据单体段数数量填入穿刺系数，段数较多时可填3或更高的穿刺系数）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2160,6 +2136,42 @@
   </si>
   <si>
     <t>榴弹类子弹抛物线难以瞄准，可以以2倍弹药价格填入作为强度补正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料价格、装备折算价格、掉落物价格可参考下方计算。种族系数参考上一页装备价格页的注释。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有主动战技/特效的可为1.5，效果极其强力时为2。无购买途径或非购买途径早于购买途径的为0.5，逻辑同上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权层数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低价合成计1层，高价加成+1层，K点加成+1层。合成装备最低为1层，无需k点时最高为2层，需要k点时可填入2或3层。40级以上的装备解锁第4层。确定层级后填入表中的加权层级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有购买以外获取方式的武器装备请勿添加由装备价格获取的正向加权层数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强度远超等级限制的彩蛋装备：可以解锁超过2层的价格系数，但大于2层时【种族系数】额外+1，即最低为2，此时高种姓装备或强力特效装备的种族系数填2.5-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高价加成的详细解释请参考装备价格页面的计算。全新玩法可获得版本红利期，期间可额外叠加1层，仅在装备数值页计入，不计入合成成本，无需填入此公式。其他特殊来源加权同样不计入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处的加权层数与前页的数值计算的【由额外的装备价格而获取的加权层级】对应，不计算其他类型的加权层数。金币装备的加层层数通常为最大一层，k点装备的加层层数通常为最大两层，不可叠加。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2839,12 +2851,12 @@
     <tableColumn id="2" xr3:uid="{38C83168-75A9-42D4-B880-FC4C4C7E3C7C}" name="具体装备"/>
     <tableColumn id="7" xr3:uid="{DECF0420-487B-464B-A146-D5284349B3BD}" name="限制等级"/>
     <tableColumn id="11" xr3:uid="{DA99A9C0-2613-4A06-AB4E-09D8270A7436}" name="加权层数" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EEE51630-F59A-4424-BF8A-9DCB8216F61C}" name="金币需求"/>
-    <tableColumn id="4" xr3:uid="{2D1B6CA9-69B2-4514-8C8A-6903E1E6E5B4}" name="K点需求"/>
-    <tableColumn id="5" xr3:uid="{082A6221-E42F-4A2B-A99C-A6FF346D4B68}" name="材料价格"/>
-    <tableColumn id="6" xr3:uid="{782FEFA7-3376-4DF1-ACF6-09C6BA0C3D0A}" name="装备折算价格"/>
-    <tableColumn id="8" xr3:uid="{08D7957F-427D-4716-92B4-8BAEB7939CD4}" name="掉落物折算价格"/>
-    <tableColumn id="9" xr3:uid="{E466C456-790B-44B9-A7C4-75C77501A694}" name="列3"/>
+    <tableColumn id="3" xr3:uid="{EEE51630-F59A-4424-BF8A-9DCB8216F61C}" name="种族系数"/>
+    <tableColumn id="4" xr3:uid="{2D1B6CA9-69B2-4514-8C8A-6903E1E6E5B4}" name="金币需求"/>
+    <tableColumn id="5" xr3:uid="{082A6221-E42F-4A2B-A99C-A6FF346D4B68}" name="K点需求"/>
+    <tableColumn id="6" xr3:uid="{782FEFA7-3376-4DF1-ACF6-09C6BA0C3D0A}" name="材料价格"/>
+    <tableColumn id="8" xr3:uid="{08D7957F-427D-4716-92B4-8BAEB7939CD4}" name="装备折算价格"/>
+    <tableColumn id="9" xr3:uid="{E466C456-790B-44B9-A7C4-75C77501A694}" name="掉落物折算价格"/>
     <tableColumn id="10" xr3:uid="{995A9B28-E84F-429E-BD2C-ED27E50A43E4}" name="列4"/>
     <tableColumn id="12" xr3:uid="{C7E6C8C3-F73C-4B0C-B077-0D53898223E1}" name="列1"/>
     <tableColumn id="13" xr3:uid="{AFD19477-D97A-4E08-876A-17DB63806F64}" name="当前成本"/>
@@ -3195,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
@@ -3210,33 +3222,33 @@
         <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
         <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="V1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>49</v>
@@ -3257,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -3266,100 +3278,100 @@
         <v>4</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q2" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>290</v>
-      </c>
       <c r="T2" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM2" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AI2" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="AN2" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AQ2" s="14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -3644,10 +3656,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3791,7 +3803,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D6" s="12">
         <v>30</v>
@@ -3928,11 +3940,11 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D7" s="12">
         <v>28</v>
@@ -4069,11 +4081,11 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D8" s="12">
         <v>35</v>
@@ -4210,13 +4222,13 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>16</v>
@@ -4362,7 +4374,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>21</v>
@@ -4508,10 +4520,10 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>46</v>
@@ -4654,13 +4666,13 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D13" s="12">
         <v>30</v>
@@ -4797,11 +4809,11 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D14" s="12">
         <v>32</v>
@@ -4938,11 +4950,11 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D15" s="12">
         <v>15</v>
@@ -5082,20 +5094,20 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -5110,40 +5122,40 @@
     <row r="18" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="2:43" x14ac:dyDescent="0.3">
@@ -5154,43 +5166,43 @@
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="S25" s="39" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AN25" t="s">
         <v>89</v>
       </c>
       <c r="AO25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP25" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AQ25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:43" x14ac:dyDescent="0.3">
@@ -5198,7 +5210,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="37">
         <v>3</v>
@@ -5211,7 +5223,7 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AN26" s="28">
         <v>10</v>
@@ -5229,10 +5241,10 @@
     </row>
     <row r="27" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q27" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AN27" s="28">
         <v>20</v>
@@ -5250,10 +5262,10 @@
     </row>
     <row r="28" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q28" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AN28" s="28">
         <v>30</v>
@@ -5289,7 +5301,7 @@
     </row>
     <row r="30" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AN30" s="28">
         <v>50</v>
@@ -5307,10 +5319,10 @@
     </row>
     <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AN31" s="12">
         <v>35</v>
@@ -5330,10 +5342,10 @@
     </row>
     <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AO32" s="16">
         <f>IF(AN31&gt;=35,17*AN31-330,7*AN31+15) * IF(AN31&gt;=25, 1 + (MIN(13,(AN31-18)/3.5) - 1) * (MIN(13,(AN31-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(AN31-18)/3.5)  - 1),1)</f>
@@ -5342,7 +5354,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -5413,13 +5425,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>74</v>
@@ -5488,7 +5500,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -5500,7 +5512,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
         <v>62</v>
@@ -5521,7 +5533,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -5539,7 +5551,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>62</v>
@@ -5563,7 +5575,7 @@
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -5575,7 +5587,7 @@
         <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
         <v>62</v>
@@ -5603,7 +5615,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
         <v>62</v>
@@ -5625,7 +5637,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
         <v>62</v>
@@ -14181,7 +14193,7 @@
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G114">
         <v>393220.33898305101</v>
@@ -14215,10 +14227,10 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -14226,7 +14238,7 @@
         <v>109</v>
       </c>
       <c r="S2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -14258,13 +14270,13 @@
         <v>114</v>
       </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R5" t="s">
         <v>110</v>
       </c>
       <c r="S5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T5" t="s">
         <v>112</v>
@@ -15482,7 +15494,7 @@
         <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
@@ -15496,43 +15508,43 @@
         <v>124</v>
       </c>
       <c r="J3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M3" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" t="s">
+        <v>380</v>
+      </c>
+      <c r="O3" t="s">
         <v>378</v>
       </c>
-      <c r="K3" t="s">
-        <v>379</v>
-      </c>
-      <c r="L3" t="s">
-        <v>380</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>376</v>
+      </c>
+      <c r="R3" t="s">
         <v>384</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
         <v>385</v>
       </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
+        <v>377</v>
+      </c>
+      <c r="U3" t="s">
+        <v>382</v>
+      </c>
+      <c r="V3" t="s">
         <v>383</v>
-      </c>
-      <c r="P3" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>381</v>
-      </c>
-      <c r="R3" t="s">
-        <v>389</v>
-      </c>
-      <c r="S3" t="s">
-        <v>390</v>
-      </c>
-      <c r="T3" t="s">
-        <v>382</v>
-      </c>
-      <c r="U3" t="s">
-        <v>387</v>
-      </c>
-      <c r="V3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -16345,13 +16357,13 @@
         <v>55000</v>
       </c>
       <c r="H24" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I24" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J24" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.3">
@@ -16363,16 +16375,16 @@
         <v>60000</v>
       </c>
       <c r="I25" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K25" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M25" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O25" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.3">
@@ -16384,7 +16396,7 @@
         <v>65000</v>
       </c>
       <c r="J26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K26" t="str">
         <f>I25&amp;K25&amp;J26</f>
@@ -16408,7 +16420,7 @@
         <v>70000</v>
       </c>
       <c r="J27" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K27" t="str">
         <f>I25&amp;K25&amp;J27</f>
@@ -16432,7 +16444,7 @@
         <v>75000</v>
       </c>
       <c r="J28" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K28" t="str">
         <f>I25&amp;K25&amp;J28</f>
@@ -16456,7 +16468,7 @@
         <v>80000</v>
       </c>
       <c r="J29" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K29" t="str">
         <f>I25&amp;K25&amp;J29</f>
@@ -16480,7 +16492,7 @@
         <v>85000</v>
       </c>
       <c r="J30" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K30" t="str">
         <f>I25&amp;K25&amp;J30</f>
@@ -16504,16 +16516,16 @@
         <v>90000</v>
       </c>
       <c r="I31" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K31" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M31" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O31" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
@@ -16525,7 +16537,7 @@
         <v>95000</v>
       </c>
       <c r="J32" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K32" t="str">
         <f>I31&amp;K31&amp;J32</f>
@@ -16549,7 +16561,7 @@
         <v>100000</v>
       </c>
       <c r="J33" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K33" t="str">
         <f>I31&amp;K31&amp;J33</f>
@@ -16573,7 +16585,7 @@
         <v>105000</v>
       </c>
       <c r="J34" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K34" t="str">
         <f>I31&amp;K31&amp;J34</f>
@@ -16597,7 +16609,7 @@
         <v>110000</v>
       </c>
       <c r="J35" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K35" t="str">
         <f>I31&amp;K31&amp;J35</f>
@@ -16621,7 +16633,7 @@
         <v>115000</v>
       </c>
       <c r="J36" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K36" t="str">
         <f>I31&amp;K31&amp;J36</f>
@@ -16645,16 +16657,16 @@
         <v>120000</v>
       </c>
       <c r="I37" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K37" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M37" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O37" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.3">
@@ -16666,7 +16678,7 @@
         <v>125000</v>
       </c>
       <c r="J38" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K38" t="str">
         <f>I37&amp;K37&amp;J38</f>
@@ -16690,7 +16702,7 @@
         <v>130000</v>
       </c>
       <c r="J39" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K39" t="str">
         <f>I37&amp;K37&amp;J39</f>
@@ -16714,7 +16726,7 @@
         <v>135000</v>
       </c>
       <c r="J40" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K40" t="str">
         <f>I37&amp;K37&amp;J40</f>
@@ -16738,7 +16750,7 @@
         <v>140000</v>
       </c>
       <c r="J41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K41" t="str">
         <f>I37&amp;K37&amp;J41</f>
@@ -16762,7 +16774,7 @@
         <v>145000</v>
       </c>
       <c r="J42" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K42" t="str">
         <f>I37&amp;K37&amp;J42</f>
@@ -16786,16 +16798,16 @@
         <v>150000</v>
       </c>
       <c r="I43" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K43" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M43" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O43" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.3">
@@ -16807,7 +16819,7 @@
         <v>155000</v>
       </c>
       <c r="J44" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K44" t="str">
         <f>I43&amp;K43&amp;J44</f>
@@ -16831,7 +16843,7 @@
         <v>160000</v>
       </c>
       <c r="J45" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K45" t="str">
         <f>I43&amp;K43&amp;J45</f>
@@ -16855,7 +16867,7 @@
         <v>165000</v>
       </c>
       <c r="J46" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K46" t="str">
         <f>I43&amp;K43&amp;J46</f>
@@ -16879,7 +16891,7 @@
         <v>170000</v>
       </c>
       <c r="J47" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K47" t="str">
         <f>I43&amp;K43&amp;J47</f>
@@ -16903,7 +16915,7 @@
         <v>175000</v>
       </c>
       <c r="J48" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K48" t="str">
         <f>I43&amp;K43&amp;J48</f>
@@ -16927,16 +16939,16 @@
         <v>180000</v>
       </c>
       <c r="I49" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K49" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M49" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O49" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
@@ -16948,7 +16960,7 @@
         <v>185000</v>
       </c>
       <c r="J50" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K50" t="str">
         <f>I49&amp;K49&amp;J50</f>
@@ -16972,7 +16984,7 @@
         <v>190000</v>
       </c>
       <c r="J51" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K51" t="str">
         <f>I49&amp;K49&amp;J51</f>
@@ -16996,7 +17008,7 @@
         <v>195000</v>
       </c>
       <c r="J52" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K52" t="str">
         <f>I49&amp;K49&amp;J52</f>
@@ -17020,7 +17032,7 @@
         <v>200000</v>
       </c>
       <c r="J53" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K53" t="str">
         <f>I49&amp;K49&amp;J53</f>
@@ -17044,7 +17056,7 @@
         <v>205000</v>
       </c>
       <c r="J54" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K54" t="str">
         <f>I49&amp;K49&amp;J54</f>
@@ -17068,16 +17080,16 @@
         <v>210000</v>
       </c>
       <c r="I55" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K55" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M55" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.3">
@@ -17089,7 +17101,7 @@
         <v>215000</v>
       </c>
       <c r="J56" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K56" t="str">
         <f>I55&amp;K55&amp;J56</f>
@@ -17113,7 +17125,7 @@
         <v>220000</v>
       </c>
       <c r="J57" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K57" t="str">
         <f>I55&amp;K55&amp;J57</f>
@@ -17137,7 +17149,7 @@
         <v>225000</v>
       </c>
       <c r="J58" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K58" t="str">
         <f>I55&amp;K55&amp;J58</f>
@@ -17161,7 +17173,7 @@
         <v>250000</v>
       </c>
       <c r="J59" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K59" t="str">
         <f>I55&amp;K55&amp;J59</f>
@@ -17185,7 +17197,7 @@
         <v>275000</v>
       </c>
       <c r="J60" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K60" t="str">
         <f>I55&amp;K55&amp;J60</f>
@@ -17675,12 +17687,12 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C1" s="29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
@@ -17703,7 +17715,7 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
         <v>55</v>
@@ -17744,13 +17756,13 @@
         <v>4</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>7</v>
@@ -17762,10 +17774,10 @@
         <v>11</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>9</v>
@@ -17782,7 +17794,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -17921,7 +17933,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -17987,7 +17999,7 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
@@ -18051,7 +18063,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
@@ -18115,7 +18127,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
@@ -18130,11 +18142,11 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -18148,7 +18160,7 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
@@ -18163,7 +18175,7 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -18229,7 +18241,7 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -18295,7 +18307,7 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
@@ -18359,7 +18371,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -18369,7 +18381,7 @@
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
@@ -18507,13 +18519,13 @@
         <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
@@ -18524,12 +18536,12 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
@@ -18539,17 +18551,17 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -18559,12 +18571,12 @@
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -18605,42 +18617,42 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>186</v>
       </c>
-      <c r="K1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" t="s">
-        <v>188</v>
-      </c>
       <c r="M1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -18649,57 +18661,57 @@
         <v>111</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="S2" s="14" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -18755,7 +18767,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3">
         <v>18</v>
@@ -18811,7 +18823,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D5" s="3">
         <v>21</v>
@@ -18866,11 +18878,11 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D6" s="3">
         <v>20</v>
@@ -18925,11 +18937,11 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="3">
         <v>28</v>
@@ -18984,11 +18996,11 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="3">
         <v>31</v>
@@ -19043,11 +19055,11 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="3">
         <v>33</v>
@@ -19102,11 +19114,11 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="12">
         <v>10</v>
@@ -19161,7 +19173,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -19177,14 +19189,14 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -19200,7 +19212,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -19236,10 +19248,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="12">
         <v>10</v>
@@ -19307,10 +19319,10 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -19364,7 +19376,7 @@
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D18" s="12">
         <v>35</v>
@@ -19439,10 +19451,10 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -19469,13 +19481,13 @@
         <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
@@ -19486,12 +19498,12 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
@@ -19501,27 +19513,27 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -19563,7 +19575,7 @@
         <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -19571,10 +19583,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -19627,27 +19639,27 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -19655,50 +19667,50 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F17" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G17" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E18" s="37">
         <v>250</v>
@@ -19719,21 +19731,21 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J21" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E22" s="37">
         <v>20</v>
@@ -19774,7 +19786,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -19880,7 +19892,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -19897,7 +19909,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>31</v>
@@ -19944,10 +19956,10 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="42" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D17" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -19962,7 +19974,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19992,7 +20004,7 @@
         <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>81</v>
@@ -20134,28 +20146,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>310</v>
+      <c r="C12" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -20272,13 +20284,19 @@
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>513</v>
+      <c r="C22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>130</v>
+      <c r="C25" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D25" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
@@ -20288,17 +20306,17 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>129</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>308</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -20310,10 +20328,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF21AD2-DDB9-4BC1-9A90-C782109DDD58}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20327,9 +20345,9 @@
     <col min="7" max="7" width="12.08203125" customWidth="1"/>
     <col min="8" max="8" width="8.58203125" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="12.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" customWidth="1"/>
     <col min="13" max="13" width="6.08203125" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" customWidth="1"/>
     <col min="15" max="15" width="11.25" customWidth="1"/>
@@ -20340,25 +20358,16 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="N1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -20366,7 +20375,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>14</v>
@@ -20374,49 +20383,49 @@
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N2" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>202</v>
-      </c>
       <c r="Q2" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -20424,19 +20433,22 @@
       <c r="E3" s="21">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6500</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>23400</v>
       </c>
       <c r="N3">
@@ -20444,7 +20456,7 @@
         <v>41900</v>
       </c>
       <c r="O3">
-        <f>表2_4[[#This Row],[限制等级]]*2000</f>
+        <f>表2_4[[#This Row],[限制等级]]*2000*表2_4[[#This Row],[种族系数]]</f>
         <v>42000</v>
       </c>
       <c r="P3">
@@ -20455,7 +20467,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="12">
         <v>35</v>
@@ -20463,11 +20475,11 @@
       <c r="E4" s="22">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
         <v>70000</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -20476,6 +20488,9 @@
         <v>0</v>
       </c>
       <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
         <v>0</v>
       </c>
       <c r="N4" s="17">
@@ -20483,7 +20498,7 @@
         <v>70000</v>
       </c>
       <c r="O4">
-        <f>表2_4[[#This Row],[限制等级]]*2000</f>
+        <f>表2_4[[#This Row],[限制等级]]*2000*表2_4[[#This Row],[种族系数]]</f>
         <v>70000</v>
       </c>
       <c r="P4" s="17">
@@ -20493,7 +20508,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
@@ -20506,14 +20521,14 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>254</v>
+        <v>536</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="3"/>
@@ -20524,7 +20539,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
@@ -20537,34 +20552,34 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="N8" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
@@ -20579,17 +20594,17 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="N9" s="3">
-        <f>1000*表2_4[[#This Row],[限制等级]]+3000*表2_4[[#This Row],[加权层数]]+5000*表2_4[[#This Row],[金币需求]]</f>
-        <v>10000</v>
+        <f>1000*表2_4[[#This Row],[限制等级]]+6000*表2_4[[#This Row],[加权层数]]+50000*表2_4[[#This Row],[种族系数]]</f>
+        <v>55000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -20602,13 +20617,13 @@
       </c>
       <c r="G10" s="3"/>
       <c r="N10" s="17">
-        <f>1000*表2_4[[#This Row],[限制等级]]+3000*表2_4[[#This Row],[加权层数]]+5000*表2_4[[#This Row],[金币需求]]</f>
+        <f>1000*表2_4[[#This Row],[限制等级]]+6000*表2_4[[#This Row],[加权层数]]+50000*表2_4[[#This Row],[种族系数]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
@@ -20621,10 +20636,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>14</v>
@@ -20633,32 +20648,32 @@
         <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
@@ -20676,21 +20691,21 @@
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <f>表2_4[[#This Row],[装备折算价格]]*0.25 * E13*3900*(1.6)^(F13)*H13/G13</f>
+        <f>表2_4[[#This Row],[材料价格]]*0.25 * E13*3900*(1.6)^(F13)*H13/G13</f>
         <v>6500</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13">
-        <f>表2_4[[#This Row],[掉落物折算价格]]+J14</f>
+        <f>表2_4[[#This Row],[装备折算价格]]+J14</f>
         <v>6500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="21">
         <v>0</v>
@@ -20708,17 +20723,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <f>表2_4[[#This Row],[装备折算价格]]*0.25 * E14*3900*(1.6)^(F14)*H14/G14</f>
+        <f>表2_4[[#This Row],[材料价格]]*0.25 * E14*3900*(1.6)^(F14)*H14/G14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E15" s="22">
         <v>1</v>
@@ -20736,18 +20751,18 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>表2_4[[#This Row],[装备折算价格]]*0.25 * E15*3900*(1.6)^(F15)*H15/G15</f>
+        <f>表2_4[[#This Row],[材料价格]]*0.25 * E15*3900*(1.6)^(F15)*H15/G15</f>
         <v>0</v>
       </c>
       <c r="N15" s="17">
-        <f>表2_4[[#This Row],[掉落物折算价格]]+J16+J17+J18</f>
+        <f>表2_4[[#This Row],[装备折算价格]]+J16+J17+J18</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E16" s="22">
         <v>1</v>
@@ -20765,14 +20780,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <f>表2_4[[#This Row],[装备折算价格]]*0.25 * E16*3900*(1.6)^(F16)*H16/G16</f>
+        <f>表2_4[[#This Row],[材料价格]]*0.25 * E16*3900*(1.6)^(F16)*H16/G16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E17" s="22">
         <v>1</v>
@@ -20790,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f>表2_4[[#This Row],[装备折算价格]]*0.25 * E17*3900*(1.6)^(F17)*H17/G17</f>
+        <f>表2_4[[#This Row],[材料价格]]*0.25 * E17*3900*(1.6)^(F17)*H17/G17</f>
         <v>0</v>
       </c>
     </row>
@@ -20798,7 +20813,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E18" s="22">
         <v>1</v>
@@ -20816,23 +20831,23 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f>表2_4[[#This Row],[装备折算价格]]*0.25 * E18*3900*(1.6)^(F18)*H18/G18</f>
+        <f>表2_4[[#This Row],[材料价格]]*0.25 * E18*3900*(1.6)^(F18)*H18/G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
@@ -20840,52 +20855,52 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="I22" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="J22" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="K22" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="L22" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="N22" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q22" s="26" t="s">
         <v>240</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E23" s="21">
         <v>1</v>
@@ -20916,11 +20931,11 @@
         <v>23400</v>
       </c>
       <c r="P23">
-        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[金币需求]]*13000*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[材料价格]]*表2_4[[#This Row],[掉落物折算价格]])/(表2_4[[#This Row],[装备折算价格]])</f>
+        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[种族系数]]*13000*表2_4[[#This Row],[金币需求]]*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[装备折算价格]])/(表2_4[[#This Row],[材料价格]])</f>
         <v>23400</v>
       </c>
       <c r="Q23">
-        <f>MIN(表2_4[[#This Row],[列3]],表2_4[[#This Row],[列4]]*30)</f>
+        <f>MIN(表2_4[[#This Row],[掉落物折算价格]],表2_4[[#This Row],[列4]]*30)</f>
         <v>30000</v>
       </c>
     </row>
@@ -20930,7 +20945,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E24" s="22">
         <v>0</v>
@@ -20961,11 +20976,11 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[金币需求]]*13000*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[材料价格]]*表2_4[[#This Row],[掉落物折算价格]])/(表2_4[[#This Row],[装备折算价格]])</f>
+        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[种族系数]]*13000*表2_4[[#This Row],[金币需求]]*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[装备折算价格]])/(表2_4[[#This Row],[材料价格]])</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>MIN(表2_4[[#This Row],[列3]],表2_4[[#This Row],[列4]]*30)</f>
+        <f>MIN(表2_4[[#This Row],[掉落物折算价格]],表2_4[[#This Row],[列4]]*30)</f>
         <v>0</v>
       </c>
     </row>
@@ -20973,7 +20988,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E25" s="22">
         <v>0</v>
@@ -21000,11 +21015,11 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[金币需求]]*13000*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[材料价格]]*表2_4[[#This Row],[掉落物折算价格]])/(表2_4[[#This Row],[装备折算价格]])</f>
+        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[种族系数]]*13000*表2_4[[#This Row],[金币需求]]*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[装备折算价格]])/(表2_4[[#This Row],[材料价格]])</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>MIN(表2_4[[#This Row],[列3]],表2_4[[#This Row],[列4]]*30)</f>
+        <f>MIN(表2_4[[#This Row],[掉落物折算价格]],表2_4[[#This Row],[列4]]*30)</f>
         <v>0</v>
       </c>
     </row>
@@ -21012,7 +21027,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E26" s="22">
         <v>0</v>
@@ -21039,21 +21054,21 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[金币需求]]*13000*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[材料价格]]*表2_4[[#This Row],[掉落物折算价格]])/(表2_4[[#This Row],[装备折算价格]])</f>
+        <f>(表2_4[[#This Row],[加权层数]]*表2_4[[#This Row],[种族系数]]*13000*表2_4[[#This Row],[金币需求]]*表2_4[[#This Row],[K点需求]]*表2_4[[#This Row],[装备折算价格]])/(表2_4[[#This Row],[材料价格]])</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>MIN(表2_4[[#This Row],[列3]],表2_4[[#This Row],[列4]]*30)</f>
+        <f>MIN(表2_4[[#This Row],[掉落物折算价格]],表2_4[[#This Row],[列4]]*30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -21061,14 +21076,14 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="N27" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -21079,7 +21094,7 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -21087,24 +21102,32 @@
         <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
-        <v>244</v>
+      <c r="C33" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D33" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -21122,7 +21145,7 @@
   <dimension ref="C2:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21137,39 +21160,39 @@
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D2" s="33" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>93</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D3" s="34">
         <v>1.5</v>
@@ -21206,7 +21229,7 @@
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D4" s="34">
         <v>4</v>
@@ -21243,7 +21266,7 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D5" s="34">
         <v>4</v>
@@ -21280,7 +21303,7 @@
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
@@ -21317,53 +21340,53 @@
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I11" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I12" s="33" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H13" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J13" s="45">
         <v>20</v>
@@ -21382,19 +21405,19 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D14" s="33" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J14" s="45">
         <v>0</v>
@@ -21413,13 +21436,13 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E15" s="40">
         <v>1</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J15" s="45">
         <v>0</v>
@@ -21434,13 +21457,13 @@
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E16" s="40">
         <v>2</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J16" s="45">
         <v>0</v>
@@ -21455,13 +21478,13 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E17" s="40">
         <v>3</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J17" s="45">
         <v>0</v>
@@ -21476,16 +21499,16 @@
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E18" s="40">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J18" s="45">
         <v>0</v>
@@ -21500,16 +21523,16 @@
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E19" s="40">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J19" s="45">
         <v>0</v>
@@ -21524,16 +21547,16 @@
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E20" s="40">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J20" s="45">
         <v>0</v>
@@ -21548,16 +21571,16 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E21" s="40">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J21" s="45">
         <v>0</v>
@@ -21572,13 +21595,13 @@
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E22" s="40">
         <v>8</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J22" s="45">
         <v>0</v>
@@ -21593,7 +21616,7 @@
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E23" s="40">
         <v>9</v>
@@ -21601,18 +21624,18 @@
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I25" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>14</v>
@@ -21621,19 +21644,19 @@
         <v>36</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M25" s="38" t="s">
         <v>87</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
@@ -21641,7 +21664,7 @@
         <v>86</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J26" s="45">
         <v>20</v>
@@ -21669,10 +21692,10 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="H27" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J27" s="45">
         <v>0</v>
@@ -21700,7 +21723,7 @@
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I28" s="46" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J28" s="45">
         <v>0</v>
@@ -21724,7 +21747,7 @@
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I29" s="46" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J29" s="45">
         <v>0</v>
@@ -21748,7 +21771,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I30" s="46" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J30" s="45">
         <v>0</v>
@@ -21772,7 +21795,7 @@
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I31" s="46" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J31" s="45">
         <v>0</v>
@@ -21796,7 +21819,7 @@
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I32" s="46" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J32" s="45">
         <v>0</v>
@@ -21856,74 +21879,74 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C2" s="33" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F2" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q2" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="N2" s="35" t="s">
+      <c r="R2" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="U2" s="35" t="s">
         <v>453</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>458</v>
       </c>
       <c r="V2" s="35" t="s">
         <v>81</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
@@ -21998,7 +22021,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
@@ -22073,7 +22096,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C5" s="34">
         <v>3</v>
@@ -22148,7 +22171,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C6" s="34">
         <v>4</v>
@@ -22223,7 +22246,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C7" s="34">
         <v>5</v>
@@ -22298,7 +22321,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C8" s="36">
         <v>1</v>
@@ -22373,57 +22396,57 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="15"/>
       <c r="D12" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -22431,244 +22454,244 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C21" s="40">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K21" s="40">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C22" s="40">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K22" s="40">
         <v>1.5</v>
       </c>
       <c r="L22" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C23" s="40">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K23" s="40">
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C24" s="40">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J24" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L24" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C25" s="40">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J25" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L25" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C26" s="40">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J26" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L26" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C27" s="40">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J27" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K27" s="40">
         <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C28" s="40">
         <v>8</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H28" s="40">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K28" s="40">
         <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C29" s="40">
         <v>9</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H29" s="40">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K29" s="40">
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H30" s="40">
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L30" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="42" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H31" s="40">
         <v>4</v>
@@ -22676,36 +22699,36 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D32" s="44"/>
       <c r="G32" s="42" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H32" s="40">
         <v>5</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.3">
       <c r="K33" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G34" s="24" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.3">

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA80986-E591-471E-B238-A8EAC9B5A679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AE294-E701-4E9F-901B-E600DA239F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2036,10 +2036,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超前武器需要减少一层加权，可减为负数。具体可查看下方的解锁等级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纵向联弹填入霰弹值计算见右下方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,6 +2168,10 @@
   </si>
   <si>
     <t>此处的加权层数与前页的数值计算的【由额外的装备价格而获取的加权层级】对应，不计算其他类型的加权层数。金币装备的加层层数通常为最大一层，k点装备的加层层数通常为最大两层，不可叠加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超前武器需要减少一层加权，可减为负数。具体可查看下方的解锁等级。额外属性中，暂定0.15%击溃、15%吸血、10%斩杀、25%概率暴击分别是上限值而且各占一层加权（低等级武器的上限要相应打折）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3163,7 +3163,7 @@
   <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3323,10 +3323,10 @@
         <v>362</v>
       </c>
       <c r="AA2" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB2" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>363</v>
@@ -5094,14 +5094,14 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="2:43" x14ac:dyDescent="0.3">
@@ -5175,7 +5175,7 @@
         <v>303</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN24" s="2" t="s">
         <v>260</v>
@@ -5184,13 +5184,13 @@
     <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R25" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="S25" s="39" t="s">
         <v>511</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>512</v>
       </c>
       <c r="AN25" t="s">
         <v>89</v>
@@ -5244,7 +5244,7 @@
         <v>294</v>
       </c>
       <c r="Q27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN27" s="28">
         <v>20</v>
@@ -5265,7 +5265,7 @@
         <v>176</v>
       </c>
       <c r="Q28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN28" s="28">
         <v>30</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AM31" s="2" t="s">
         <v>262</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="AN32" s="2" t="s">
         <v>368</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -19667,10 +19667,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -19680,7 +19680,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -19690,27 +19690,27 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>519</v>
+      </c>
+      <c r="E17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" t="s">
         <v>520</v>
       </c>
-      <c r="E17" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>521</v>
-      </c>
-      <c r="G17" t="s">
-        <v>522</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E18" s="37">
         <v>250</v>
@@ -19892,7 +19892,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -20162,7 +20162,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20288,15 +20288,15 @@
         <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
@@ -20306,12 +20306,12 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
@@ -20384,7 +20384,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>207</v>
@@ -20528,7 +20528,7 @@
         <v>231</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="3"/>
@@ -21119,15 +21119,15 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" t="s">
         <v>538</v>
-      </c>
-      <c r="D33" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -22683,7 +22683,7 @@
         <v>428</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L30" t="s">
         <v>436</v>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AE294-E701-4E9F-901B-E600DA239F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71D6E0-F6EB-416A-98ED-2A3768102ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,10 +2032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>喷火/次级穿刺子弹/高弹速穿刺狙击枪的穿刺系数为1.5，普通穿刺为2，非穿刺为1（其他拥有穿刺效果根据单体段数数量填入穿刺系数，段数较多时可填3或更高的穿刺系数）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纵向联弹填入霰弹值计算见右下方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,6 +2168,10 @@
   </si>
   <si>
     <t>超前武器需要减少一层加权，可减为负数。具体可查看下方的解锁等级。额外属性中，暂定0.15%击溃、15%吸血、10%斩杀、25%概率暴击分别是上限值而且各占一层加权（低等级武器的上限要相应打折）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷火/次级穿刺子弹/高弹速(60+)穿刺狙击枪的穿刺系数为1.5，普通穿刺为2，非穿刺为1（其他拥有穿刺效果根据单体段数数量填入穿刺系数，段数较多时可填3或更高的穿刺系数）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3163,7 +3163,7 @@
   <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3323,10 +3323,10 @@
         <v>362</v>
       </c>
       <c r="AA2" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB2" s="14" t="s">
         <v>531</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>532</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>363</v>
@@ -3525,10 +3525,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="3">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F4" s="3">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G4" s="3">
         <v>40</v>
@@ -3537,13 +3537,13 @@
         <v>200</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3552,78 +3552,78 @@
         <v>1</v>
       </c>
       <c r="N4" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O4" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <f>1000*表2_5[[#This Row],[周期伤害]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>5052.9629629629626</v>
+        <v>5022.5995492009542</v>
       </c>
       <c r="S4">
         <f>表2_5[[#This Row],[平衡dps]]*表2_5[[#This Row],[周期dps系数]]*表2_5[[#This Row],[吃拐系数]]*1.1^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>5000.5997200472148</v>
+        <v>5003.5002146671241</v>
       </c>
       <c r="V4">
         <f>表2_5[[#This Row],[平衡裸伤dps]]+表2_5[[#This Row],[平衡增益dps]]</f>
-        <v>4929.3345282010032</v>
+        <v>4995.5845774057798</v>
       </c>
       <c r="W4">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)</f>
-        <v>34107.5</v>
+        <v>28026.105484541327</v>
       </c>
       <c r="X4">
         <f xml:space="preserve"> (表2_5[[#This Row],[限制等级]]-1) * 1200*表2_5[[#This Row],[冲击力系数]]/(1.6^(表2_5[[#This Row],[伤害类型系数]]-1)*1.5^(表2_5[[#This Row],[双枪系数]]-1))+表2_5[[#This Row],[弹夹价格]]*5*(1+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(2+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]])</f>
-        <v>28695.368421052633</v>
+        <v>27914.400000000001</v>
       </c>
       <c r="Y4">
         <f>表2_5[[#This Row],[平衡周期伤害]]*1.25^表2_5[[#This Row],[额外加权层数]]</f>
-        <v>30682.080775283983</v>
+        <v>27914.400000000001</v>
       </c>
       <c r="Z4">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30)*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>2666.6666666666665</v>
+        <v>2741.9354838709678</v>
       </c>
       <c r="AA4">
         <f>( 表2_5[[#This Row],[限制等级]]*120*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+表2_5[[#This Row],[重量]]*66/表2_5[[#This Row],[伤害类型系数]] )/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>2912.1732048760132</v>
+        <v>2873.0995970047261</v>
       </c>
       <c r="AB4">
         <f xml:space="preserve"> (1000*(表2_5[[#This Row],[弹夹价格]]*6/表2_5[[#This Row],[伤害类型系数]])/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>177.77777777777777</v>
+        <v>215.05376344086022</v>
       </c>
       <c r="AC4">
         <f>IF(表2_5[[#This Row],[经济加成dps]] &lt;= 表2_5[[#This Row],[平衡基础dps]] * 表2_5[[#This Row],[限制等级]] / 3,表2_5[[#This Row],[经济加成dps]],  表2_5[[#This Row],[平衡基础dps]] + 15 * 表2_5[[#This Row],[平衡基础dps]] * (1 - EXP(-(表2_5[[#This Row],[经济加成dps]] - 表2_5[[#This Row],[平衡基础dps]]) / (15* 表2_5[[#This Row],[平衡基础dps]]))) ) + 表2_5[[#This Row],[平衡基础dps]]</f>
-        <v>3089.950982653791</v>
+        <v>3088.1533604455863</v>
       </c>
       <c r="AD4">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>2386.2962962962961</v>
+        <v>2280.6640653299869</v>
       </c>
       <c r="AE4">
         <f>(表2_5[[#This Row],[平衡裸伤dps]]/(1.5^(2-表2_5[[#This Row],[双枪系数]])+(40-10*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[子弹威力]]))*2*表2_5[[#This Row],[限制等级]]/256+1000*(表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*(26.5+表2_5[[#This Row],[限制等级]]*0.5)/(120*29+900*表2_5[[#This Row],[双枪系数]])/表2_5[[#This Row],[伤害类型系数]]</f>
-        <v>1839.383545547212</v>
+        <v>1907.4312169601935</v>
       </c>
       <c r="AF4">
         <f>1000*表2_5[[#This Row],[弹容量]]/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>5.9259259259259256</v>
+        <v>7.1684587813620073</v>
       </c>
       <c r="AG4">
         <f>1000*(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))</f>
-        <v>11.851851851851851</v>
+        <v>10.752688172043012</v>
       </c>
       <c r="AH4">
         <f>MAX(IF(表2_5[[#This Row],[吃拐率]]&gt;(0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]],(6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])) * (0.0008*表2_5[[#This Row],[限制等级]]^2+10+(表2_5[[#This Row],[霰弹值]]+表2_5[[#This Row],[穿刺系数]]*2.5-3.5) * 0.2+表2_5[[#This Row],[重量]]*表2_5[[#This Row],[重量]]/50)*1.1^表2_5[[#This Row],[额外加权层数]]/表2_5[[#This Row],[吃拐率]] -6/(表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[霰弹值]])+1,1),0.1)</f>
-        <v>0.98299538293448663</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <f>( ((表2_5[[#This Row],[限制等级]]*200+表2_5[[#This Row],[重量]]*61))*表2_5[[#This Row],[冲击力系数]]*表2_5[[#This Row],[周期伤害系数]]/1.6^(表2_5[[#This Row],[伤害类型系数]]-1)+1000*(表2_5[[#This Row],[弹夹价格]]*5*(8+表2_5[[#This Row],[限制等级]])/(50*表2_5[[#This Row],[伤害类型系数]])+表2_5[[#This Row],[重量]]*660*(1+表2_5[[#This Row],[限制等级]])/(25*表2_5[[#This Row],[伤害类型系数]]))/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]]))/1.5^(表2_5[[#This Row],[双枪系数]]-1)</f>
-        <v>5140.6079276294104</v>
+        <v>5132.4390809284996</v>
       </c>
       <c r="AJ4">
         <f>(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/表2_5[[#This Row],[霰弹值]])</f>
-        <v>446.34375</v>
+        <v>479.78125</v>
       </c>
       <c r="AK4">
         <f>IF(表2_5[[#This Row],[限制等级]]&gt;=35,17*表2_5[[#This Row],[限制等级]]-330,7*表2_5[[#This Row],[限制等级]]+15) * IF(表2_5[[#This Row],[限制等级]]&gt;=25, 1 + (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5) - 1) * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1) / 100 + 0.05 * (MIN(13,(表2_5[[#This Row],[限制等级]]-18)/3.5)  - 1),1)</f>
@@ -3635,23 +3635,23 @@
       </c>
       <c r="AM4">
         <f>0.9+(1.1-0.9)*表2_5[[#This Row],[冲击力]]/(表2_5[[#This Row],[冲击力]]+50)</f>
-        <v>0.99473684210526325</v>
+        <v>0.98888888888888893</v>
       </c>
       <c r="AN4">
         <f>IF(表2_5[[#This Row],[周期伤害]] &lt;=表2_5[[#This Row],[加权周期伤害]]* 5,0.7+0.6/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]))),0.1+1.5/(1+EXP(-(表2_5[[#This Row],[加权周期伤害]]-表2_5[[#This Row],[周期伤害]])/(表2_5[[#This Row],[加权周期伤害]]*10))))</f>
-        <v>0.98327102157776669</v>
+        <v>0.99939974349006344</v>
       </c>
       <c r="AO4">
         <f>1000*(表2_5[[#This Row],[子弹威力]]*1.5+30+表2_5[[#This Row],[子弹威力]]*2*表2_5[[#This Row],[限制等级]]/256+表2_5[[#This Row],[伤害加成]]+表2_5[[#This Row],[剧毒]]/(表2_5[[#This Row],[霰弹值]]*3^(表2_5[[#This Row],[穿刺系数]]-1)))*表2_5[[#This Row],[穿刺系数]]*表2_5[[#This Row],[弹容量]]*(1+(表2_5[[#This Row],[霰弹值]]-1)*0.5)/(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1)+900*表2_5[[#This Row],[双枪系数]])</f>
-        <v>5052.9629629629626</v>
+        <v>5022.5995492009542</v>
       </c>
       <c r="AP4">
         <f>1000*表2_5[[#This Row],[周期伤害]]/MAX(表2_5[[#This Row],[射击间隔]]*(表2_5[[#This Row],[弹容量]]-1),100/表2_5[[#This Row],[双枪系数]])</f>
-        <v>5830.3418803418799</v>
+        <v>5988.4840778934458</v>
       </c>
       <c r="AQ4">
         <f>IF(表2_5[[#This Row],[周期dps]]&lt;=表2_5[[#This Row],[平衡dps]] * 2,0.85+0.3365/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))),0.75+0.7/(1+EXP(-(表2_5[[#This Row],[平衡dps]]-表2_5[[#This Row],[周期dps]])/(表2_5[[#This Row],[平衡dps]]))))</f>
-        <v>1.0029158992510199</v>
+        <v>1.0015845267232879</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
@@ -5094,14 +5094,14 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="2:43" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
         <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="2:43" x14ac:dyDescent="0.3">
@@ -5175,7 +5175,7 @@
         <v>303</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN24" s="2" t="s">
         <v>260</v>
@@ -5184,13 +5184,13 @@
     <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R25" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="S25" s="39" t="s">
         <v>510</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>511</v>
       </c>
       <c r="AN25" t="s">
         <v>89</v>
@@ -5244,7 +5244,7 @@
         <v>294</v>
       </c>
       <c r="Q27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN27" s="28">
         <v>20</v>
@@ -5265,7 +5265,7 @@
         <v>176</v>
       </c>
       <c r="Q28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN28" s="28">
         <v>30</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM31" s="2" t="s">
         <v>262</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AN32" s="2" t="s">
         <v>368</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -19667,10 +19667,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -19680,7 +19680,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -19690,27 +19690,27 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E17" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" t="s">
         <v>519</v>
       </c>
-      <c r="E17" t="s">
-        <v>522</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>520</v>
-      </c>
-      <c r="G17" t="s">
-        <v>521</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E18" s="37">
         <v>250</v>
@@ -19892,7 +19892,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -19974,7 +19974,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20117,7 +20117,7 @@
         <v>83</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -20126,18 +20126,18 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>78000</v>
+        <v>128700</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>3960</v>
       </c>
       <c r="N8">
         <f>J8/K8</f>
@@ -20162,7 +20162,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -20288,15 +20288,15 @@
         <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
@@ -20306,12 +20306,12 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
@@ -20384,7 +20384,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>207</v>
@@ -20528,7 +20528,7 @@
         <v>231</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="3"/>
@@ -21119,15 +21119,15 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D33" t="s">
         <v>537</v>
-      </c>
-      <c r="D33" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -22683,7 +22683,7 @@
         <v>428</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L30" t="s">
         <v>436</v>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71D6E0-F6EB-416A-98ED-2A3768102ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8BD05A-72E9-411F-8592-5B7450AC164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="合成表成本" sheetId="11" r:id="rId6"/>
     <sheet name="副本收益" sheetId="13" r:id="rId7"/>
     <sheet name="怪物大致面板" sheetId="14" r:id="rId8"/>
-    <sheet name="经验辅助计算" sheetId="6" r:id="rId9"/>
-    <sheet name="技能格式" sheetId="4" r:id="rId10"/>
-    <sheet name="等级计算怪物属性" sheetId="7" r:id="rId11"/>
-    <sheet name="伤害公式" sheetId="8" r:id="rId12"/>
-    <sheet name="其余计算" sheetId="9" r:id="rId13"/>
-    <sheet name="旧版-枪械" sheetId="1" r:id="rId14"/>
+    <sheet name="药剂面板" sheetId="15" r:id="rId9"/>
+    <sheet name="经验辅助计算" sheetId="6" r:id="rId10"/>
+    <sheet name="技能格式" sheetId="4" r:id="rId11"/>
+    <sheet name="等级计算怪物属性" sheetId="7" r:id="rId12"/>
+    <sheet name="伤害公式" sheetId="8" r:id="rId13"/>
+    <sheet name="其余计算" sheetId="9" r:id="rId14"/>
+    <sheet name="旧版-枪械" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="596">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2172,6 +2173,214 @@
   </si>
   <si>
     <t>喷火/次级穿刺子弹/高弹速(60+)穿刺狙击枪的穿刺系数为1.5，普通穿刺为2，非穿刺为1（其他拥有穿刺效果根据单体段数数量填入穿刺系数，段数较多时可填3或更高的穿刺系数）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例hp药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（填写前方数值使得当前数值小于数值上限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff类的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂类的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要手动填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂基础公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非缓释填0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-空手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限填0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否群体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-持续帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-魔抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性时*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的药：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例mp药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例战队药箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例稀释的毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例净化药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-魔抗填入的是单属性增加值。如果是全属性，则填入值需要是buff增加值的2倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例魔抗药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指该药剂主要服务的大致的玩家等级。主线赠送药剂按主线进度，掉落药剂按掉落进度，以最早可批量获取的进度为准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只可购买/合成的药剂按你认为这个药应该什么时候使用为准，并可使数值贴合数值上限，合成类的合成成本需要和价格一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前数值小于数值上限即可。当前数值越接近数值上限，代表药剂强度越接近或适当超过玩家等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂的途径应该较为专精，不必要的属性填0即可。请避免出现需要服用的恢复药剂有需要涂在武器上的剧毒性等冲突情况出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体填1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复药强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff类的填入值是固定加值，暂定禁止百分比加成buff药剂，除了加速、加防、魔抗类。换算关系见下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（此后为自动计算的辅助计算属性，不用管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff换算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff-速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御、速度buff区间在1-1.8，魔抗单属性1-2.2，全属性1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算加值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写倍率，得到换算的加值，将加值填入公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始推荐价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓释持续帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp、mp的上限值是1500。缓释持续帧在60-600之间（即2秒-20秒）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2345,7 +2554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2435,9 +2644,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -3163,7 +3373,7 @@
   <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5372,6 +5582,1059 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D62D51-4A85-49A4-AACE-F79C8F6223AF}">
+  <dimension ref="A2:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.9140625" customWidth="1"/>
+    <col min="11" max="11" width="4.9140625" customWidth="1"/>
+    <col min="12" max="12" width="9.4140625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8">
+        <v>55000</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <f>(C8+(D8-C8)/(E8-1)*B8)</f>
+        <v>10762.71186440678</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>10000</v>
+      </c>
+      <c r="M8">
+        <v>55000</v>
+      </c>
+      <c r="N8">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <f>(L8+(M8-L8)/(N8-1)*K8)</f>
+        <v>10762.71186440678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>55000</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <f>(C9+(D9-C9)/(E9-1)*B9)</f>
+        <v>11525.423728813559</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>10000</v>
+      </c>
+      <c r="M9">
+        <v>55000</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <f>(L9+(M9-L9)/(N9-1)*K9)</f>
+        <v>11525.423728813559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10">
+        <v>55000</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F17" si="0">(C10+(D10-C10)/(E10-1)*B10)</f>
+        <v>12288.135593220339</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>10000</v>
+      </c>
+      <c r="M10">
+        <v>55000</v>
+      </c>
+      <c r="N10">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10" si="1">(L10+(M10-L10)/(N10-1)*K10)</f>
+        <v>12288.135593220339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="D11">
+        <v>55000</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>13050.847457627118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>55000</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>13813.559322033898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>55000</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>14576.271186440677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <v>55000</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>15338.983050847459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
+      </c>
+      <c r="D15">
+        <v>55000</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>16101.694915254237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>55000</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>16864.406779661018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>10000</v>
+      </c>
+      <c r="D17">
+        <v>55000</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>17627.118644067796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>20000</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <f>(C20+(D20-C20)/(E20-1)*B20)</f>
+        <v>348.81355932203388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>20000</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <f>(C21+(D21-C21)/(E21-1)*B21)</f>
+        <v>687.62711864406776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>20000</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F29" si="2">(C22+(D22-C22)/(E22-1)*B22)</f>
+        <v>1026.4406779661017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>20000</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1365.2542372881355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>20000</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1704.0677966101694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>20000</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2042.8813559322034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>20000</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>2381.694915254237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>20000</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>2720.5084745762711</v>
+      </c>
+      <c r="Q27">
+        <f>SUM(O8:O119)</f>
+        <v>34576.271186440674</v>
+      </c>
+      <c r="R27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>20000</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3059.3220338983051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>20000</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>3398.1355932203387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>20000</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <f>(C30+(D30-C30)/(E30-1)*B30)</f>
+        <v>3736.9491525423728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>20000</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <f>(C31+(D31-C31)/(E31-1)*B31)</f>
+        <v>4075.7627118644068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>20000</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F38" si="3">(C32+(D32-C32)/(E32-1)*B32)</f>
+        <v>4414.5762711864409</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>20000</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>4753.389830508474</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>20000</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>5092.2033898305081</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>20000</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>5431.0169491525421</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>20000</v>
+      </c>
+      <c r="E36">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>5769.8305084745762</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>20000</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>6108.6440677966102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>20000</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>6447.4576271186434</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>20000</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <f>(C39+(D39-C39)/(E39-1)*B39)</f>
+        <v>6786.2711864406774</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>20000</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <f>(C40+(D40-C40)/(E40-1)*B40)</f>
+        <v>7125.0847457627115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>20000</v>
+      </c>
+      <c r="E41">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F48" si="4">(C41+(D41-C41)/(E41-1)*B41)</f>
+        <v>7463.8983050847455</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>20000</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>7802.7118644067796</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>20000</v>
+      </c>
+      <c r="E43">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>8141.5254237288136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>20000</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>8480.3389830508477</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>20000</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>8819.1525423728817</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>20000</v>
+      </c>
+      <c r="E46">
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>9157.966101694914</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>20000</v>
+      </c>
+      <c r="E47">
+        <v>60</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>9496.779661016948</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>20000</v>
+      </c>
+      <c r="E48">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>9835.5932203389821</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>20000</v>
+      </c>
+      <c r="E49">
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <f>(C49+(D49-C49)/(E49-1)*B49)</f>
+        <v>10174.406779661016</v>
+      </c>
+      <c r="H49">
+        <f>SUM(F20:F49)</f>
+        <v>157848.30508474578</v>
+      </c>
+      <c r="I49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>20000</v>
+      </c>
+      <c r="E50">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:F59" si="5">(C50+(D50-C50)/(E50-1)*B50)</f>
+        <v>10513.22033898305</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>20000</v>
+      </c>
+      <c r="E51">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>10852.033898305084</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>20000</v>
+      </c>
+      <c r="E52">
+        <v>60</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>11190.847457627118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>20000</v>
+      </c>
+      <c r="E53">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>11529.661016949152</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>20000</v>
+      </c>
+      <c r="E54">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>11868.474576271186</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>20000</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>12207.28813559322</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>20000</v>
+      </c>
+      <c r="E56">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>12546.101694915254</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>20000</v>
+      </c>
+      <c r="E57">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>12884.915254237287</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>39</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>20000</v>
+      </c>
+      <c r="E58">
+        <v>60</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>13223.728813559321</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>20000</v>
+      </c>
+      <c r="E59">
+        <v>60</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>13562.542372881355</v>
+      </c>
+      <c r="H59">
+        <f>SUM(F20:F59)</f>
+        <v>278227.11864406784</v>
+      </c>
+      <c r="I59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f>SUM(F20:F128)</f>
+        <v>278227.11864406784</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AEF7F8-A3BA-4168-B91A-0B80F65D101C}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
@@ -5674,7 +6937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD734CB-80FA-4C48-97CD-26CCAF18120C}">
   <dimension ref="B2:AH115"/>
   <sheetViews>
@@ -14211,7 +15474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766352B4-FCC2-4228-99C9-8C03AC6B458D}">
   <dimension ref="A1:W46"/>
   <sheetViews>
@@ -15462,7 +16725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B898794B-1561-478F-8317-69AF6D6FD6BA}">
   <dimension ref="B2:V109"/>
   <sheetViews>
@@ -17660,7 +18923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W35"/>
   <sheetViews>
@@ -18594,7 +19857,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A12"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19554,7 +20817,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19973,7 +21236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B594D0C1-9717-419C-89F7-CC28A4B63F17}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -22742,1054 +24005,829 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D62D51-4A85-49A4-AACE-F79C8F6223AF}">
-  <dimension ref="A2:R68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8C8B51-325B-42E3-9CC1-E285AF84FF2C}">
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.9140625" customWidth="1"/>
-    <col min="11" max="11" width="4.9140625" customWidth="1"/>
-    <col min="12" max="12" width="9.4140625" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="6.4140625" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.08203125" customWidth="1"/>
+    <col min="12" max="12" width="7.4140625" customWidth="1"/>
+    <col min="21" max="21" width="11.25" customWidth="1"/>
+    <col min="24" max="24" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>89</v>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H1" t="s">
+        <v>579</v>
+      </c>
+      <c r="N1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>566</v>
+      </c>
+      <c r="R1" t="s">
+        <v>562</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L2" t="s">
+        <v>558</v>
+      </c>
+      <c r="M2" t="s">
+        <v>559</v>
+      </c>
+      <c r="N2" t="s">
+        <v>565</v>
+      </c>
+      <c r="O2" t="s">
+        <v>560</v>
+      </c>
+      <c r="P2" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>589</v>
+      </c>
+      <c r="R2" t="s">
+        <v>564</v>
+      </c>
+      <c r="T2" t="s">
+        <v>548</v>
+      </c>
+      <c r="U2" t="s">
+        <v>546</v>
+      </c>
+      <c r="V2" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="50">
+        <f>Y3 * (2^H3)/(2^((MIN(G3/30,10)+IF(G3&gt;10,5,0))/15))+Z3+AA3+AB3</f>
+        <v>150</v>
+      </c>
+      <c r="U3" s="50">
+        <f>100+D3*100</f>
+        <v>200</v>
+      </c>
+      <c r="V3" s="50">
+        <f>ROUND(AC3/50,0)*50</f>
+        <v>100</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>(E3+F3)</f>
+        <v>150</v>
+      </c>
+      <c r="Z3" s="50">
+        <f t="shared" ref="Z3:Z9" si="0">I3*60</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="50">
+        <f>J3^1.05*9.9</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="50">
+        <f>(K3+L3+M3*2+N3*50+O3*3+Q3*50+P3*4)*(IF(R3&gt;0,0.1+R3/300,12))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="50">
+        <f>Y3 *2^(MIN(Y3,1500)/850)/(2^((MIN(G3/30,20)+IF(G3&gt;10,5,0))/25))/2 * (2^H3)+Z3*2+AA3*2^(MIN(AA3,3650)/850)/3+AB3*2^(MIN(AB3,3650)/2000)</f>
+        <v>84.758683757199734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="50">
+        <f t="shared" ref="T4:T10" si="1">Y4 * (2^H4)/(2^((MIN(G4/30,10)+IF(G4&gt;10,5,0))/15))+Z4+AA4+AB4</f>
+        <v>100</v>
+      </c>
+      <c r="U4" s="50">
+        <f>100+D4*100</f>
+        <v>200</v>
+      </c>
+      <c r="V4" s="50">
+        <f t="shared" ref="V4:V10" si="2">ROUND(AC4/50,0)*50</f>
+        <v>50</v>
+      </c>
+      <c r="Y4" s="50">
+        <f t="shared" ref="Y4:Y10" si="3">(E4+F4)</f>
+        <v>100</v>
+      </c>
+      <c r="Z4" s="50">
+        <f t="shared" ref="Z4:Z10" si="4">I4*60</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="50">
+        <f t="shared" ref="AA4:AA10" si="5">J4^1.05*9.9</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="50">
+        <f t="shared" ref="AB4:AB10" si="6">(K4+L4+M4*2+N4*50+O4*3+Q4*50+P4*4)*(IF(R4&gt;0,0.1+R4/300,12))</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="50">
+        <f t="shared" ref="AC4:AC10" si="7">Y4 *2^(MIN(Y4,1500)/850)/(2^((MIN(G4/30,20)+IF(G4&gt;10,5,0))/25))/2 * (2^H4)+Z4*2+AA4*2^(MIN(AA4,3650)/850)/3+AB4*2^(MIN(AB4,3650)/2000)</f>
+        <v>54.248195682181851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="50">
+        <f t="shared" si="1"/>
+        <v>2580.5762147148657</v>
+      </c>
+      <c r="U5" s="50">
+        <f>100+D5*100</f>
+        <v>2600</v>
+      </c>
+      <c r="V5" s="50">
+        <f t="shared" si="2"/>
+        <v>7050</v>
+      </c>
+      <c r="Y5" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="50">
+        <f t="shared" si="5"/>
+        <v>2580.5762147148657</v>
+      </c>
+      <c r="AB5" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="50">
+        <f t="shared" si="7"/>
+        <v>7055.2771478508666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U6" s="50">
+        <f>100+D6*100</f>
+        <v>3100</v>
+      </c>
+      <c r="V6" s="50">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="Y6" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="50">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="AA6" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
+        <v>573</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>300</v>
+      </c>
+      <c r="T7" s="50">
+        <f t="shared" si="1"/>
+        <v>3350</v>
+      </c>
+      <c r="U7" s="50">
+        <f>100+D7*100</f>
+        <v>3600</v>
+      </c>
+      <c r="V7" s="50">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+      <c r="Y7" s="50">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="Z7" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="50">
+        <f t="shared" si="6"/>
+        <v>2750</v>
+      </c>
+      <c r="AC7" s="50">
+        <f t="shared" si="7"/>
+        <v>7621.9601406702186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" t="s">
+        <v>569</v>
       </c>
       <c r="D8">
-        <v>55000</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="F8">
-        <f>(C8+(D8-C8)/(E8-1)*B8)</f>
-        <v>10762.71186440678</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f>(L8+(M8-L8)/(N8-1)*K8)</f>
-        <v>10762.71186440678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="50">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U8" s="50">
+        <f>100+D8*100</f>
+        <v>3100</v>
+      </c>
+      <c r="V8" s="50">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+      <c r="Y8" s="50">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="Z8" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="50">
+        <f t="shared" si="7"/>
+        <v>5097.0707653062082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D10" s="37">
+        <v>30</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
+        <v>0</v>
+      </c>
+      <c r="K10" s="53">
+        <v>0</v>
+      </c>
+      <c r="L10" s="53">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <v>0</v>
+      </c>
+      <c r="N10" s="53">
+        <v>0</v>
+      </c>
+      <c r="O10" s="53">
+        <v>0</v>
+      </c>
+      <c r="P10" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="53">
+        <v>0</v>
+      </c>
+      <c r="R10" s="53">
+        <v>0</v>
+      </c>
+      <c r="T10" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="48">
+        <f t="shared" ref="U9:U10" si="8">100+D10*100</f>
+        <v>3100</v>
+      </c>
+      <c r="V10" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>588</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E24" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="37">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
-        <v>55000</v>
-      </c>
-      <c r="E9">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <f>(C9+(D9-C9)/(E9-1)*B9)</f>
-        <v>11525.423728813559</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>10000</v>
-      </c>
-      <c r="M9">
-        <v>55000</v>
-      </c>
-      <c r="N9">
-        <v>60</v>
-      </c>
-      <c r="O9">
-        <f>(L9+(M9-L9)/(N9-1)*K9)</f>
-        <v>11525.423728813559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-      <c r="D10">
-        <v>55000</v>
-      </c>
-      <c r="E10">
-        <v>60</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F17" si="0">(C10+(D10-C10)/(E10-1)*B10)</f>
-        <v>12288.135593220339</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>10000</v>
-      </c>
-      <c r="M10">
-        <v>55000</v>
-      </c>
-      <c r="N10">
-        <v>60</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ref="O10" si="1">(L10+(M10-L10)/(N10-1)*K10)</f>
-        <v>12288.135593220339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-      <c r="D11">
-        <v>55000</v>
-      </c>
-      <c r="E11">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>13050.847457627118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <v>55000</v>
-      </c>
-      <c r="E12">
-        <v>60</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>13813.559322033898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13">
-        <v>55000</v>
-      </c>
-      <c r="E13">
-        <v>60</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>14576.271186440677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14">
-        <v>55000</v>
-      </c>
-      <c r="E14">
-        <v>60</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>15338.983050847459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>10000</v>
-      </c>
-      <c r="D15">
-        <v>55000</v>
-      </c>
-      <c r="E15">
-        <v>60</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>16101.694915254237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>10000</v>
-      </c>
-      <c r="D16">
-        <v>55000</v>
-      </c>
-      <c r="E16">
-        <v>60</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>16864.406779661018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>10000</v>
-      </c>
-      <c r="D17">
-        <v>55000</v>
-      </c>
-      <c r="E17">
-        <v>60</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>17627.118644067796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>20000</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20">
-        <f>(C20+(D20-C20)/(E20-1)*B20)</f>
-        <v>348.81355932203388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>20000</v>
-      </c>
-      <c r="E21">
-        <v>60</v>
-      </c>
-      <c r="F21">
-        <f>(C21+(D21-C21)/(E21-1)*B21)</f>
-        <v>687.62711864406776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>20000</v>
-      </c>
-      <c r="E22">
-        <v>60</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22:F29" si="2">(C22+(D22-C22)/(E22-1)*B22)</f>
-        <v>1026.4406779661017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>20000</v>
-      </c>
-      <c r="E23">
-        <v>60</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>1365.2542372881355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>20000</v>
-      </c>
-      <c r="E24">
-        <v>60</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>1704.0677966101694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>20000</v>
-      </c>
-      <c r="E25">
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>2042.8813559322034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>20000</v>
-      </c>
-      <c r="E26">
-        <v>60</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>2381.694915254237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>20000</v>
-      </c>
-      <c r="E27">
-        <v>60</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>2720.5084745762711</v>
-      </c>
-      <c r="Q27">
-        <f>SUM(O8:O119)</f>
-        <v>34576.271186440674</v>
-      </c>
-      <c r="R27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>20000</v>
-      </c>
-      <c r="E28">
-        <v>60</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>3059.3220338983051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>20000</v>
-      </c>
-      <c r="E29">
-        <v>60</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>3398.1355932203387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>20000</v>
-      </c>
-      <c r="E30">
-        <v>60</v>
-      </c>
-      <c r="F30">
-        <f>(C30+(D30-C30)/(E30-1)*B30)</f>
-        <v>3736.9491525423728</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>20000</v>
-      </c>
-      <c r="E31">
-        <v>60</v>
-      </c>
-      <c r="F31">
-        <f>(C31+(D31-C31)/(E31-1)*B31)</f>
-        <v>4075.7627118644068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>20000</v>
-      </c>
-      <c r="E32">
-        <v>60</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32:F38" si="3">(C32+(D32-C32)/(E32-1)*B32)</f>
-        <v>4414.5762711864409</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>14</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>20000</v>
-      </c>
-      <c r="E33">
-        <v>60</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>4753.389830508474</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>20000</v>
-      </c>
-      <c r="E34">
-        <v>60</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>5092.2033898305081</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>20000</v>
-      </c>
-      <c r="E35">
-        <v>60</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>5431.0169491525421</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>17</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>20000</v>
-      </c>
-      <c r="E36">
-        <v>60</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>5769.8305084745762</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>20000</v>
-      </c>
-      <c r="E37">
-        <v>60</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>6108.6440677966102</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>20000</v>
-      </c>
-      <c r="E38">
-        <v>60</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>6447.4576271186434</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>20000</v>
-      </c>
-      <c r="E39">
-        <v>60</v>
-      </c>
-      <c r="F39">
-        <f>(C39+(D39-C39)/(E39-1)*B39)</f>
-        <v>6786.2711864406774</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>21</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>20000</v>
-      </c>
-      <c r="E40">
-        <v>60</v>
-      </c>
-      <c r="F40">
-        <f>(C40+(D40-C40)/(E40-1)*B40)</f>
-        <v>7125.0847457627115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>22</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>20000</v>
-      </c>
-      <c r="E41">
-        <v>60</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ref="F41:F48" si="4">(C41+(D41-C41)/(E41-1)*B41)</f>
-        <v>7463.8983050847455</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>20000</v>
-      </c>
-      <c r="E42">
-        <v>60</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="4"/>
-        <v>7802.7118644067796</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>20000</v>
-      </c>
-      <c r="E43">
-        <v>60</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="4"/>
-        <v>8141.5254237288136</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44">
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="48">
+        <f>3000*(E24-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="F25" s="48">
+        <f>50*(F24-1)</f>
         <v>25</v>
       </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>20000</v>
-      </c>
-      <c r="E44">
-        <v>60</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="4"/>
-        <v>8480.3389830508477</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>26</v>
-      </c>
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <v>20000</v>
-      </c>
-      <c r="E45">
-        <v>60</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>8819.1525423728817</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>27</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>20000</v>
-      </c>
-      <c r="E46">
-        <v>60</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="4"/>
-        <v>9157.966101694914</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>28</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>20000</v>
-      </c>
-      <c r="E47">
-        <v>60</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
-        <v>9496.779661016948</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>29</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <v>20000</v>
-      </c>
-      <c r="E48">
-        <v>60</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="4"/>
-        <v>9835.5932203389821</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>30</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>20000</v>
-      </c>
-      <c r="E49">
-        <v>60</v>
-      </c>
-      <c r="F49">
-        <f>(C49+(D49-C49)/(E49-1)*B49)</f>
-        <v>10174.406779661016</v>
-      </c>
-      <c r="H49">
-        <f>SUM(F20:F49)</f>
-        <v>157848.30508474578</v>
-      </c>
-      <c r="I49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>31</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>20000</v>
-      </c>
-      <c r="E50">
-        <v>60</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ref="F50:F59" si="5">(C50+(D50-C50)/(E50-1)*B50)</f>
-        <v>10513.22033898305</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <v>32</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>20000</v>
-      </c>
-      <c r="E51">
-        <v>60</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="5"/>
-        <v>10852.033898305084</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>33</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <v>20000</v>
-      </c>
-      <c r="E52">
-        <v>60</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="5"/>
-        <v>11190.847457627118</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>34</v>
-      </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <v>20000</v>
-      </c>
-      <c r="E53">
-        <v>60</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="5"/>
-        <v>11529.661016949152</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>35</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>20000</v>
-      </c>
-      <c r="E54">
-        <v>60</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="5"/>
-        <v>11868.474576271186</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>36</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>20000</v>
-      </c>
-      <c r="E55">
-        <v>60</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="5"/>
-        <v>12207.28813559322</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56">
-        <v>37</v>
-      </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>20000</v>
-      </c>
-      <c r="E56">
-        <v>60</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="5"/>
-        <v>12546.101694915254</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57">
-        <v>38</v>
-      </c>
-      <c r="C57">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>20000</v>
-      </c>
-      <c r="E57">
-        <v>60</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="5"/>
-        <v>12884.915254237287</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58">
-        <v>39</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>20000</v>
-      </c>
-      <c r="E58">
-        <v>60</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="5"/>
-        <v>13223.728813559321</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59">
-        <v>40</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>20000</v>
-      </c>
-      <c r="E59">
-        <v>60</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="5"/>
-        <v>13562.542372881355</v>
-      </c>
-      <c r="H59">
-        <f>SUM(F20:F59)</f>
-        <v>278227.11864406784</v>
-      </c>
-      <c r="I59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H68">
-        <f>SUM(F20:F128)</f>
-        <v>278227.11864406784</v>
-      </c>
-      <c r="I68" t="s">
-        <v>98</v>
+      <c r="G25" s="48">
+        <f>25*(G24-1)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8BD05A-72E9-411F-8592-5B7450AC164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484B6F28-5A00-406A-AF8E-90CC1B3D5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24009,7 +24009,7 @@
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -24017,8 +24017,9 @@
     <col min="1" max="1" width="13.08203125" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.4140625" customWidth="1"/>
     <col min="9" max="9" width="6.4140625" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="7.08203125" customWidth="1"/>
@@ -24178,7 +24179,7 @@
         <v>150</v>
       </c>
       <c r="U3" s="50">
-        <f>100+D3*100</f>
+        <f t="shared" ref="U3:U8" si="0">100+D3*100</f>
         <v>200</v>
       </c>
       <c r="V3" s="50">
@@ -24190,7 +24191,7 @@
         <v>150</v>
       </c>
       <c r="Z3" s="50">
-        <f t="shared" ref="Z3:Z9" si="0">I3*60</f>
+        <f t="shared" ref="Z3" si="1">I3*60</f>
         <v>0</v>
       </c>
       <c r="AA3" s="50">
@@ -24256,35 +24257,35 @@
         <v>0</v>
       </c>
       <c r="T4" s="50">
-        <f t="shared" ref="T4:T10" si="1">Y4 * (2^H4)/(2^((MIN(G4/30,10)+IF(G4&gt;10,5,0))/15))+Z4+AA4+AB4</f>
+        <f t="shared" ref="T4:T10" si="2">Y4 * (2^H4)/(2^((MIN(G4/30,10)+IF(G4&gt;10,5,0))/15))+Z4+AA4+AB4</f>
         <v>100</v>
       </c>
       <c r="U4" s="50">
-        <f>100+D4*100</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="V4" s="50">
-        <f t="shared" ref="V4:V10" si="2">ROUND(AC4/50,0)*50</f>
+        <f t="shared" ref="V4:V10" si="3">ROUND(AC4/50,0)*50</f>
         <v>50</v>
       </c>
       <c r="Y4" s="50">
-        <f t="shared" ref="Y4:Y10" si="3">(E4+F4)</f>
+        <f t="shared" ref="Y4:Y10" si="4">(E4+F4)</f>
         <v>100</v>
       </c>
       <c r="Z4" s="50">
-        <f t="shared" ref="Z4:Z10" si="4">I4*60</f>
+        <f t="shared" ref="Z4:Z10" si="5">I4*60</f>
         <v>0</v>
       </c>
       <c r="AA4" s="50">
-        <f t="shared" ref="AA4:AA10" si="5">J4^1.05*9.9</f>
+        <f t="shared" ref="AA4:AA10" si="6">J4^1.05*9.9</f>
         <v>0</v>
       </c>
       <c r="AB4" s="50">
-        <f t="shared" ref="AB4:AB10" si="6">(K4+L4+M4*2+N4*50+O4*3+Q4*50+P4*4)*(IF(R4&gt;0,0.1+R4/300,12))</f>
+        <f t="shared" ref="AB4:AB10" si="7">(K4+L4+M4*2+N4*50+O4*3+Q4*50+P4*4)*(IF(R4&gt;0,0.1+R4/300,12))</f>
         <v>0</v>
       </c>
       <c r="AC4" s="50">
-        <f t="shared" ref="AC4:AC10" si="7">Y4 *2^(MIN(Y4,1500)/850)/(2^((MIN(G4/30,20)+IF(G4&gt;10,5,0))/25))/2 * (2^H4)+Z4*2+AA4*2^(MIN(AA4,3650)/850)/3+AB4*2^(MIN(AB4,3650)/2000)</f>
+        <f t="shared" ref="AC4:AC10" si="8">Y4 *2^(MIN(Y4,1500)/850)/(2^((MIN(G4/30,20)+IF(G4&gt;10,5,0))/25))/2 * (2^H4)+Z4*2+AA4*2^(MIN(AA4,3650)/850)/3+AB4*2^(MIN(AB4,3650)/2000)</f>
         <v>54.248195682181851</v>
       </c>
     </row>
@@ -24341,35 +24342,35 @@
         <v>0</v>
       </c>
       <c r="T5" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2580.5762147148657</v>
       </c>
       <c r="U5" s="50">
-        <f>100+D5*100</f>
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
       <c r="V5" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7050</v>
       </c>
       <c r="Y5" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z5" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA5" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2580.5762147148657</v>
       </c>
       <c r="AB5" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC5" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7055.2771478508666</v>
       </c>
     </row>
@@ -24426,35 +24427,35 @@
         <v>0</v>
       </c>
       <c r="T6" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="U6" s="50">
-        <f>100+D6*100</f>
+        <f t="shared" si="0"/>
         <v>3100</v>
       </c>
       <c r="V6" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="Y6" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z6" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="AA6" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB6" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC6" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6000</v>
       </c>
     </row>
@@ -24511,35 +24512,35 @@
         <v>300</v>
       </c>
       <c r="T7" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3350</v>
       </c>
       <c r="U7" s="50">
-        <f>100+D7*100</f>
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="V7" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7600</v>
       </c>
       <c r="Y7" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="Z7" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA7" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB7" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2750</v>
       </c>
       <c r="AC7" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7621.9601406702186</v>
       </c>
     </row>
@@ -24596,35 +24597,35 @@
         <v>0</v>
       </c>
       <c r="T8" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="U8" s="50">
-        <f>100+D8*100</f>
+        <f t="shared" si="0"/>
         <v>3100</v>
       </c>
       <c r="V8" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5100</v>
       </c>
       <c r="Y8" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="Z8" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA8" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB8" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC8" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5097.0707653062082</v>
       </c>
     </row>
@@ -24694,35 +24695,35 @@
         <v>0</v>
       </c>
       <c r="T10" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10" s="48">
-        <f t="shared" ref="U9:U10" si="8">100+D10*100</f>
+        <f t="shared" ref="U10" si="9">100+D10*100</f>
         <v>3100</v>
       </c>
       <c r="V10" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y10" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z10" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA10" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB10" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC10" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484B6F28-5A00-406A-AF8E-90CC1B3D5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A7CE1-1001-479A-B861-8F788F2E7020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="596">
   <si>
     <t>非爆炸类枪械</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2308,10 +2308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前数值小于数值上限即可。当前数值越接近数值上限，代表药剂强度越接近或适当超过玩家等级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>药剂的途径应该较为专精，不必要的属性填0即可。请避免出现需要服用的恢复药剂有需要涂在武器上的剧毒性等冲突情况出现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2381,6 +2377,10 @@
   </si>
   <si>
     <t>hp、mp的上限值是1500。缓释持续帧在60-600之间（即2秒-20秒）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前数值小于数值上限即可，一般不需要强行拉高到接近上限。当前数值越接近数值上限，代表药剂强度越接近或适当超过对应的玩家等级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24024,6 +24024,8 @@
     <col min="10" max="10" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="7.08203125" customWidth="1"/>
     <col min="12" max="12" width="7.4140625" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" customWidth="1"/>
+    <col min="18" max="18" width="10.08203125" customWidth="1"/>
     <col min="21" max="21" width="11.25" customWidth="1"/>
     <col min="24" max="24" width="9.5" customWidth="1"/>
   </cols>
@@ -24036,14 +24038,11 @@
         <v>556</v>
       </c>
       <c r="H1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N1" t="s">
         <v>566</v>
       </c>
-      <c r="Q1" t="s">
-        <v>566</v>
-      </c>
       <c r="R1" t="s">
         <v>562</v>
       </c>
@@ -24051,7 +24050,7 @@
         <v>549</v>
       </c>
       <c r="Y1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -24065,7 +24064,7 @@
         <v>520</v>
       </c>
       <c r="G2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H2" t="s">
         <v>563</v>
@@ -24095,7 +24094,7 @@
         <v>561</v>
       </c>
       <c r="Q2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R2" t="s">
         <v>564</v>
@@ -24110,19 +24109,19 @@
         <v>547</v>
       </c>
       <c r="Y2" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z2" t="s">
         <v>580</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>581</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>582</v>
       </c>
-      <c r="AB2" t="s">
-        <v>583</v>
-      </c>
       <c r="AC2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -24747,12 +24746,12 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
@@ -24761,18 +24760,18 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>577</v>
+      <c r="C18" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
@@ -24780,7 +24779,7 @@
         <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G23" t="s">
         <v>143</v>
@@ -24788,7 +24787,7 @@
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E24" s="37">
         <v>1.5</v>
@@ -24802,7 +24801,7 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E25" s="48">
         <f>3000*(E24-1)</f>
@@ -24819,12 +24818,12 @@
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
+++ b/0.说明文件与教程/武器-技能数值-价格-合成表填写的参考公式（修改后请勿上传git）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\CRAZYFLASHER7StandAloneStarter\project\CrazyFlashNight\0.说明文件与教程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steam1\steamapps\common\CRAZYFLASHER7StandAloneStarter\resources\0.说明文件与教程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A7CE1-1001-479A-B861-8F788F2E7020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFFF187-6299-47D4-9048-FFAF8A01F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="631" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枪械" sheetId="12" r:id="rId1"/>
@@ -2068,10 +2068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面板转换的基本计算参考下方，公式暂定为1攻=1.5防=3hp=3mp，1重量=3.3攻=5防=10hp=10mp，1攻=0.8空手加成=1伤害加成。以此为依据可进行面板转换。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面板转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2092,10 +2088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>换算的总攻击≈上方推荐锋利度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无需修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2381,6 +2373,14 @@
   </si>
   <si>
     <t>当前数值小于数值上限即可，一般不需要强行拉高到接近上限。当前数值越接近数值上限，代表药剂强度越接近或适当超过对应的玩家等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板转换的基本计算参考下方，公式暂定为1攻=1.5防=3hp=3mp，1重量=3.3攻=5防=10hp=10mp，1攻=0.8空手加成=1伤害加成。以此为依据可进行面板转换，调整数值使得换算的总攻击≈推荐锋利度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请让换算的总攻击≈上方推荐锋利度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2647,7 +2647,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -3372,50 +3372,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364195C9-74FB-4CBB-BB5D-941A31102B71}">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.08203125" customWidth="1"/>
-    <col min="8" max="9" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="9" width="7.875" customWidth="1"/>
     <col min="10" max="10" width="7.75" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
-    <col min="13" max="13" width="7.58203125" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
-    <col min="19" max="19" width="9.08203125" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="6.875" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="19" max="19" width="9.125" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
     <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="25" width="11.1640625" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" customWidth="1"/>
-    <col min="27" max="28" width="11.1640625" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" customWidth="1"/>
-    <col min="30" max="30" width="7.6640625" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" customWidth="1"/>
-    <col min="32" max="32" width="8.08203125" customWidth="1"/>
-    <col min="33" max="33" width="6.58203125" customWidth="1"/>
+    <col min="23" max="23" width="9.625" customWidth="1"/>
+    <col min="24" max="25" width="11.125" customWidth="1"/>
+    <col min="26" max="26" width="7.375" customWidth="1"/>
+    <col min="27" max="28" width="11.125" customWidth="1"/>
+    <col min="29" max="29" width="10.875" customWidth="1"/>
+    <col min="30" max="30" width="7.625" customWidth="1"/>
+    <col min="31" max="31" width="10.875" customWidth="1"/>
+    <col min="32" max="32" width="8.125" customWidth="1"/>
+    <col min="33" max="33" width="6.625" customWidth="1"/>
     <col min="34" max="34" width="7.75" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" customWidth="1"/>
-    <col min="36" max="37" width="8.08203125" customWidth="1"/>
-    <col min="38" max="38" width="4.58203125" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" customWidth="1"/>
+    <col min="35" max="35" width="10.875" customWidth="1"/>
+    <col min="36" max="37" width="8.125" customWidth="1"/>
+    <col min="38" max="38" width="4.625" customWidth="1"/>
+    <col min="39" max="39" width="9.875" customWidth="1"/>
     <col min="40" max="40" width="11.5" customWidth="1"/>
     <col min="41" max="41" width="9.5" customWidth="1"/>
-    <col min="42" max="42" width="7.1640625" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" customWidth="1"/>
+    <col min="42" max="42" width="7.125" customWidth="1"/>
+    <col min="43" max="43" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>258</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -3533,10 +3533,10 @@
         <v>362</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>363</v>
@@ -3584,7 +3584,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0.99716815739795128</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>1.0015845267232879</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>1.0039916274153877</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -4148,7 +4148,7 @@
         <v>1.0002981435603826</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>146</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1.0040158907555403</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>147</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>0.94344180679552681</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>151</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0.97762822485203782</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>152</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0.91859136340905279</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>153</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0.96299710274747996</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>145</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0.97823794688521748</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>155</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>0.99943830615938578</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>297</v>
       </c>
@@ -5299,12 +5299,12 @@
         <v>0.88171731177739332</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5314,7 +5314,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
         <v>231</v>
@@ -5329,7 +5329,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
         <v>267</v>
@@ -5338,16 +5338,16 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
         <v>269</v>
@@ -5359,7 +5359,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
         <v>270</v>
@@ -5368,10 +5368,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>303</v>
@@ -5391,7 +5391,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="Q25" s="38" t="s">
         <v>511</v>
@@ -5415,7 +5415,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>40</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>294</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>176</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>47</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>295</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>515</v>
       </c>
@@ -5550,9 +5550,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AN32" s="2" t="s">
         <v>368</v>
@@ -5562,9 +5562,9 @@
         <v>355.53265306122444</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5589,29 +5589,29 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.9140625" customWidth="1"/>
-    <col min="11" max="11" width="4.9140625" customWidth="1"/>
-    <col min="12" max="12" width="9.4140625" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="4.875" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
     <col min="14" max="14" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>89</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>10762.71186440678</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>11525.423728813559</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>12288.135593220339</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>4</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>13050.847457627118</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>5</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>13813.559322033898</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>6</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>14576.271186440677</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>7</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>15338.983050847459</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>8</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>16101.694915254237</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>9</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>16864.406779661018</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>10</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>17627.118644067796</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>348.81355932203388</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>2</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>687.62711864406776</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>1026.4406779661017</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>1365.2542372881355</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>5</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>1704.0677966101694</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>6</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>2042.8813559322034</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>7</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>2381.694915254237</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>8</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>9</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>3059.3220338983051</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>10</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>3398.1355932203387</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>11</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>3736.9491525423728</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>12</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>4075.7627118644068</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>13</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>4414.5762711864409</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>14</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>4753.389830508474</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>15</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>5092.2033898305081</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>16</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>5431.0169491525421</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>17</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>5769.8305084745762</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>18</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>6108.6440677966102</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>19</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>6447.4576271186434</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>20</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>6786.2711864406774</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>21</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>7125.0847457627115</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>22</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>7463.8983050847455</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>23</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>7802.7118644067796</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>24</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>8141.5254237288136</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>25</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>8480.3389830508477</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>26</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>8819.1525423728817</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>27</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>9157.966101694914</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>28</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>9496.779661016948</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>29</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>9835.5932203389821</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>30</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>31</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>10513.22033898305</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>32</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>10852.033898305084</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>33</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>11190.847457627118</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>34</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>11529.661016949152</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>35</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>11868.474576271186</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>36</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>12207.28813559322</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>37</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>12546.101694915254</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>38</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>12884.915254237287</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>39</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>13223.728813559321</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>40</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H68">
         <f>SUM(F20:F128)</f>
         <v>278227.11864406784</v>
@@ -6642,24 +6642,24 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>132</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>子弹威力 = 100+ ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)+_parent._parent.等级*10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>64</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -6749,19 +6749,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 *1+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>130</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>子弹威力 = 500+ ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)+_parent._parent.等级*10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>64</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
@@ -6824,19 +6824,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /3+100 ) *(1+_parent._parent.技能等级*1)</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="K17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>131</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>67</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /5 ) *( 1+_parent._parent.技能等级*1 )+1*( _parent._parent.刀属性数组[13] )</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
@@ -6914,19 +6914,19 @@
         <v>子弹威力 =  ( _parent._parent.空手攻击力 /5+100 ) *( 1+_parent._parent.技能等级*1 )+1*( _parent._parent.刀属性数组[13] )</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="K25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>76</v>
       </c>
@@ -6945,39 +6945,39 @@
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="13" max="13" width="15.75" customWidth="1"/>
     <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="10.08203125" customWidth="1"/>
-    <col min="16" max="16" width="12.9140625" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="17" max="17" width="11.625" customWidth="1"/>
     <col min="18" max="18" width="9.25" customWidth="1"/>
     <col min="22" max="23" width="11.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.25" customWidth="1"/>
     <col min="27" max="27" width="9.75" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="11.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>89</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>10762.71186440678</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>23050.847457627118</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>36864.406779661018</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>4</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>52203.389830508473</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>5</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>69067.796610169491</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>6</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>87457.627118644072</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>7</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>107372.88135593222</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>8</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>128813.55932203389</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>9</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>10</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>11</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>202288.13559322036</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>12</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>229830.50847457626</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>13</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>258898.30508474578</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>14</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>289491.52542372886</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>15</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>321610.16949152545</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>16</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>355254.23728813557</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>17</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>390423.72881355934</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>18</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>427118.64406779665</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>19</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>465338.98305084748</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>20</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>4288983.0508474577</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>21</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>546355.93220338982</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>22</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>589152.54237288143</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>23</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>633474.57627118647</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>24</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>679322.03389830515</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>25</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>726694.91525423725</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>26</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>775593.22033898311</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>27</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>826016.94915254239</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>28</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>877966.10169491533</v>
       </c>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>29</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>931440.67796610168</v>
       </c>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>30</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>986440.67796610168</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>31</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>1042966.1016949151</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>32</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1101016.9491525423</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>33</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>1160593.220338983</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>34</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>1221694.9152542374</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>35</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>1284322.0338983051</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>36</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>1348474.5762711866</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>37</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>1414152.5423728817</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>38</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1481355.9322033899</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>39</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>1550084.7457627119</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>40</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>1620338.9830508474</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>41</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>1692118.6440677964</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>42</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>1765423.7288135593</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>43</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>1840254.2372881356</v>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>44</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1916610.1694915255</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>45</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>1994491.5254237286</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>46</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>2073898.3050847456</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>47</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>2154830.5084745763</v>
       </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>48</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>2237288.1355932206</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>49</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>2321271.1864406783</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>50</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>2406779.661016949</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>51</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>2493813.559322034</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>52</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>2582372.8813559324</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>53</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>2672457.6271186443</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>54</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>2764067.7966101696</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>55</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>2857203.3898305083</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>56</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>2951864.4067796613</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>57</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>3048050.8474576273</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>58</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>3145762.7118644067</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>59</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>3245000</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>60</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>3345762.7118644067</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>61</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>3448050.8474576273</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>62</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>3551864.4067796608</v>
       </c>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>63</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>3657203.3898305083</v>
       </c>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>64</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>3764067.7966101696</v>
       </c>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>65</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>3872457.6271186443</v>
       </c>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>66</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>3982372.8813559324</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>67</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>4093813.559322034</v>
       </c>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>68</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>4206779.6610169495</v>
       </c>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>69</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>4321271.1864406783</v>
       </c>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>70</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>4437288.1355932206</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>71</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>4554830.5084745763</v>
       </c>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>72</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>4673898.3050847454</v>
       </c>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>73</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>4794491.5254237289</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>74</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>4916610.1694915267</v>
       </c>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>75</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>5040254.2372881351</v>
       </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>76</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>5165423.7288135597</v>
       </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>77</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>5292118.6440677969</v>
       </c>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>78</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>5420338.9830508474</v>
       </c>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>79</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>5550084.7457627123</v>
       </c>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>80</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>5681355.9322033897</v>
       </c>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>81</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>5814152.5423728824</v>
       </c>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>82</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>5948474.5762711857</v>
       </c>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>83</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>6084322.0338983061</v>
       </c>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>84</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>6221694.9152542371</v>
       </c>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>85</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>6360593.2203389835</v>
       </c>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>86</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>6501016.9491525423</v>
       </c>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>87</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>6642966.1016949154</v>
       </c>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>88</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>6786440.677966102</v>
       </c>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>89</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>6931440.677966102</v>
       </c>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>90</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>7077966.1016949145</v>
       </c>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>91</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>7226016.9491525423</v>
       </c>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>92</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>7375593.2203389825</v>
       </c>
     </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>93</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>7526694.9152542371</v>
       </c>
     </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>94</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>7679322.0338983051</v>
       </c>
     </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>95</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>7833474.5762711866</v>
       </c>
     </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>96</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>7989152.5423728824</v>
       </c>
     </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>97</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>8146355.9322033906</v>
       </c>
     </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>98</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>8305084.7457627123</v>
       </c>
     </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>99</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>8465338.9830508474</v>
       </c>
     </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>100</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>8627118.6440677959</v>
       </c>
     </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>40</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>620338.98305084743</v>
       </c>
     </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>40</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>22372.881355932215</v>
       </c>
     </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>40</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>4016.9491525423728</v>
       </c>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>30</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>0.24842767295597482</v>
       </c>
     </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>30</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>4.0253164556962027</v>
       </c>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>30</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>382.38545360462706</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F114" t="s">
         <v>254</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>393220.33898305101</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G115">
         <v>797627.11864406802</v>
       </c>
@@ -15482,13 +15482,13 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>109</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>110</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>30000</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>30000</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>30000</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>30000</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>2.5555555555555554</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>0</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>25000</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>521.5999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>1000</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>3266.6666666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>1000</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>23.333333333333357</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>1000</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>10682.476666666664</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>1000</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>10887.608549999999</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>1000</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>19.500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>1000</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>9.3333333333333375</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>1000</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>1000000</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>0.67666666666666742</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>38000</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>7.280701754385964</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>24000</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>11.527777777777777</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>50000</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>13.533333333333349</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>30000</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>22.555555555555582</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29">
         <f>21000+5*D29</f>
         <v>23650</v>
@@ -16425,13 +16425,13 @@
         <v>7.2222222222222215E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="S30">
         <f>18000/30</f>
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31">
         <f>25000+3.5*D31*0.9</f>
         <v>30670</v>
@@ -16470,7 +16470,7 @@
         <v>9.1294424519073978</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32">
         <f>25000+3.5*D32*0.9</f>
         <v>25866.25</v>
@@ -16509,7 +16509,7 @@
         <v>13.337843715266033</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>100+3*D35</f>
         <v>700</v>
@@ -16548,7 +16548,7 @@
         <v>23.80952380952381</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>500</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>120.00000000000003</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>2500</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>24.000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>30000</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>44.77777777777802</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>30000</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>26.866666666666813</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="K46">
         <f>K43+K44*300</f>
         <v>243143333.33333468</v>
@@ -16733,26 +16733,26 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="9.4140625" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="9" max="9" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
     <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="8.4140625" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="8.375" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
     <col min="17" max="17" width="7.75" customWidth="1"/>
-    <col min="18" max="18" width="11.58203125" customWidth="1"/>
-    <col min="19" max="19" width="9.08203125" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="19" max="19" width="9.125" customWidth="1"/>
     <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="11.58203125" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>125</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>122</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>10</v>
       </c>
@@ -16854,7 +16854,7 @@
       </c>
       <c r="T4" s="41"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D5">
         <f>C4*C4*10</f>
         <v>1000</v>
@@ -16915,7 +16915,7 @@
         <v>-0.19884259259259252</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J6">
         <v>3</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>-8.9363904120397797E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="J7">
         <v>4</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>-1.1887532058720729E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>126</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>9.0935860426510605E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>89</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>1.4779043175867172E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>1.6636355740665677E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>1.7261406920827796E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>3</v>
       </c>
@@ -17316,7 +17316,7 @@
         <v>1.7551807231837972E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>4</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>1.7685995918961504E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>5</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>1.7787912950039883E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>6</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>1.7865764673784704E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>7</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>1.7946979381990601E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>8</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>9</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>10</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>11</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>12</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>13</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>14</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>15</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>16</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>17</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>通用轻甲攻击套</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>18</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>通用轻甲一般套</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>19</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>通用轻甲物防套</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>20</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>通用轻甲魔抗套</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>21</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>通用轻甲血防套</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>22</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>23</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>刀剑轻甲攻击套</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>24</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>刀剑轻甲一般套</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>25</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>刀剑轻甲物防套</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>26</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>刀剑轻甲魔抗套</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>27</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>刀剑轻甲血防套</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>28</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>29</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>枪械轻甲攻击套</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>30</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>枪械轻甲一般套</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>31</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>枪械轻甲物防套</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>32</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>枪械轻甲魔抗套</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>33</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>枪械轻甲血防套</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>34</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>35</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>拳皇轻甲攻击套</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>36</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>拳皇轻甲一般套</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>37</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>拳皇轻甲物防套</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>38</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>拳皇轻甲魔抗套</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>39</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>拳皇轻甲血防套</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>40</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>41</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>刀内力轻甲攻击套</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>42</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>刀内力轻甲一般套</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>43</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>刀内力轻甲物防套</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>44</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>刀内力轻甲魔抗套</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>45</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>刀内力轻甲血防套</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>46</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>47</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>拳内力轻甲攻击套</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>48</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>拳内力轻甲一般套</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>49</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>拳内力轻甲物防套</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>50</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>拳内力轻甲魔抗套</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>51</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>拳内力轻甲血防套</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>52</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>53</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>54</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>55</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>56</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>57</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>58</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>59</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>60</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>61</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>62</v>
       </c>
@@ -18574,7 +18574,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>63</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>575000</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>64</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>65</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75">
         <v>66</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>67</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>68</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>69</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>70</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>71</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>72</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>73</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>74</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>75</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>76</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86">
         <v>77</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>78</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>79</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>975000</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>80</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>81</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>1025000</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>82</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>83</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>1075000</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>84</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>85</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>1125000</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>86</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>87</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>88</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>89</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>1225000</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>90</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>91</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>1275000</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101">
         <v>92</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>93</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>1325000</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>94</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104">
         <v>95</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>1375000</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105">
         <v>96</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106">
         <v>97</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>1425000</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>98</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>99</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>1475000</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C109">
         <v>100</v>
       </c>
@@ -18931,34 +18931,34 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="8" width="8.08203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
     <col min="10" max="10" width="7.75" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.08203125" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C1" s="29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>259</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>1.0932721712538227</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -19182,7 +19182,7 @@
         <v>0.64853932584269658</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -19194,7 +19194,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>144</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>146</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>0.9010989010989009</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>147</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>1.0025706940874035</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>154</v>
       </c>
@@ -19403,7 +19403,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>151</v>
       </c>
@@ -19421,7 +19421,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>152</v>
       </c>
@@ -19436,7 +19436,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>153</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>1.2587412587412585</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>145</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>1.118279569892473</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>155</v>
       </c>
@@ -19632,25 +19632,25 @@
         <v>1.6709511568123394</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>3.0517374517374516</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -19774,10 +19774,10 @@
         <v>1.777665231704229</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
@@ -19785,16 +19785,16 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
@@ -19802,42 +19802,42 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>137</v>
       </c>
@@ -19860,25 +19860,25 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="10.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
     <col min="6" max="6" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.58203125" customWidth="1"/>
-    <col min="13" max="13" width="12.08203125" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
     <col min="19" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>179</v>
       </c>
@@ -19907,7 +19907,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>171</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>173</v>
@@ -20083,7 +20083,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>255</v>
@@ -20139,7 +20139,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>144</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>146</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>147</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>154</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>145</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>155</v>
       </c>
@@ -20450,7 +20450,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>191</v>
       </c>
@@ -20471,7 +20471,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -20487,7 +20487,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -20509,7 +20509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>476</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -20580,7 +20580,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>189</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>253</v>
@@ -20690,7 +20690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -20711,7 +20711,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="24" t="s">
         <v>231</v>
@@ -20736,10 +20736,10 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
@@ -20747,16 +20747,16 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -20764,37 +20764,37 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>313</v>
       </c>
@@ -20816,21 +20816,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FB5CA-E031-44AD-AD67-22BEED664136}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -20841,7 +20843,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>14</v>
       </c>
@@ -20858,7 +20860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -20879,7 +20881,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
@@ -20900,27 +20902,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>145</v>
       </c>
@@ -20928,52 +20930,52 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" t="s">
+        <v>520</v>
+      </c>
+      <c r="F17" t="s">
         <v>518</v>
       </c>
-      <c r="E17" t="s">
-        <v>521</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>519</v>
-      </c>
-      <c r="G17" t="s">
-        <v>520</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="E18" s="37">
         <v>250</v>
@@ -20992,7 +20994,7 @@
         <v>356.66666666666663</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>314</v>
       </c>
@@ -21006,8 +21008,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E22" s="37">
@@ -21036,15 +21038,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.4140625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -21052,7 +21054,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -21079,7 +21081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>3000</v>
       </c>
@@ -21104,7 +21106,7 @@
         <v>6277.306535510872</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>1800</v>
       </c>
@@ -21129,7 +21131,7 @@
         <v>1860.4497861632703</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
@@ -21153,12 +21155,12 @@
         <v>4025.8758493764772</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -21178,7 +21180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>1000</v>
       </c>
@@ -21196,7 +21198,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -21217,7 +21219,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="42" t="s">
         <v>269</v>
       </c>
@@ -21240,17 +21242,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>79</v>
       </c>
@@ -21279,7 +21281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -21311,7 +21313,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -21343,7 +21345,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>84</v>
       </c>
@@ -21375,7 +21377,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>83</v>
       </c>
@@ -21407,7 +21409,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>267</v>
       </c>
@@ -21415,7 +21417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>305</v>
       </c>
@@ -21423,17 +21425,17 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>80</v>
       </c>
@@ -21465,7 +21467,7 @@
         <v>30.814814814814813</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>10</v>
       </c>
@@ -21491,7 +21493,7 @@
         <v>28.888888888888889</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>32</v>
       </c>
@@ -21517,7 +21519,7 @@
         <v>30.814814814814813</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>83</v>
       </c>
@@ -21546,38 +21548,38 @@
         <v>28.888888888888889</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>304</v>
       </c>
@@ -21597,29 +21599,28 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="21" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="13.08203125" customWidth="1"/>
-    <col min="13" max="13" width="6.08203125" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="11" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
     <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="16" max="16" width="13.9140625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -21633,7 +21634,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
@@ -21647,7 +21648,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>207</v>
@@ -21683,7 +21684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>171</v>
       </c>
@@ -21727,7 +21728,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>172</v>
@@ -21769,7 +21770,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
@@ -21782,7 +21783,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>146</v>
       </c>
@@ -21791,7 +21792,7 @@
         <v>231</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="3"/>
@@ -21800,7 +21801,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>147</v>
       </c>
@@ -21813,7 +21814,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -21836,7 +21837,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>145</v>
       </c>
@@ -21861,7 +21862,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>155</v>
       </c>
@@ -21884,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>359</v>
       </c>
@@ -21897,7 +21898,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>218</v>
       </c>
@@ -21930,7 +21931,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" t="s">
         <v>222</v>
@@ -21965,7 +21966,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="D14" t="s">
         <v>223</v>
@@ -21990,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>172</v>
@@ -22022,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="D16" t="s">
         <v>227</v>
@@ -22047,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="D17" t="s">
         <v>228</v>
@@ -22072,7 +22073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
@@ -22098,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="24" t="s">
         <v>231</v>
@@ -22107,16 +22108,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="D20" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>358</v>
       </c>
@@ -22157,7 +22158,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>222</v>
@@ -22202,7 +22203,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>25</v>
@@ -22247,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
@@ -22286,7 +22287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
@@ -22325,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>231</v>
@@ -22342,7 +22343,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
@@ -22354,13 +22355,13 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="D29" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
@@ -22368,29 +22369,29 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D33" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -22411,17 +22412,17 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="16" max="16" width="8.25" customWidth="1"/>
     <col min="17" max="17" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D2" s="33" t="s">
         <v>415</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>320</v>
       </c>
@@ -22490,7 +22491,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>340</v>
       </c>
@@ -22527,7 +22528,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>344</v>
       </c>
@@ -22564,7 +22565,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>319</v>
       </c>
@@ -22601,7 +22602,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8" s="24" t="s">
         <v>231</v>
       </c>
@@ -22609,22 +22610,22 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I11" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I12" s="33" t="s">
         <v>325</v>
       </c>
@@ -22641,7 +22642,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
         <v>414</v>
       </c>
@@ -22666,7 +22667,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D14" s="33" t="s">
         <v>395</v>
       </c>
@@ -22697,7 +22698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>394</v>
       </c>
@@ -22718,7 +22719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>397</v>
       </c>
@@ -22739,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>398</v>
       </c>
@@ -22760,7 +22761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>400</v>
       </c>
@@ -22784,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>401</v>
       </c>
@@ -22808,7 +22809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>402</v>
       </c>
@@ -22832,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>403</v>
       </c>
@@ -22856,7 +22857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>404</v>
       </c>
@@ -22877,7 +22878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>413</v>
       </c>
@@ -22885,7 +22886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>406</v>
       </c>
@@ -22896,7 +22897,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I25" s="33" t="s">
         <v>220</v>
       </c>
@@ -22922,7 +22923,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>86</v>
       </c>
@@ -22953,7 +22954,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="H27" s="1" t="s">
         <v>349</v>
       </c>
@@ -22984,7 +22985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I28" s="46" t="s">
         <v>351</v>
       </c>
@@ -23008,7 +23009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I29" s="46" t="s">
         <v>352</v>
       </c>
@@ -23032,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I30" s="46" t="s">
         <v>353</v>
       </c>
@@ -23056,7 +23057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I31" s="46" t="s">
         <v>354</v>
       </c>
@@ -23080,7 +23081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I32" s="46" t="s">
         <v>412</v>
       </c>
@@ -23118,34 +23119,34 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="5.9140625" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="8.08203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" customWidth="1"/>
-    <col min="11" max="11" width="7.9140625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.58203125" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.9140625" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="9.875" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C2" s="33" t="s">
         <v>395</v>
       </c>
@@ -23207,7 +23208,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>464</v>
       </c>
@@ -23282,7 +23283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>479</v>
       </c>
@@ -23357,7 +23358,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>466</v>
       </c>
@@ -23432,7 +23433,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>468</v>
       </c>
@@ -23507,7 +23508,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>465</v>
       </c>
@@ -23582,7 +23583,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>456</v>
       </c>
@@ -23657,7 +23658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>467</v>
       </c>
@@ -23668,7 +23669,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>146</v>
       </c>
@@ -23678,7 +23679,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>145</v>
       </c>
@@ -23687,35 +23688,35 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>395</v>
       </c>
@@ -23723,7 +23724,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="33" t="s">
         <v>395</v>
       </c>
@@ -23743,7 +23744,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>394</v>
       </c>
@@ -23760,7 +23761,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>397</v>
       </c>
@@ -23777,7 +23778,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>398</v>
       </c>
@@ -23794,7 +23795,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>400</v>
       </c>
@@ -23814,7 +23815,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>401</v>
       </c>
@@ -23834,7 +23835,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>402</v>
       </c>
@@ -23857,7 +23858,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>403</v>
       </c>
@@ -23883,7 +23884,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>404</v>
       </c>
@@ -23906,7 +23907,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>405</v>
       </c>
@@ -23929,7 +23930,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>406</v>
       </c>
@@ -23946,13 +23947,13 @@
         <v>428</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L30" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G31" s="42" t="s">
         <v>483</v>
       </c>
@@ -23960,7 +23961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>458</v>
       </c>
@@ -23981,12 +23982,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
       <c r="K33" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G34" s="24" t="s">
         <v>505</v>
       </c>
@@ -23994,7 +23995,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G35" s="2"/>
     </row>
   </sheetData>
@@ -24012,121 +24013,120 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="8.4140625" customWidth="1"/>
-    <col min="9" max="9" width="6.4140625" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.08203125" customWidth="1"/>
-    <col min="12" max="12" width="7.4140625" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" customWidth="1"/>
-    <col min="18" max="18" width="10.08203125" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="7.125" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="8.125" customWidth="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1"/>
     <col min="21" max="21" width="11.25" customWidth="1"/>
     <col min="24" max="24" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" t="s">
+        <v>576</v>
+      </c>
+      <c r="N1" t="s">
+        <v>564</v>
+      </c>
+      <c r="R1" t="s">
+        <v>560</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H2" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" t="s">
+        <v>549</v>
+      </c>
+      <c r="K2" t="s">
         <v>555</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L2" t="s">
         <v>556</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M2" t="s">
+        <v>557</v>
+      </c>
+      <c r="N2" t="s">
+        <v>563</v>
+      </c>
+      <c r="O2" t="s">
+        <v>558</v>
+      </c>
+      <c r="P2" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>586</v>
+      </c>
+      <c r="R2" t="s">
+        <v>562</v>
+      </c>
+      <c r="T2" t="s">
+        <v>546</v>
+      </c>
+      <c r="U2" t="s">
+        <v>544</v>
+      </c>
+      <c r="V2" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z2" t="s">
         <v>578</v>
       </c>
-      <c r="N1" t="s">
-        <v>566</v>
-      </c>
-      <c r="R1" t="s">
-        <v>562</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F2" t="s">
-        <v>520</v>
-      </c>
-      <c r="G2" t="s">
-        <v>593</v>
-      </c>
-      <c r="H2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J2" t="s">
-        <v>551</v>
-      </c>
-      <c r="K2" t="s">
-        <v>557</v>
-      </c>
-      <c r="L2" t="s">
-        <v>558</v>
-      </c>
-      <c r="M2" t="s">
-        <v>559</v>
-      </c>
-      <c r="N2" t="s">
-        <v>565</v>
-      </c>
-      <c r="O2" t="s">
-        <v>560</v>
-      </c>
-      <c r="P2" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>588</v>
-      </c>
-      <c r="R2" t="s">
-        <v>564</v>
-      </c>
-      <c r="T2" t="s">
-        <v>548</v>
-      </c>
-      <c r="U2" t="s">
-        <v>546</v>
-      </c>
-      <c r="V2" t="s">
-        <v>547</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>579</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>580</v>
       </c>
-      <c r="AA2" t="s">
-        <v>581</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>582</v>
-      </c>
       <c r="AC2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -24206,9 +24206,9 @@
         <v>84.758683757199734</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -24288,12 +24288,12 @@
         <v>54.248195682181851</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -24373,12 +24373,12 @@
         <v>7055.2771478508666</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -24458,12 +24458,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D7">
         <v>35</v>
@@ -24543,12 +24543,12 @@
         <v>7621.9601406702186</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -24628,9 +24628,9 @@
         <v>5097.0707653062082</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
@@ -24641,12 +24641,12 @@
       <c r="AB9" s="50"/>
       <c r="AC9" s="50"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D10" s="37">
         <v>30</v>
@@ -24726,68 +24726,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>572</v>
+      </c>
+      <c r="D13" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E24" s="37">
         <v>1.5</v>
@@ -24799,9 +24799,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E25" s="48">
         <f>3000*(E24-1)</f>
@@ -24816,14 +24816,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
